--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2018.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2018.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>153.963223469587</v>
+        <v>158.4088872167998</v>
       </c>
       <c r="C2">
-        <v>137.9558897150168</v>
+        <v>142.7420393821964</v>
       </c>
       <c r="D2">
-        <v>136.7765891579174</v>
+        <v>143.0894928858491</v>
       </c>
       <c r="E2">
-        <v>127.9104201900934</v>
+        <v>135.0269216847545</v>
       </c>
       <c r="F2">
-        <v>142.7697908964784</v>
+        <v>145.3321820455093</v>
       </c>
       <c r="G2">
-        <v>139.764726038708</v>
+        <v>154.1229173822577</v>
       </c>
       <c r="H2">
-        <v>159.3434772863735</v>
+        <v>167.7343270630619</v>
       </c>
       <c r="I2">
-        <v>156.4910551687199</v>
+        <v>165.0228662024639</v>
       </c>
       <c r="J2">
-        <v>137.077449654744</v>
+        <v>142.1737730941901</v>
       </c>
       <c r="K2">
-        <v>138.9360786485001</v>
+        <v>145.1059968355564</v>
       </c>
       <c r="L2">
-        <v>183.5529400029924</v>
+        <v>189.1417492536888</v>
       </c>
       <c r="M2">
-        <v>150.8022824067898</v>
+        <v>157.2074726141973</v>
       </c>
       <c r="N2">
-        <v>119.2749294174644</v>
+        <v>123.6101143520607</v>
       </c>
       <c r="O2">
-        <v>149.4347563997119</v>
+        <v>154.3051522086733</v>
       </c>
       <c r="P2">
-        <v>129.4047708397918</v>
+        <v>135.1946514056356</v>
       </c>
       <c r="Q2">
-        <v>127.8645746171682</v>
+        <v>135.8357852370882</v>
       </c>
       <c r="R2">
-        <v>142.435906380496</v>
+        <v>153.1655769007154</v>
       </c>
       <c r="S2">
-        <v>199.5038411826312</v>
+        <v>206.6505645821559</v>
       </c>
       <c r="T2">
-        <v>164.1718153653901</v>
+        <v>175.2248024784567</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.30065807835396</v>
+        <v>12.65583763652033</v>
       </c>
       <c r="C3">
-        <v>9.837823472332955</v>
+        <v>10.17913036133309</v>
       </c>
       <c r="D3">
-        <v>8.86041977737001</v>
+        <v>9.269371173131299</v>
       </c>
       <c r="E3">
-        <v>11.22661016702343</v>
+        <v>11.8512206398439</v>
       </c>
       <c r="F3">
-        <v>14.82624033197365</v>
+        <v>15.09233742969652</v>
       </c>
       <c r="G3">
-        <v>8.768490116586301</v>
+        <v>9.669287209359929</v>
       </c>
       <c r="H3">
-        <v>9.060497701083246</v>
+        <v>9.537613403630562</v>
       </c>
       <c r="I3">
-        <v>10.72308516336369</v>
+        <v>11.30770219603643</v>
       </c>
       <c r="J3">
-        <v>10.21616381541589</v>
+        <v>10.59598467759899</v>
       </c>
       <c r="K3">
-        <v>11.20082856841676</v>
+        <v>11.69823857571381</v>
       </c>
       <c r="L3">
-        <v>13.30512906374459</v>
+        <v>13.71024286029808</v>
       </c>
       <c r="M3">
-        <v>10.98488316006609</v>
+        <v>11.45145611190361</v>
       </c>
       <c r="N3">
-        <v>9.028700780166725</v>
+        <v>9.356859327753554</v>
       </c>
       <c r="O3">
-        <v>11.94625723495665</v>
+        <v>12.33561110798923</v>
       </c>
       <c r="P3">
-        <v>8.170397624369789</v>
+        <v>8.5359608575764</v>
       </c>
       <c r="Q3">
-        <v>7.195939562259536</v>
+        <v>7.644541921675541</v>
       </c>
       <c r="R3">
-        <v>7.866888210250165</v>
+        <v>8.459499446141042</v>
       </c>
       <c r="S3">
-        <v>17.47657055224923</v>
+        <v>18.10262474232803</v>
       </c>
       <c r="T3">
-        <v>15.99978860222332</v>
+        <v>17.07698603004348</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.415491064263085</v>
+        <v>7.629612196889846</v>
       </c>
       <c r="C4">
-        <v>5.646666543056509</v>
+        <v>5.842568227656947</v>
       </c>
       <c r="D4">
-        <v>6.016382554339872</v>
+        <v>6.294067822628759</v>
       </c>
       <c r="E4">
-        <v>7.856666479443991</v>
+        <v>8.293784727206161</v>
       </c>
       <c r="F4">
-        <v>6.451476061509832</v>
+        <v>6.56726529853536</v>
       </c>
       <c r="G4">
-        <v>6.427081957196646</v>
+        <v>7.087343491974369</v>
       </c>
       <c r="H4">
-        <v>6.037161022874016</v>
+        <v>6.355071188280871</v>
       </c>
       <c r="I4">
-        <v>6.741010533833244</v>
+        <v>7.10852692631418</v>
       </c>
       <c r="J4">
-        <v>6.86294545237789</v>
+        <v>7.118098943055508</v>
       </c>
       <c r="K4">
-        <v>6.119058608729649</v>
+        <v>6.390795736802621</v>
       </c>
       <c r="L4">
-        <v>6.860220722870965</v>
+        <v>7.069100324784046</v>
       </c>
       <c r="M4">
-        <v>7.905312958610851</v>
+        <v>8.241083958497962</v>
       </c>
       <c r="N4">
-        <v>5.59904107987103</v>
+        <v>5.802544688350958</v>
       </c>
       <c r="O4">
-        <v>9.099804343272831</v>
+        <v>9.396386276443033</v>
       </c>
       <c r="P4">
-        <v>5.514092047512604</v>
+        <v>5.760805782848472</v>
       </c>
       <c r="Q4">
-        <v>5.764227584273957</v>
+        <v>6.123575529339822</v>
       </c>
       <c r="R4">
-        <v>6.673131414512941</v>
+        <v>7.175817171463718</v>
       </c>
       <c r="S4">
-        <v>8.431001055623899</v>
+        <v>8.733020466220038</v>
       </c>
       <c r="T4">
-        <v>6.064522142094712</v>
+        <v>6.472820514956654</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.19035200086694</v>
+        <v>21.80222006622699</v>
       </c>
       <c r="C5">
-        <v>15.73248289544435</v>
+        <v>16.27829516869696</v>
       </c>
       <c r="D5">
-        <v>14.38862923008749</v>
+        <v>15.05273433510347</v>
       </c>
       <c r="E5">
-        <v>15.38629862848988</v>
+        <v>16.24234004422616</v>
       </c>
       <c r="F5">
-        <v>15.03199483264242</v>
+        <v>15.30178475297206</v>
       </c>
       <c r="G5">
-        <v>15.4074379499967</v>
+        <v>16.99026180312438</v>
       </c>
       <c r="H5">
-        <v>15.84358421273411</v>
+        <v>16.67788968489624</v>
       </c>
       <c r="I5">
-        <v>18.66602392429924</v>
+        <v>19.68368585201623</v>
       </c>
       <c r="J5">
-        <v>13.45143357312494</v>
+        <v>13.95153666364444</v>
       </c>
       <c r="K5">
-        <v>17.3773394316078</v>
+        <v>18.14903792522211</v>
       </c>
       <c r="L5">
-        <v>22.17381391736786</v>
+        <v>22.84896091497294</v>
       </c>
       <c r="M5">
-        <v>14.61191490235117</v>
+        <v>15.23254273868289</v>
       </c>
       <c r="N5">
-        <v>16.45202893466313</v>
+        <v>17.04999690940377</v>
       </c>
       <c r="O5">
-        <v>23.63762024204219</v>
+        <v>24.40802044434</v>
       </c>
       <c r="P5">
-        <v>12.98586818189234</v>
+        <v>13.56688714532787</v>
       </c>
       <c r="Q5">
-        <v>12.26405890896119</v>
+        <v>13.02861310163834</v>
       </c>
       <c r="R5">
-        <v>16.2502463295369</v>
+        <v>17.47437438417616</v>
       </c>
       <c r="S5">
-        <v>24.26491796056788</v>
+        <v>25.13414762526184</v>
       </c>
       <c r="T5">
-        <v>24.3369659732889</v>
+        <v>25.97546994350577</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>43.06160296314169</v>
+        <v>44.30499994377146</v>
       </c>
       <c r="C6">
-        <v>41.24639212850512</v>
+        <v>42.67736695941671</v>
       </c>
       <c r="D6">
-        <v>41.90256432823647</v>
+        <v>43.8365711358796</v>
       </c>
       <c r="E6">
-        <v>34.33389916186648</v>
+        <v>36.24412073990402</v>
       </c>
       <c r="F6">
-        <v>31.37795856144752</v>
+        <v>31.94112113798173</v>
       </c>
       <c r="G6">
-        <v>41.920420767554</v>
+        <v>46.22695389391637</v>
       </c>
       <c r="H6">
-        <v>40.49479659316165</v>
+        <v>42.62720741246432</v>
       </c>
       <c r="I6">
-        <v>44.34486698803785</v>
+        <v>46.76252609993115</v>
       </c>
       <c r="J6">
-        <v>33.86788350708552</v>
+        <v>35.12703801423691</v>
       </c>
       <c r="K6">
-        <v>38.5260652108725</v>
+        <v>40.23694313928771</v>
       </c>
       <c r="L6">
-        <v>47.02025549135419</v>
+        <v>48.45192549814301</v>
       </c>
       <c r="M6">
-        <v>47.64499953818208</v>
+        <v>49.66867769214191</v>
       </c>
       <c r="N6">
-        <v>33.94314138224828</v>
+        <v>35.17684402094923</v>
       </c>
       <c r="O6">
-        <v>44.91123723505882</v>
+        <v>46.37498975739588</v>
       </c>
       <c r="P6">
-        <v>46.25337438202614</v>
+        <v>48.32286155549935</v>
       </c>
       <c r="Q6">
-        <v>38.2901847274951</v>
+        <v>40.6772346829057</v>
       </c>
       <c r="R6">
-        <v>38.84889748407273</v>
+        <v>41.77537775628982</v>
       </c>
       <c r="S6">
-        <v>49.24536917744456</v>
+        <v>51.00946068632179</v>
       </c>
       <c r="T6">
-        <v>54.941399078389</v>
+        <v>58.64036881101768</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>13.71663679738609</v>
+        <v>14.1127025173005</v>
       </c>
       <c r="C7">
-        <v>11.84417085396078</v>
+        <v>12.25508462145419</v>
       </c>
       <c r="D7">
-        <v>13.8372899603638</v>
+        <v>14.47594808097534</v>
       </c>
       <c r="E7">
-        <v>12.03517706064559</v>
+        <v>12.70477345016028</v>
       </c>
       <c r="F7">
-        <v>13.27394575936064</v>
+        <v>13.51218272050577</v>
       </c>
       <c r="G7">
-        <v>13.85762455413171</v>
+        <v>15.28123429139969</v>
       </c>
       <c r="H7">
-        <v>13.84044530716654</v>
+        <v>14.56926771893173</v>
       </c>
       <c r="I7">
-        <v>15.29119800035708</v>
+        <v>16.12486617185707</v>
       </c>
       <c r="J7">
-        <v>12.40199341801856</v>
+        <v>12.86307997829013</v>
       </c>
       <c r="K7">
-        <v>11.56285647324193</v>
+        <v>12.07634353248928</v>
       </c>
       <c r="L7">
-        <v>14.69314676147253</v>
+        <v>15.14052284022681</v>
       </c>
       <c r="M7">
-        <v>17.40547408175204</v>
+        <v>18.14475581120884</v>
       </c>
       <c r="N7">
-        <v>11.11446900215506</v>
+        <v>11.5184372024257</v>
       </c>
       <c r="O7">
-        <v>13.75303114671189</v>
+        <v>14.20127161547067</v>
       </c>
       <c r="P7">
-        <v>13.64975158674476</v>
+        <v>14.26047428983994</v>
       </c>
       <c r="Q7">
-        <v>12.31272301067597</v>
+        <v>13.08031097408719</v>
       </c>
       <c r="R7">
-        <v>12.32337407205674</v>
+        <v>13.25169156481986</v>
       </c>
       <c r="S7">
-        <v>15.20266732054394</v>
+        <v>15.7472646457426</v>
       </c>
       <c r="T7">
-        <v>16.70639868787587</v>
+        <v>17.83116915466924</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>209</v>
+        <v>186.16</v>
       </c>
       <c r="C8">
-        <v>250</v>
+        <v>223.98</v>
       </c>
       <c r="D8">
-        <v>238</v>
+        <v>202.83</v>
       </c>
       <c r="E8">
-        <v>246</v>
+        <v>204.05</v>
       </c>
       <c r="F8">
-        <v>235</v>
+        <v>221.27</v>
       </c>
       <c r="G8">
-        <v>297</v>
+        <v>224.78</v>
       </c>
       <c r="H8">
-        <v>229</v>
+        <v>188.4</v>
       </c>
       <c r="I8">
-        <v>230</v>
+        <v>188.02</v>
       </c>
       <c r="J8">
-        <v>277</v>
+        <v>250.12</v>
       </c>
       <c r="K8">
-        <v>231</v>
+        <v>196.85</v>
       </c>
       <c r="L8">
-        <v>174</v>
+        <v>148.85</v>
       </c>
       <c r="M8">
-        <v>228</v>
+        <v>195.21</v>
       </c>
       <c r="N8">
-        <v>272</v>
+        <v>245.54</v>
       </c>
       <c r="O8">
-        <v>213</v>
+        <v>187.35</v>
       </c>
       <c r="P8">
-        <v>243</v>
+        <v>209.13</v>
       </c>
       <c r="Q8">
-        <v>308</v>
+        <v>264.86</v>
       </c>
       <c r="R8">
-        <v>242</v>
+        <v>184.9</v>
       </c>
       <c r="S8">
-        <v>155</v>
+        <v>124.73</v>
       </c>
       <c r="T8">
-        <v>211</v>
+        <v>157.88</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.27332589753525</v>
+        <v>10.56996655935535</v>
       </c>
       <c r="C9">
-        <v>8.766277912718866</v>
+        <v>9.070409314437457</v>
       </c>
       <c r="D9">
-        <v>10.13544057793329</v>
+        <v>10.60324037468645</v>
       </c>
       <c r="E9">
-        <v>11.56540832225599</v>
+        <v>12.20886837413748</v>
       </c>
       <c r="F9">
-        <v>11.55402879431092</v>
+        <v>11.76139718038398</v>
       </c>
       <c r="G9">
-        <v>10.51783473148821</v>
+        <v>11.59834401215404</v>
       </c>
       <c r="H9">
-        <v>8.483416132720288</v>
+        <v>8.930143363574302</v>
       </c>
       <c r="I9">
-        <v>8.570612390644529</v>
+        <v>9.037877725916292</v>
       </c>
       <c r="J9">
-        <v>8.465080674762902</v>
+        <v>8.779799026820477</v>
       </c>
       <c r="K9">
-        <v>7.016258198948528</v>
+        <v>7.327838455767893</v>
       </c>
       <c r="L9">
-        <v>10.86706042448898</v>
+        <v>11.19794004879394</v>
       </c>
       <c r="M9">
-        <v>9.462131956773844</v>
+        <v>9.864027431984482</v>
       </c>
       <c r="N9">
-        <v>7.431689470255098</v>
+        <v>7.701802799077832</v>
       </c>
       <c r="O9">
-        <v>10.38874897190819</v>
+        <v>10.72734034564319</v>
       </c>
       <c r="P9">
-        <v>12.82530103281176</v>
+        <v>13.39913583595751</v>
       </c>
       <c r="Q9">
-        <v>7.042189211914287</v>
+        <v>7.481206614518307</v>
       </c>
       <c r="R9">
-        <v>5.559009949061296</v>
+        <v>5.977769141794014</v>
       </c>
       <c r="S9">
-        <v>6.822587650031586</v>
+        <v>7.066989695198991</v>
       </c>
       <c r="T9">
-        <v>6.414540626383068</v>
+        <v>6.846404248782902</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>27.47289835618427</v>
+        <v>28.26617395473705</v>
       </c>
       <c r="C10">
-        <v>31.06864072089445</v>
+        <v>32.146515429638</v>
       </c>
       <c r="D10">
-        <v>27.58879870478756</v>
+        <v>28.86215572637204</v>
       </c>
       <c r="E10">
-        <v>28.88567975353175</v>
+        <v>30.4927809016228</v>
       </c>
       <c r="F10">
-        <v>24.11538078108515</v>
+        <v>24.54819670020187</v>
       </c>
       <c r="G10">
-        <v>25.96372778915384</v>
+        <v>28.63101146046634</v>
       </c>
       <c r="H10">
-        <v>27.82833178427196</v>
+        <v>29.29374069535035</v>
       </c>
       <c r="I10">
-        <v>24.36457775397251</v>
+        <v>25.69292187619559</v>
       </c>
       <c r="J10">
-        <v>26.62538549140546</v>
+        <v>27.61527534204029</v>
       </c>
       <c r="K10">
-        <v>26.97501399539662</v>
+        <v>28.1729291162585</v>
       </c>
       <c r="L10">
-        <v>27.82592959382147</v>
+        <v>28.67317188109097</v>
       </c>
       <c r="M10">
-        <v>20.26083065649983</v>
+        <v>21.12139106741515</v>
       </c>
       <c r="N10">
-        <v>33.77439482784543</v>
+        <v>35.00196417831905</v>
       </c>
       <c r="O10">
-        <v>31.47662285250139</v>
+        <v>32.50251278409817</v>
       </c>
       <c r="P10">
-        <v>24.64088172428984</v>
+        <v>25.74337401491296</v>
       </c>
       <c r="Q10">
-        <v>28.81690626035111</v>
+        <v>30.61338217952965</v>
       </c>
       <c r="R10">
-        <v>30.15318331201537</v>
+        <v>32.42461704171996</v>
       </c>
       <c r="S10">
-        <v>30.30173596103335</v>
+        <v>31.38721944924694</v>
       </c>
       <c r="T10">
-        <v>22.01994220405613</v>
+        <v>23.50245086043061</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>42.49310893716819</v>
+        <v>43.72009074263584</v>
       </c>
       <c r="C11">
-        <v>48.75339155371789</v>
+        <v>50.44480921802152</v>
       </c>
       <c r="D11">
-        <v>46.37566482489149</v>
+        <v>48.51612694023458</v>
       </c>
       <c r="E11">
-        <v>39.6817339316138</v>
+        <v>41.88949087913528</v>
       </c>
       <c r="F11">
-        <v>29.63579786659578</v>
+        <v>30.16769264399231</v>
       </c>
       <c r="G11">
-        <v>40.32126874298171</v>
+        <v>44.46351913930906</v>
       </c>
       <c r="H11">
-        <v>55.28251178246244</v>
+        <v>58.19362718890599</v>
       </c>
       <c r="I11">
-        <v>56.41599714336726</v>
+        <v>59.49176800061215</v>
       </c>
       <c r="J11">
-        <v>44.00768316135894</v>
+        <v>45.64381943159037</v>
       </c>
       <c r="K11">
-        <v>43.12696767088968</v>
+        <v>45.04216395952541</v>
       </c>
       <c r="L11">
-        <v>51.34824768269484</v>
+        <v>52.91169614422</v>
       </c>
       <c r="M11">
-        <v>44.87600086206012</v>
+        <v>46.78206830800177</v>
       </c>
       <c r="N11">
-        <v>39.78846121719373</v>
+        <v>41.23461874989559</v>
       </c>
       <c r="O11">
-        <v>36.3775071391717</v>
+        <v>37.56312728926034</v>
       </c>
       <c r="P11">
-        <v>44.69633621041296</v>
+        <v>46.69615775261466</v>
       </c>
       <c r="Q11">
-        <v>39.27051953015517</v>
+        <v>41.71868457716513</v>
       </c>
       <c r="R11">
-        <v>54.33371685261232</v>
+        <v>58.42666570786848</v>
       </c>
       <c r="S11">
-        <v>35.79071009409183</v>
+        <v>37.07282227698907</v>
       </c>
       <c r="T11">
-        <v>35.25819999479316</v>
+        <v>37.63198400458202</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.04285534646491</v>
+        <v>10.33284120754362</v>
       </c>
       <c r="C12">
-        <v>10.83597550046663</v>
+        <v>11.21191161049615</v>
       </c>
       <c r="D12">
-        <v>10.43255551678014</v>
+        <v>10.91406861064518</v>
       </c>
       <c r="E12">
-        <v>10.24942845077396</v>
+        <v>10.81967185065455</v>
       </c>
       <c r="F12">
-        <v>8.4399066220269</v>
+        <v>8.59138363891635</v>
       </c>
       <c r="G12">
-        <v>8.835967947024242</v>
+        <v>9.743697115067045</v>
       </c>
       <c r="H12">
-        <v>9.982401360432311</v>
+        <v>10.5080634813578</v>
       </c>
       <c r="I12">
-        <v>9.422960185681129</v>
+        <v>9.936695079960215</v>
       </c>
       <c r="J12">
-        <v>8.48322661404428</v>
+        <v>8.798619603512483</v>
       </c>
       <c r="K12">
-        <v>9.719662227371209</v>
+        <v>10.15129612212378</v>
       </c>
       <c r="L12">
-        <v>10.2432511381691</v>
+        <v>10.55513705357461</v>
       </c>
       <c r="M12">
-        <v>11.42063402469186</v>
+        <v>11.90571509939348</v>
       </c>
       <c r="N12">
-        <v>8.988414440602082</v>
+        <v>9.315108734693196</v>
       </c>
       <c r="O12">
-        <v>10.81732507113629</v>
+        <v>11.16988464937599</v>
       </c>
       <c r="P12">
-        <v>11.60020456362479</v>
+        <v>12.11922560532885</v>
       </c>
       <c r="Q12">
-        <v>10.66096465971921</v>
+        <v>11.32558028893928</v>
       </c>
       <c r="R12">
-        <v>10.86751652906892</v>
+        <v>11.68616454201066</v>
       </c>
       <c r="S12">
-        <v>8.516162682448382</v>
+        <v>8.821232794161652</v>
       </c>
       <c r="T12">
-        <v>11.11678425451043</v>
+        <v>11.86522985603083</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.709685927837318</v>
+        <v>4.845677364742253</v>
       </c>
       <c r="C13">
-        <v>4.831612061879245</v>
+        <v>4.999236789679374</v>
       </c>
       <c r="D13">
-        <v>4.731223973710954</v>
+        <v>4.949592933232494</v>
       </c>
       <c r="E13">
-        <v>4.302422869457949</v>
+        <v>4.541795070218905</v>
       </c>
       <c r="F13">
-        <v>4.411408271095198</v>
+        <v>4.490582958104526</v>
       </c>
       <c r="G13">
-        <v>3.247642677851906</v>
+        <v>3.581276752097232</v>
       </c>
       <c r="H13">
-        <v>4.428783959400883</v>
+        <v>4.66199878268451</v>
       </c>
       <c r="I13">
-        <v>4.498196750580254</v>
+        <v>4.743436100696306</v>
       </c>
       <c r="J13">
-        <v>3.589115573695917</v>
+        <v>3.72255323153955</v>
       </c>
       <c r="K13">
-        <v>4.080684101127103</v>
+        <v>4.26190043669731</v>
       </c>
       <c r="L13">
-        <v>4.486046296230327</v>
+        <v>4.622637173167607</v>
       </c>
       <c r="M13">
-        <v>4.389199618230519</v>
+        <v>4.575626892170646</v>
       </c>
       <c r="N13">
-        <v>3.386332882273342</v>
+        <v>3.509413058186739</v>
       </c>
       <c r="O13">
-        <v>4.64438189332366</v>
+        <v>4.795752154522837</v>
       </c>
       <c r="P13">
-        <v>4.966002259785606</v>
+        <v>5.188193140286185</v>
       </c>
       <c r="Q13">
-        <v>4.182996916961806</v>
+        <v>4.443769297016332</v>
       </c>
       <c r="R13">
-        <v>4.084596600958391</v>
+        <v>4.392288508497605</v>
       </c>
       <c r="S13">
-        <v>4.102683321142401</v>
+        <v>4.249651633723444</v>
       </c>
       <c r="T13">
-        <v>5.721898414516676</v>
+        <v>6.107129395225327</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.490211633991072</v>
+        <v>8.735365153232987</v>
       </c>
       <c r="C14">
-        <v>7.323129314767087</v>
+        <v>7.577193081127404</v>
       </c>
       <c r="D14">
-        <v>7.484801005386144</v>
+        <v>7.830260915306654</v>
       </c>
       <c r="E14">
-        <v>8.739737597017751</v>
+        <v>9.22598692353618</v>
       </c>
       <c r="F14">
-        <v>5.796874870192987</v>
+        <v>5.900915513288083</v>
       </c>
       <c r="G14">
-        <v>6.556958641587952</v>
+        <v>7.230562557797739</v>
       </c>
       <c r="H14">
-        <v>7.912676120053628</v>
+        <v>8.329348818463714</v>
       </c>
       <c r="I14">
-        <v>6.750437421888948</v>
+        <v>7.118467763409598</v>
       </c>
       <c r="J14">
-        <v>6.540855030133429</v>
+        <v>6.784033706772414</v>
       </c>
       <c r="K14">
-        <v>8.636726581633331</v>
+        <v>9.020269120986748</v>
       </c>
       <c r="L14">
-        <v>7.581552754761074</v>
+        <v>7.812395432463545</v>
       </c>
       <c r="M14">
-        <v>7.488576677168749</v>
+        <v>7.806647181371291</v>
       </c>
       <c r="N14">
-        <v>5.958577657495113</v>
+        <v>6.175149037738686</v>
       </c>
       <c r="O14">
-        <v>8.806314143989047</v>
+        <v>9.093330608783608</v>
       </c>
       <c r="P14">
-        <v>7.664765496255446</v>
+        <v>8.007705532395699</v>
       </c>
       <c r="Q14">
-        <v>6.474441358575177</v>
+        <v>6.878064769281728</v>
       </c>
       <c r="R14">
-        <v>6.126508322164355</v>
+        <v>6.588017062527923</v>
       </c>
       <c r="S14">
-        <v>7.232592595671111</v>
+        <v>7.491682036938526</v>
       </c>
       <c r="T14">
-        <v>6.711974174064721</v>
+        <v>7.163862726823047</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.890667187377</v>
+        <v>1.94525990363451</v>
       </c>
       <c r="C15">
-        <v>1.982397913460528</v>
+        <v>2.051173905071518</v>
       </c>
       <c r="D15">
-        <v>1.677412686245634</v>
+        <v>1.754833426633112</v>
       </c>
       <c r="E15">
-        <v>1.615565277266382</v>
+        <v>1.705449844085116</v>
       </c>
       <c r="F15">
-        <v>2.15208085834628</v>
+        <v>2.190705786692808</v>
       </c>
       <c r="G15">
-        <v>1.986605373538543</v>
+        <v>2.190691632538476</v>
       </c>
       <c r="H15">
-        <v>1.990455794174981</v>
+        <v>2.095270976073171</v>
       </c>
       <c r="I15">
-        <v>1.538153901089091</v>
+        <v>1.622013252735482</v>
       </c>
       <c r="J15">
-        <v>1.693620999595293</v>
+        <v>1.756587157920496</v>
       </c>
       <c r="K15">
-        <v>1.962820857899903</v>
+        <v>2.049986439560867</v>
       </c>
       <c r="L15">
-        <v>1.773064400065547</v>
+        <v>1.827050561883524</v>
       </c>
       <c r="M15">
-        <v>2.758699110230807</v>
+        <v>2.87587235352675</v>
       </c>
       <c r="N15">
-        <v>1.330969444862093</v>
+        <v>1.37934506506958</v>
       </c>
       <c r="O15">
-        <v>2.368827745452131</v>
+        <v>2.446032868286752</v>
       </c>
       <c r="P15">
-        <v>2.327451704220986</v>
+        <v>2.431587489190556</v>
       </c>
       <c r="Q15">
-        <v>1.693369684307081</v>
+        <v>1.798936112314317</v>
       </c>
       <c r="R15">
-        <v>1.316689004624671</v>
+        <v>1.415874944155105</v>
       </c>
       <c r="S15">
-        <v>1.62597250390664</v>
+        <v>1.684218879874988</v>
       </c>
       <c r="T15">
-        <v>2.569267137018042</v>
+        <v>2.742244919424123</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.900371210579962</v>
+        <v>1.955244128973952</v>
       </c>
       <c r="C16">
-        <v>1.766080136465615</v>
+        <v>1.827351343333395</v>
       </c>
       <c r="D16">
-        <v>2.107878424417456</v>
+        <v>2.205167248809532</v>
       </c>
       <c r="E16">
-        <v>2.204540773978544</v>
+        <v>2.327193937729738</v>
       </c>
       <c r="F16">
-        <v>2.22993391265338</v>
+        <v>2.269956125229498</v>
       </c>
       <c r="G16">
-        <v>1.661550878525663</v>
+        <v>1.832243914723561</v>
       </c>
       <c r="H16">
-        <v>1.934174487370352</v>
+        <v>2.036025958430321</v>
       </c>
       <c r="I16">
-        <v>1.591572933404749</v>
+        <v>1.678344662942842</v>
       </c>
       <c r="J16">
-        <v>1.505356879550995</v>
+        <v>1.56132367474094</v>
       </c>
       <c r="K16">
-        <v>1.621255399869206</v>
+        <v>1.693252632516193</v>
       </c>
       <c r="L16">
-        <v>1.662090241313223</v>
+        <v>1.71269746839437</v>
       </c>
       <c r="M16">
-        <v>2.055159532435012</v>
+        <v>2.142450570088566</v>
       </c>
       <c r="N16">
-        <v>1.635777410247415</v>
+        <v>1.695231627658331</v>
       </c>
       <c r="O16">
-        <v>1.911304667664533</v>
+        <v>1.973598142538225</v>
       </c>
       <c r="P16">
-        <v>1.611847150385877</v>
+        <v>1.683965067140923</v>
       </c>
       <c r="Q16">
-        <v>1.556545978036538</v>
+        <v>1.653582673834943</v>
       </c>
       <c r="R16">
-        <v>1.734194619714115</v>
+        <v>1.864831180117381</v>
       </c>
       <c r="S16">
-        <v>1.459161069920537</v>
+        <v>1.511431845762543</v>
       </c>
       <c r="T16">
-        <v>1.379532946291427</v>
+        <v>1.472411007263545</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.0208546533204</v>
+        <v>22.65670335152752</v>
       </c>
       <c r="C17">
-        <v>20.92951748774714</v>
+        <v>21.65563221445538</v>
       </c>
       <c r="D17">
-        <v>18.7517738044921</v>
+        <v>19.61725921748945</v>
       </c>
       <c r="E17">
-        <v>23.5801947531885</v>
+        <v>24.89211672917824</v>
       </c>
       <c r="F17">
-        <v>21.53749138081432</v>
+        <v>21.92404008232879</v>
       </c>
       <c r="G17">
-        <v>17.05883087555321</v>
+        <v>18.81130422666622</v>
       </c>
       <c r="H17">
-        <v>20.83676662910536</v>
+        <v>21.93400751774567</v>
       </c>
       <c r="I17">
-        <v>19.48616318514551</v>
+        <v>20.54853867931747</v>
       </c>
       <c r="J17">
-        <v>18.95267749859607</v>
+        <v>19.65730816410404</v>
       </c>
       <c r="K17">
-        <v>22.93918987378046</v>
+        <v>23.95788081550945</v>
       </c>
       <c r="L17">
-        <v>21.94513989327216</v>
+        <v>22.61332423748014</v>
       </c>
       <c r="M17">
-        <v>19.94629775966995</v>
+        <v>20.79349867099065</v>
       </c>
       <c r="N17">
-        <v>21.89676573280542</v>
+        <v>22.69262894886316</v>
       </c>
       <c r="O17">
-        <v>22.22806320274226</v>
+        <v>22.95252295007433</v>
       </c>
       <c r="P17">
-        <v>18.79253210200852</v>
+        <v>19.63335516976945</v>
       </c>
       <c r="Q17">
-        <v>17.80330318240885</v>
+        <v>18.91317962646826</v>
       </c>
       <c r="R17">
-        <v>17.15793446308321</v>
+        <v>18.45043849717563</v>
       </c>
       <c r="S17">
-        <v>28.02168704491805</v>
+        <v>29.02549351456263</v>
       </c>
       <c r="T17">
-        <v>25.30485746270599</v>
+        <v>27.00852543281873</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>17.02651737819621</v>
+        <v>17.51815537682832</v>
       </c>
       <c r="C18">
-        <v>14.92515404915976</v>
+        <v>15.4429573936386</v>
       </c>
       <c r="D18">
-        <v>14.35197725600402</v>
+        <v>15.01439069444714</v>
       </c>
       <c r="E18">
-        <v>15.34708587904167</v>
+        <v>16.20094563053477</v>
       </c>
       <c r="F18">
-        <v>19.3591946980585</v>
+        <v>19.70664795714914</v>
       </c>
       <c r="G18">
-        <v>13.45130643536561</v>
+        <v>14.83317464413105</v>
       </c>
       <c r="H18">
-        <v>13.8245914179258</v>
+        <v>14.55257898156754</v>
       </c>
       <c r="I18">
-        <v>15.94715229423317</v>
+        <v>16.81658275307981</v>
       </c>
       <c r="J18">
-        <v>14.11905292251897</v>
+        <v>14.64397704777113</v>
       </c>
       <c r="K18">
-        <v>17.10581850298892</v>
+        <v>17.86545920764051</v>
       </c>
       <c r="L18">
-        <v>16.26023639718717</v>
+        <v>16.75532713010395</v>
       </c>
       <c r="M18">
-        <v>15.543629478351</v>
+        <v>16.20383104647941</v>
       </c>
       <c r="N18">
-        <v>14.10553968492624</v>
+        <v>14.6182218003976</v>
       </c>
       <c r="O18">
-        <v>16.76351691689953</v>
+        <v>17.30987550510598</v>
       </c>
       <c r="P18">
-        <v>15.43760503516129</v>
+        <v>16.12832059994453</v>
       </c>
       <c r="Q18">
-        <v>11.68079496522027</v>
+        <v>12.40898787678039</v>
       </c>
       <c r="R18">
-        <v>15.08741587565815</v>
+        <v>16.22394812697752</v>
       </c>
       <c r="S18">
-        <v>18.916416614024</v>
+        <v>19.59404966835124</v>
       </c>
       <c r="T18">
-        <v>12.96054359428289</v>
+        <v>13.83312163703106</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>13.39074335148663</v>
+        <v>13.77739894965092</v>
       </c>
       <c r="C19">
-        <v>14.68334167701902</v>
+        <v>15.19275574426706</v>
       </c>
       <c r="D19">
-        <v>16.73825471760869</v>
+        <v>17.51080644781642</v>
       </c>
       <c r="E19">
-        <v>14.83339886127008</v>
+        <v>15.65867881117761</v>
       </c>
       <c r="F19">
-        <v>13.75456920686877</v>
+        <v>14.00143225943125</v>
       </c>
       <c r="G19">
-        <v>13.37729849230465</v>
+        <v>14.75156377980712</v>
       </c>
       <c r="H19">
-        <v>14.19160895384894</v>
+        <v>14.93892325154838</v>
       </c>
       <c r="I19">
-        <v>13.15286555972148</v>
+        <v>13.86995295738006</v>
       </c>
       <c r="J19">
-        <v>14.25061098230896</v>
+        <v>14.78042622878817</v>
       </c>
       <c r="K19">
-        <v>15.59631954330488</v>
+        <v>16.28892593134631</v>
       </c>
       <c r="L19">
-        <v>12.09618330400336</v>
+        <v>12.46448719031775</v>
       </c>
       <c r="M19">
-        <v>15.91441385043257</v>
+        <v>16.59036414856169</v>
       </c>
       <c r="N19">
-        <v>15.28828580497503</v>
+        <v>15.84395619288662</v>
       </c>
       <c r="O19">
-        <v>11.51687705299079</v>
+        <v>11.89223651475599</v>
       </c>
       <c r="P19">
-        <v>19.16307167680987</v>
+        <v>20.02047357600875</v>
       </c>
       <c r="Q19">
-        <v>12.02920172242465</v>
+        <v>12.77911467373302</v>
       </c>
       <c r="R19">
-        <v>19.1464982445833</v>
+        <v>20.58880042105521</v>
       </c>
       <c r="S19">
-        <v>13.33701312464674</v>
+        <v>13.81477808001131</v>
       </c>
       <c r="T19">
-        <v>11.75684152977012</v>
+        <v>12.5483794538023</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5765807119759628</v>
+        <v>0.5932293889184797</v>
       </c>
       <c r="C20">
-        <v>0.7710183622890129</v>
+        <v>0.797767559338026</v>
       </c>
       <c r="D20">
-        <v>1.39511450287933</v>
+        <v>1.459505811365243</v>
       </c>
       <c r="E20">
-        <v>1.063449765035541</v>
+        <v>1.122616499310397</v>
       </c>
       <c r="F20">
-        <v>0.6553956102383465</v>
+        <v>0.6671584621711207</v>
       </c>
       <c r="G20">
-        <v>1.322710590197503</v>
+        <v>1.458594173162032</v>
       </c>
       <c r="H20">
-        <v>0.5065317612416618</v>
+        <v>0.5332051587856456</v>
       </c>
       <c r="I20">
-        <v>0.610391001606856</v>
+        <v>0.6436692019282273</v>
       </c>
       <c r="J20">
-        <v>1.644475747374893</v>
+        <v>1.705614762712981</v>
       </c>
       <c r="K20">
-        <v>1.286773096498132</v>
+        <v>1.343916531147561</v>
       </c>
       <c r="L20">
-        <v>1.2686364057368</v>
+        <v>1.307263773296461</v>
       </c>
       <c r="M20">
-        <v>0.9879660512515267</v>
+        <v>1.029929013454296</v>
       </c>
       <c r="N20">
-        <v>1.20250923002389</v>
+        <v>1.246215815499758</v>
       </c>
       <c r="O20">
-        <v>0.6931193199523885</v>
+        <v>0.7157095493765039</v>
       </c>
       <c r="P20">
-        <v>1.436612809802738</v>
+        <v>1.500890320856924</v>
       </c>
       <c r="Q20">
-        <v>0.8533849720997784</v>
+        <v>0.9065858791754785</v>
       </c>
       <c r="R20">
-        <v>0.6355363251917086</v>
+        <v>0.6834111591870206</v>
       </c>
       <c r="S20">
-        <v>0.6628559613658277</v>
+        <v>0.6866011092362937</v>
       </c>
       <c r="T20">
-        <v>0.4847673843430267</v>
+        <v>0.5174047017781366</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>34.67570957858245</v>
+        <v>35.67696521293747</v>
       </c>
       <c r="C21">
-        <v>30.07975945463198</v>
+        <v>31.12332657597801</v>
       </c>
       <c r="D21">
-        <v>29.82846827005834</v>
+        <v>31.20519691711602</v>
       </c>
       <c r="E21">
-        <v>31.32628127918854</v>
+        <v>33.06916920977469</v>
       </c>
       <c r="F21">
-        <v>31.46455022389114</v>
+        <v>32.0292669226807</v>
       </c>
       <c r="G21">
-        <v>24.81080012715503</v>
+        <v>27.35964221134156</v>
       </c>
       <c r="H21">
-        <v>31.91942790284507</v>
+        <v>33.60026937217777</v>
       </c>
       <c r="I21">
-        <v>32.59896447063025</v>
+        <v>34.37624307904202</v>
       </c>
       <c r="J21">
-        <v>26.87262391411424</v>
+        <v>27.87170569946887</v>
       </c>
       <c r="K21">
-        <v>32.27636174953204</v>
+        <v>33.70970083112699</v>
       </c>
       <c r="L21">
-        <v>33.87990623909032</v>
+        <v>34.91147965545004</v>
       </c>
       <c r="M21">
-        <v>31.46755062037541</v>
+        <v>32.8041063002227</v>
       </c>
       <c r="N21">
-        <v>26.23704873118495</v>
+        <v>27.19066454083764</v>
       </c>
       <c r="O21">
-        <v>31.51923923760287</v>
+        <v>32.54651812762132</v>
       </c>
       <c r="P21">
-        <v>35.26996381895609</v>
+        <v>36.84802679722299</v>
       </c>
       <c r="Q21">
-        <v>24.52741254108594</v>
+        <v>26.05647695874844</v>
       </c>
       <c r="R21">
-        <v>29.56171702397199</v>
+        <v>31.78859570744007</v>
       </c>
       <c r="S21">
-        <v>22.71532753432856</v>
+        <v>23.52904701890149</v>
       </c>
       <c r="T21">
-        <v>25.55956574939471</v>
+        <v>27.28038214053266</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>76.01565709179872</v>
+        <v>78.21059717773635</v>
       </c>
       <c r="C22">
-        <v>64.30895741011996</v>
+        <v>66.54004950586837</v>
       </c>
       <c r="D22">
-        <v>70.25481585489035</v>
+        <v>73.49741673890149</v>
       </c>
       <c r="E22">
-        <v>77.74319705602743</v>
+        <v>82.06856458454249</v>
       </c>
       <c r="F22">
-        <v>77.97698365885472</v>
+        <v>79.37649213681036</v>
       </c>
       <c r="G22">
-        <v>73.74020844342427</v>
+        <v>81.31562502064203</v>
       </c>
       <c r="H22">
-        <v>68.69173130228083</v>
+        <v>72.30896125153194</v>
       </c>
       <c r="I22">
-        <v>79.08373504731298</v>
+        <v>83.39533919963274</v>
       </c>
       <c r="J22">
-        <v>65.88941769229079</v>
+        <v>68.33908235006227</v>
       </c>
       <c r="K22">
-        <v>74.73200376212637</v>
+        <v>78.05072668602313</v>
       </c>
       <c r="L22">
-        <v>74.49056334917388</v>
+        <v>76.7586476932801</v>
       </c>
       <c r="M22">
-        <v>83.86619595447502</v>
+        <v>87.42833658316314</v>
       </c>
       <c r="N22">
-        <v>64.27951519403932</v>
+        <v>66.61582834243806</v>
       </c>
       <c r="O22">
-        <v>80.50476370491083</v>
+        <v>83.12858478373036</v>
       </c>
       <c r="P22">
-        <v>62.48686754556282</v>
+        <v>65.28268023217869</v>
       </c>
       <c r="Q22">
-        <v>57.73043544729534</v>
+        <v>61.32941085942875</v>
       </c>
       <c r="R22">
-        <v>66.02619355075612</v>
+        <v>70.99993451612312</v>
       </c>
       <c r="S22">
-        <v>59.65176879343021</v>
+        <v>61.78864339861025</v>
       </c>
       <c r="T22">
-        <v>63.21448855796516</v>
+        <v>67.47045006899066</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>12.75270382589191</v>
+        <v>13.12093613358264</v>
       </c>
       <c r="C23">
-        <v>11.79472679064765</v>
+        <v>12.20392517877119</v>
       </c>
       <c r="D23">
-        <v>12.2791911471984</v>
+        <v>12.84593544201069</v>
       </c>
       <c r="E23">
-        <v>18.1970685089378</v>
+        <v>19.20949161762472</v>
       </c>
       <c r="F23">
-        <v>25.65973116448314</v>
+        <v>26.12026464015418</v>
       </c>
       <c r="G23">
-        <v>11.23904939229804</v>
+        <v>12.39364988605588</v>
       </c>
       <c r="H23">
-        <v>9.990328305052682</v>
+        <v>10.51640785003989</v>
       </c>
       <c r="I23">
-        <v>8.386002499553651</v>
+        <v>8.843202999464385</v>
       </c>
       <c r="J23">
-        <v>11.90751657260101</v>
+        <v>12.35021926343298</v>
       </c>
       <c r="K23">
-        <v>10.8057459418467</v>
+        <v>11.28561099245016</v>
       </c>
       <c r="L23">
-        <v>7.92372307758074</v>
+        <v>8.164984137388435</v>
       </c>
       <c r="M23">
-        <v>10.55388594123623</v>
+        <v>11.00215267700455</v>
       </c>
       <c r="N23">
-        <v>23.47705441119965</v>
+        <v>24.33035504268364</v>
       </c>
       <c r="O23">
-        <v>8.194407180550803</v>
+        <v>8.461480298951221</v>
       </c>
       <c r="P23">
-        <v>9.391634306319242</v>
+        <v>9.811838604806734</v>
       </c>
       <c r="Q23">
-        <v>11.34085153005325</v>
+        <v>12.04785201416669</v>
       </c>
       <c r="R23">
-        <v>7.77256286758181</v>
+        <v>8.358068592831048</v>
       </c>
       <c r="S23">
-        <v>25.45103505170064</v>
+        <v>26.36275437834559</v>
       </c>
       <c r="T23">
-        <v>26.76819765171435</v>
+        <v>28.57038606649138</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2312792196705826</v>
+        <v>0.2379573705900213</v>
       </c>
       <c r="C24">
-        <v>0.2812131100933875</v>
+        <v>0.2909693302595606</v>
       </c>
       <c r="D24">
-        <v>0.2838578418379408</v>
+        <v>0.2969592595511171</v>
       </c>
       <c r="E24">
-        <v>0.119206758322568</v>
+        <v>0.1258390176218144</v>
       </c>
       <c r="F24">
-        <v>0.1906605411602462</v>
+        <v>0.1940824617225079</v>
       </c>
       <c r="G24">
-        <v>0.3308590395666821</v>
+        <v>0.3648485699187529</v>
       </c>
       <c r="H24">
-        <v>0.3368951463657375</v>
+        <v>0.3546356689888879</v>
       </c>
       <c r="I24">
-        <v>0.1319764327798608</v>
+        <v>0.1391717193358329</v>
       </c>
       <c r="J24">
-        <v>0.1928006048646427</v>
+        <v>0.1999686273525564</v>
       </c>
       <c r="K24">
-        <v>0.1385150244548448</v>
+        <v>0.1446662443314806</v>
       </c>
       <c r="L24">
-        <v>0.2059747643509052</v>
+        <v>0.2122462720063838</v>
       </c>
       <c r="M24">
-        <v>0.1434016481768455</v>
+        <v>0.1494925031557558</v>
       </c>
       <c r="N24">
-        <v>0.153544162114302</v>
+        <v>0.1591249018526872</v>
       </c>
       <c r="O24">
-        <v>0.3642494802069977</v>
+        <v>0.3761211436978611</v>
       </c>
       <c r="P24">
-        <v>0.245482468305895</v>
+        <v>0.2564659441335313</v>
       </c>
       <c r="Q24">
-        <v>0.2948057176344689</v>
+        <v>0.3131842128060743</v>
       </c>
       <c r="R24">
-        <v>0.241225466496123</v>
+        <v>0.2593969363337597</v>
       </c>
       <c r="S24">
-        <v>0.2958708065964026</v>
+        <v>0.3064696341889153</v>
       </c>
       <c r="T24">
-        <v>0.3220827367160449</v>
+        <v>0.3437671916898806</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.360503644120386</v>
+        <v>2.428662813819134</v>
       </c>
       <c r="C25">
-        <v>2.258203079129043</v>
+        <v>2.336547671287625</v>
       </c>
       <c r="D25">
-        <v>2.886148001764338</v>
+        <v>3.019357746150232</v>
       </c>
       <c r="E25">
-        <v>1.904171113205231</v>
+        <v>2.010112728853719</v>
       </c>
       <c r="F25">
-        <v>2.484147967533708</v>
+        <v>2.528732740859509</v>
       </c>
       <c r="G25">
-        <v>1.417760007266002</v>
+        <v>1.563408126362375</v>
       </c>
       <c r="H25">
-        <v>2.455767443390717</v>
+        <v>2.58508541771194</v>
       </c>
       <c r="I25">
-        <v>1.851597928941261</v>
+        <v>1.952546086158085</v>
       </c>
       <c r="J25">
-        <v>2.485237600745414</v>
+        <v>2.577634816109227</v>
       </c>
       <c r="K25">
-        <v>3.223622387312751</v>
+        <v>3.366778049896275</v>
       </c>
       <c r="L25">
-        <v>3.162763524441246</v>
+        <v>3.25906316444088</v>
       </c>
       <c r="M25">
-        <v>2.343547377387342</v>
+        <v>2.443087427263678</v>
       </c>
       <c r="N25">
-        <v>1.803763845035834</v>
+        <v>1.869323723249637</v>
       </c>
       <c r="O25">
-        <v>2.35596242164791</v>
+        <v>2.432748236279764</v>
       </c>
       <c r="P25">
-        <v>2.932666343063192</v>
+        <v>3.063880886048067</v>
       </c>
       <c r="Q25">
-        <v>1.949385175937014</v>
+        <v>2.07091187606696</v>
       </c>
       <c r="R25">
-        <v>2.70837438825615</v>
+        <v>2.912395730696026</v>
       </c>
       <c r="S25">
-        <v>0.8647855919805832</v>
+        <v>0.8957643610566215</v>
       </c>
       <c r="T25">
-        <v>2.765639009658692</v>
+        <v>2.951837671500352</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>26.40222112945752</v>
+        <v>27.16458109228534</v>
       </c>
       <c r="C26">
-        <v>25.60429916130508</v>
+        <v>26.49259764687461</v>
       </c>
       <c r="D26">
-        <v>27.03434011812059</v>
+        <v>28.28210618367741</v>
       </c>
       <c r="E26">
-        <v>28.1076988044792</v>
+        <v>29.6715157339857</v>
       </c>
       <c r="F26">
-        <v>26.69644785704197</v>
+        <v>27.17558802577032</v>
       </c>
       <c r="G26">
-        <v>22.87135667811612</v>
+        <v>25.22095750214677</v>
       </c>
       <c r="H26">
-        <v>26.81526826178863</v>
+        <v>28.22733037777906</v>
       </c>
       <c r="I26">
-        <v>24.87048741296197</v>
+        <v>26.22641346698294</v>
       </c>
       <c r="J26">
-        <v>24.99149487527804</v>
+        <v>25.92063924906431</v>
       </c>
       <c r="K26">
-        <v>27.0631599200497</v>
+        <v>28.26498945356036</v>
       </c>
       <c r="L26">
-        <v>29.32239931033008</v>
+        <v>30.21520602056593</v>
       </c>
       <c r="M26">
-        <v>24.98120093184594</v>
+        <v>26.0422547900781</v>
       </c>
       <c r="N26">
-        <v>25.54001904475518</v>
+        <v>26.46830050618955</v>
       </c>
       <c r="O26">
-        <v>23.70596727475211</v>
+        <v>24.47859505187713</v>
       </c>
       <c r="P26">
-        <v>23.25058636133727</v>
+        <v>24.29087349483594</v>
       </c>
       <c r="Q26">
-        <v>22.45460391877086</v>
+        <v>23.85444729023874</v>
       </c>
       <c r="R26">
-        <v>27.01415961337992</v>
+        <v>29.04913126763321</v>
       </c>
       <c r="S26">
-        <v>33.01725051534395</v>
+        <v>34.200010483509</v>
       </c>
       <c r="T26">
-        <v>25.9564176928484</v>
+        <v>27.70395243029341</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>7.659708981537615</v>
+        <v>7.880881867932455</v>
       </c>
       <c r="C27">
-        <v>8.260248827248624</v>
+        <v>8.546824393228633</v>
       </c>
       <c r="D27">
-        <v>7.639987023314028</v>
+        <v>7.992609521489821</v>
       </c>
       <c r="E27">
-        <v>6.844977543680089</v>
+        <v>7.225808853968393</v>
       </c>
       <c r="F27">
-        <v>8.179337215774563</v>
+        <v>8.326137607895587</v>
       </c>
       <c r="G27">
-        <v>6.215216080982893</v>
+        <v>6.853712390184293</v>
       </c>
       <c r="H27">
-        <v>7.265044744569374</v>
+        <v>7.647613897136841</v>
       </c>
       <c r="I27">
-        <v>6.38671665773969</v>
+        <v>6.734917132144773</v>
       </c>
       <c r="J27">
-        <v>7.95321397086736</v>
+        <v>8.248901925966827</v>
       </c>
       <c r="K27">
-        <v>8.106276999346029</v>
+        <v>8.466263162580967</v>
       </c>
       <c r="L27">
-        <v>7.505888555611762</v>
+        <v>7.734427414175487</v>
       </c>
       <c r="M27">
-        <v>6.722447429726707</v>
+        <v>7.007977288820928</v>
       </c>
       <c r="N27">
-        <v>7.477296647120733</v>
+        <v>7.749067621410314</v>
       </c>
       <c r="O27">
-        <v>6.529955913379752</v>
+        <v>6.742781033047087</v>
       </c>
       <c r="P27">
-        <v>7.941126262461454</v>
+        <v>8.296431343715838</v>
       </c>
       <c r="Q27">
-        <v>7.428680918286748</v>
+        <v>7.891792615996127</v>
       </c>
       <c r="R27">
-        <v>7.539842145096769</v>
+        <v>8.107817061303926</v>
       </c>
       <c r="S27">
-        <v>7.965684950294246</v>
+        <v>8.251035581590587</v>
       </c>
       <c r="T27">
-        <v>7.568944312827055</v>
+        <v>8.078529004712193</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6582562406008888</v>
+        <v>0.6772632855254452</v>
       </c>
       <c r="C28">
-        <v>0.4928955061526957</v>
+        <v>0.509995694246153</v>
       </c>
       <c r="D28">
-        <v>0.2877569880170334</v>
+        <v>0.3010383702592368</v>
       </c>
       <c r="E28">
-        <v>0.6783805654540878</v>
+        <v>0.716123356860983</v>
       </c>
       <c r="F28">
-        <v>0.1922493790032483</v>
+        <v>0.1956998155701954</v>
       </c>
       <c r="G28">
-        <v>0.2735391620978929</v>
+        <v>0.3016401553933549</v>
       </c>
       <c r="H28">
-        <v>0.6753756816555491</v>
+        <v>0.7109402117141941</v>
       </c>
       <c r="I28">
-        <v>0.336225673986788</v>
+        <v>0.3545565230698601</v>
       </c>
       <c r="J28">
-        <v>0.5995720770888693</v>
+        <v>0.6218632215316754</v>
       </c>
       <c r="K28">
-        <v>0.7153986206218972</v>
+        <v>0.7471682732802036</v>
       </c>
       <c r="L28">
-        <v>0.5431008072272847</v>
+        <v>0.5596371090454037</v>
       </c>
       <c r="M28">
-        <v>0.4420890590203302</v>
+        <v>0.4608663909442637</v>
       </c>
       <c r="N28">
-        <v>0.5564075577607377</v>
+        <v>0.5766308324562722</v>
       </c>
       <c r="O28">
-        <v>0.1576002166017032</v>
+        <v>0.1627367420856088</v>
       </c>
       <c r="P28">
-        <v>0.4600866387116774</v>
+        <v>0.4806720210804548</v>
       </c>
       <c r="Q28">
-        <v>0.670718271460239</v>
+        <v>0.7125315463602313</v>
       </c>
       <c r="R28">
-        <v>0.620846312808932</v>
+        <v>0.6676145508846444</v>
       </c>
       <c r="S28">
-        <v>0.227390323170529</v>
+        <v>0.2355360096585431</v>
       </c>
       <c r="T28">
-        <v>0.198836791544089</v>
+        <v>0.2122236234412017</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.54827322161916</v>
+        <v>10.85285294397286</v>
       </c>
       <c r="C29">
-        <v>10.67064691376337</v>
+        <v>11.04084722402487</v>
       </c>
       <c r="D29">
-        <v>9.85002307762371</v>
+        <v>10.30464947085209</v>
       </c>
       <c r="E29">
-        <v>12.69159848640867</v>
+        <v>13.39771593535409</v>
       </c>
       <c r="F29">
-        <v>15.06933252195296</v>
+        <v>15.33979256839272</v>
       </c>
       <c r="G29">
-        <v>9.697942813263756</v>
+        <v>10.69422365248695</v>
       </c>
       <c r="H29">
-        <v>8.930495809309175</v>
+        <v>9.400765757244262</v>
       </c>
       <c r="I29">
-        <v>9.335761471165863</v>
+        <v>9.844742336827611</v>
       </c>
       <c r="J29">
-        <v>11.50376942359035</v>
+        <v>11.93146143203587</v>
       </c>
       <c r="K29">
-        <v>11.35744498811287</v>
+        <v>11.86181006788407</v>
       </c>
       <c r="L29">
-        <v>8.974614732432299</v>
+        <v>9.247873280278149</v>
       </c>
       <c r="M29">
-        <v>11.19325130078714</v>
+        <v>11.66867450046695</v>
       </c>
       <c r="N29">
-        <v>9.604871447902569</v>
+        <v>9.953971583220568</v>
       </c>
       <c r="O29">
-        <v>11.42279937267243</v>
+        <v>11.79509264320489</v>
       </c>
       <c r="P29">
-        <v>9.725891881087961</v>
+        <v>10.16105166710176</v>
       </c>
       <c r="Q29">
-        <v>9.493731495400922</v>
+        <v>10.08558059469514</v>
       </c>
       <c r="R29">
-        <v>8.10192840837459</v>
+        <v>8.712245178979062</v>
       </c>
       <c r="S29">
-        <v>12.89188998237856</v>
+        <v>13.35370952056389</v>
       </c>
       <c r="T29">
-        <v>11.68535888157038</v>
+        <v>12.47208418421806</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>20.81432110175218</v>
+        <v>21.41533133432364</v>
       </c>
       <c r="C30">
-        <v>24.32184376912095</v>
+        <v>25.1656496022843</v>
       </c>
       <c r="D30">
-        <v>24.23319350306047</v>
+        <v>25.35167305096419</v>
       </c>
       <c r="E30">
-        <v>23.72685043612482</v>
+        <v>25.04693183638402</v>
       </c>
       <c r="F30">
-        <v>25.59538323184156</v>
+        <v>26.05476180932284</v>
       </c>
       <c r="G30">
-        <v>20.60468202985666</v>
+        <v>22.72142475559812</v>
       </c>
       <c r="H30">
-        <v>21.04683066154517</v>
+        <v>22.15513328782109</v>
       </c>
       <c r="I30">
-        <v>19.14365291912159</v>
+        <v>20.18735493151734</v>
       </c>
       <c r="J30">
-        <v>27.75572629247464</v>
+        <v>28.78764043181312</v>
       </c>
       <c r="K30">
-        <v>26.05105582090805</v>
+        <v>27.20793950918374</v>
       </c>
       <c r="L30">
-        <v>19.99216284189602</v>
+        <v>20.6008830543339</v>
       </c>
       <c r="M30">
-        <v>20.36303404111206</v>
+        <v>21.22793544811732</v>
       </c>
       <c r="N30">
-        <v>28.17611386758883</v>
+        <v>29.20020723700697</v>
       </c>
       <c r="O30">
-        <v>21.01550643419446</v>
+        <v>21.70044638341567</v>
       </c>
       <c r="P30">
-        <v>28.08149606780988</v>
+        <v>29.33792971618072</v>
       </c>
       <c r="Q30">
-        <v>23.48430809998217</v>
+        <v>24.94834430147527</v>
       </c>
       <c r="R30">
-        <v>25.32867398209291</v>
+        <v>27.23667831504477</v>
       </c>
       <c r="S30">
-        <v>25.98746550520331</v>
+        <v>26.9184011038335</v>
       </c>
       <c r="T30">
-        <v>21.92463200645648</v>
+        <v>23.4007238343183</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.61781872124038</v>
+        <v>10.92440655890553</v>
       </c>
       <c r="C31">
-        <v>10.09894993170539</v>
+        <v>10.44931616800268</v>
       </c>
       <c r="D31">
-        <v>11.69977802498524</v>
+        <v>12.23977959078409</v>
       </c>
       <c r="E31">
-        <v>9.828283521700147</v>
+        <v>10.37509584760906</v>
       </c>
       <c r="F31">
-        <v>11.67478047037908</v>
+        <v>11.88431607280823</v>
       </c>
       <c r="G31">
-        <v>9.581851922187727</v>
+        <v>10.5662066104102</v>
       </c>
       <c r="H31">
-        <v>10.15600144761842</v>
+        <v>10.6908051554956</v>
       </c>
       <c r="I31">
-        <v>8.156614890198179</v>
+        <v>8.601309296809244</v>
       </c>
       <c r="J31">
-        <v>9.984803089578321</v>
+        <v>10.35602232477592</v>
       </c>
       <c r="K31">
-        <v>10.57121482089474</v>
+        <v>11.04066473784345</v>
       </c>
       <c r="L31">
-        <v>9.582450465598438</v>
+        <v>9.874216360525558</v>
       </c>
       <c r="M31">
-        <v>10.6172678851818</v>
+        <v>11.06822671154853</v>
       </c>
       <c r="N31">
-        <v>11.67163667953023</v>
+        <v>12.09585578192085</v>
       </c>
       <c r="O31">
-        <v>11.0746315472207</v>
+        <v>11.43557728951576</v>
       </c>
       <c r="P31">
-        <v>11.64497809557996</v>
+        <v>12.16600241274943</v>
       </c>
       <c r="Q31">
-        <v>10.2201666369404</v>
+        <v>10.85730245878666</v>
       </c>
       <c r="R31">
-        <v>9.507530645842387</v>
+        <v>10.2237311733854</v>
       </c>
       <c r="S31">
-        <v>12.25010493898993</v>
+        <v>12.68893414195233</v>
       </c>
       <c r="T31">
-        <v>11.63852542240504</v>
+        <v>12.42209762828357</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>8.953578741932482</v>
+        <v>9.212111913191315</v>
       </c>
       <c r="C32">
-        <v>12.52248159753768</v>
+        <v>12.95692822576159</v>
       </c>
       <c r="D32">
-        <v>13.83261098494889</v>
+        <v>14.47105314812559</v>
       </c>
       <c r="E32">
-        <v>9.739662707947186</v>
+        <v>10.28154447266653</v>
       </c>
       <c r="F32">
-        <v>10.91213830573809</v>
+        <v>11.1079862259182</v>
       </c>
       <c r="G32">
-        <v>11.24122609650571</v>
+        <v>12.39605020559482</v>
       </c>
       <c r="H32">
-        <v>11.48852083830267</v>
+        <v>12.09349353095518</v>
       </c>
       <c r="I32">
-        <v>10.07027316550616</v>
+        <v>10.61929922717882</v>
       </c>
       <c r="J32">
-        <v>16.07579004169425</v>
+        <v>16.6734625677257</v>
       </c>
       <c r="K32">
-        <v>12.18223899736672</v>
+        <v>12.72323179549425</v>
       </c>
       <c r="L32">
-        <v>9.177226643487678</v>
+        <v>9.456654307027286</v>
       </c>
       <c r="M32">
-        <v>9.511252963331657</v>
+        <v>9.915234808756068</v>
       </c>
       <c r="N32">
-        <v>16.00431848176548</v>
+        <v>16.58601390350658</v>
       </c>
       <c r="O32">
-        <v>13.98701922340116</v>
+        <v>14.44288586009778</v>
       </c>
       <c r="P32">
-        <v>18.43974754849973</v>
+        <v>19.26478618716246</v>
       </c>
       <c r="Q32">
-        <v>14.1795907967488</v>
+        <v>15.06356124034958</v>
       </c>
       <c r="R32">
-        <v>15.80026805549605</v>
+        <v>16.99049932986126</v>
       </c>
       <c r="S32">
-        <v>10.3616239152841</v>
+        <v>10.73280303471091</v>
       </c>
       <c r="T32">
-        <v>14.19053812709901</v>
+        <v>15.14592644815287</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.421153789138896</v>
+        <v>2.491064222190643</v>
       </c>
       <c r="C33">
-        <v>2.924152806877669</v>
+        <v>3.025601414924278</v>
       </c>
       <c r="D33">
-        <v>2.433847044989597</v>
+        <v>2.546180904008342</v>
       </c>
       <c r="E33">
-        <v>4.473390457052158</v>
+        <v>4.722274713913349</v>
       </c>
       <c r="F33">
-        <v>3.966533675054623</v>
+        <v>4.037723880752008</v>
       </c>
       <c r="G33">
-        <v>2.231121812867428</v>
+        <v>2.460327527412643</v>
       </c>
       <c r="H33">
-        <v>2.726868949407381</v>
+        <v>2.870462826639469</v>
       </c>
       <c r="I33">
-        <v>2.036207820032137</v>
+        <v>2.147220812609994</v>
       </c>
       <c r="J33">
-        <v>4.794308374300782</v>
+        <v>4.972553200166903</v>
       </c>
       <c r="K33">
-        <v>2.729375595507964</v>
+        <v>2.850582587168038</v>
       </c>
       <c r="L33">
-        <v>1.931118504955222</v>
+        <v>1.989917088974137</v>
       </c>
       <c r="M33">
-        <v>2.845057008856641</v>
+        <v>2.965898225592923</v>
       </c>
       <c r="N33">
-        <v>5.562555338378522</v>
+        <v>5.764732830484973</v>
       </c>
       <c r="O33">
-        <v>1.65399819158012</v>
+        <v>1.707905502398455</v>
       </c>
       <c r="P33">
-        <v>4.146183450537618</v>
+        <v>4.331693666481751</v>
       </c>
       <c r="Q33">
-        <v>3.734440848982088</v>
+        <v>3.967249777053023</v>
       </c>
       <c r="R33">
-        <v>1.931350049061908</v>
+        <v>2.076838291544012</v>
       </c>
       <c r="S33">
-        <v>1.754153921601224</v>
+        <v>1.816992074508761</v>
       </c>
       <c r="T33">
-        <v>2.078748275233657</v>
+        <v>2.218701517794382</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.191168848163525</v>
+        <v>1.225563660416439</v>
       </c>
       <c r="C34">
-        <v>1.439285780505442</v>
+        <v>1.489219401850443</v>
       </c>
       <c r="D34">
-        <v>1.197817706217245</v>
+        <v>1.253102809534384</v>
       </c>
       <c r="E34">
-        <v>2.201403754022687</v>
+        <v>2.323882384634427</v>
       </c>
       <c r="F34">
-        <v>1.951887290128021</v>
+        <v>1.986919201884174</v>
       </c>
       <c r="G34">
-        <v>1.097784488737697</v>
+        <v>1.210561154138318</v>
       </c>
       <c r="H34">
-        <v>1.342031724228691</v>
+        <v>1.412701617878088</v>
       </c>
       <c r="I34">
-        <v>1.001606855918586</v>
+        <v>1.056213941388018</v>
       </c>
       <c r="J34">
-        <v>2.358972106579158</v>
+        <v>2.44667496996069</v>
       </c>
       <c r="K34">
-        <v>1.343438333775114</v>
+        <v>1.403098176555894</v>
       </c>
       <c r="L34">
-        <v>0.9508467693096888</v>
+        <v>0.9797980964866124</v>
       </c>
       <c r="M34">
-        <v>1.399948686897712</v>
+        <v>1.459410237990168</v>
       </c>
       <c r="N34">
-        <v>2.737950851166909</v>
+        <v>2.837464834026629</v>
       </c>
       <c r="O34">
-        <v>0.8145358133547209</v>
+        <v>0.8410832639424576</v>
       </c>
       <c r="P34">
-        <v>2.040283533749939</v>
+        <v>2.131570724355104</v>
       </c>
       <c r="Q34">
-        <v>1.837951435778531</v>
+        <v>1.952531240604377</v>
       </c>
       <c r="R34">
-        <v>0.9502118536017152</v>
+        <v>1.021791137032662</v>
       </c>
       <c r="S34">
-        <v>0.8630296821491507</v>
+        <v>0.8939455501712274</v>
       </c>
       <c r="T34">
-        <v>1.022941344927234</v>
+        <v>1.091811616464034</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.397216789636774</v>
+        <v>3.495310887582796</v>
       </c>
       <c r="C35">
-        <v>4.407474706271361</v>
+        <v>4.560384695414267</v>
       </c>
       <c r="D35">
-        <v>4.728104656767679</v>
+        <v>4.946329644665997</v>
       </c>
       <c r="E35">
-        <v>4.54554191603687</v>
+        <v>4.7984404351055</v>
       </c>
       <c r="F35">
-        <v>4.990539664869446</v>
+        <v>5.080108435586644</v>
       </c>
       <c r="G35">
-        <v>3.351398911751107</v>
+        <v>3.695691983453331</v>
       </c>
       <c r="H35">
-        <v>5.635264930621243</v>
+        <v>5.932011696098833</v>
       </c>
       <c r="I35">
-        <v>3.484020710587395</v>
+        <v>3.673967709847732</v>
       </c>
       <c r="J35">
-        <v>7.346081085744582</v>
+        <v>7.619196797480148</v>
       </c>
       <c r="K35">
-        <v>3.367646532058413</v>
+        <v>3.517198065309121</v>
       </c>
       <c r="L35">
-        <v>2.938293066964954</v>
+        <v>3.027758043519638</v>
       </c>
       <c r="M35">
-        <v>4.519132603318932</v>
+        <v>4.711078662985806</v>
       </c>
       <c r="N35">
-        <v>5.812634691525083</v>
+        <v>6.023901606274745</v>
       </c>
       <c r="O35">
-        <v>2.977518377939321</v>
+        <v>3.074562020117394</v>
       </c>
       <c r="P35">
-        <v>6.228152686452708</v>
+        <v>6.506815211538775</v>
       </c>
       <c r="Q35">
-        <v>7.797540703748058</v>
+        <v>8.28364750426784</v>
       </c>
       <c r="R35">
-        <v>6.66076087776955</v>
+        <v>7.162514764472244</v>
       </c>
       <c r="S35">
-        <v>2.634742702064701</v>
+        <v>2.72912573353393</v>
       </c>
       <c r="T35">
-        <v>3.123052250657364</v>
+        <v>3.333314019421521</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.160762499859429</v>
+        <v>2.223154175582297</v>
       </c>
       <c r="C36">
-        <v>1.924455651765462</v>
+        <v>1.991221433177378</v>
       </c>
       <c r="D36">
-        <v>3.38523871268819</v>
+        <v>3.541483916789559</v>
       </c>
       <c r="E36">
-        <v>2.372371341616896</v>
+        <v>2.504362028328871</v>
       </c>
       <c r="F36">
-        <v>2.871824401226209</v>
+        <v>2.923367079695275</v>
       </c>
       <c r="G36">
-        <v>1.506279311711474</v>
+        <v>1.661021120945901</v>
       </c>
       <c r="H36">
-        <v>2.12679924164535</v>
+        <v>2.238794117405144</v>
       </c>
       <c r="I36">
-        <v>1.633993929655419</v>
+        <v>1.723078429872217</v>
       </c>
       <c r="J36">
-        <v>2.432311944508061</v>
+        <v>2.522741467424212</v>
       </c>
       <c r="K36">
-        <v>2.593221622606327</v>
+        <v>2.708382244728571</v>
       </c>
       <c r="L36">
-        <v>1.838640039328284</v>
+        <v>1.894622844399841</v>
       </c>
       <c r="M36">
-        <v>2.070212744122084</v>
+        <v>2.158143153292762</v>
       </c>
       <c r="N36">
-        <v>2.531958435657127</v>
+        <v>2.623985386491588</v>
       </c>
       <c r="O36">
-        <v>2.297264381791153</v>
+        <v>2.372137102747879</v>
       </c>
       <c r="P36">
-        <v>2.799117704645205</v>
+        <v>2.924356960465989</v>
       </c>
       <c r="Q36">
-        <v>2.793601549162993</v>
+        <v>2.967757576375264</v>
       </c>
       <c r="R36">
-        <v>2.603224825937327</v>
+        <v>2.79932527126849</v>
       </c>
       <c r="S36">
-        <v>1.18348322638561</v>
+        <v>1.225878536755661</v>
       </c>
       <c r="T36">
-        <v>1.403360495691338</v>
+        <v>1.497842763791622</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>97.23916450527577</v>
+        <v>100.0469300138731</v>
       </c>
       <c r="C37">
-        <v>85.94305280007912</v>
+        <v>88.92470377855649</v>
       </c>
       <c r="D37">
-        <v>94.1924540775756</v>
+        <v>98.5398931981902</v>
       </c>
       <c r="E37">
-        <v>81.39704104961193</v>
+        <v>85.92569605230587</v>
       </c>
       <c r="F37">
-        <v>88.97650804595791</v>
+        <v>90.57343282435136</v>
       </c>
       <c r="G37">
-        <v>74.70884181583988</v>
+        <v>82.38376721546996</v>
       </c>
       <c r="H37">
-        <v>85.61417267784734</v>
+        <v>90.12251951406083</v>
       </c>
       <c r="I37">
-        <v>86.80278521692556</v>
+        <v>91.5352279745964</v>
       </c>
       <c r="J37">
-        <v>78.50311373525878</v>
+        <v>81.42173572309247</v>
       </c>
       <c r="K37">
-        <v>91.89448750239228</v>
+        <v>95.97536753907197</v>
       </c>
       <c r="L37">
-        <v>94.82237437391794</v>
+        <v>97.70952051859595</v>
       </c>
       <c r="M37">
-        <v>78.01762707689781</v>
+        <v>81.33135504561734</v>
       </c>
       <c r="N37">
-        <v>89.95407541054811</v>
+        <v>93.22356007450843</v>
       </c>
       <c r="O37">
-        <v>91.00528017736819</v>
+        <v>93.97133536993427</v>
       </c>
       <c r="P37">
-        <v>88.3428102922221</v>
+        <v>92.29548002088465</v>
       </c>
       <c r="Q37">
-        <v>91.7134945346141</v>
+        <v>97.43100920834712</v>
       </c>
       <c r="R37">
-        <v>91.46774868063248</v>
+        <v>98.35799729496509</v>
       </c>
       <c r="S37">
-        <v>89.41005066163514</v>
+        <v>92.6129408788277</v>
       </c>
       <c r="T37">
-        <v>87.5465246934472</v>
+        <v>93.44065826976649</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>7.464011180277892</v>
+        <v>7.679533323587052</v>
       </c>
       <c r="C38">
-        <v>11.51660393451134</v>
+        <v>11.91615331367931</v>
       </c>
       <c r="D38">
-        <v>6.667539966248335</v>
+        <v>6.975279310884757</v>
       </c>
       <c r="E38">
-        <v>6.543823627917813</v>
+        <v>6.907899756818545</v>
       </c>
       <c r="F38">
-        <v>6.208383871530518</v>
+        <v>6.319810159839163</v>
       </c>
       <c r="G38">
-        <v>4.841715725939626</v>
+        <v>5.339110761113679</v>
       </c>
       <c r="H38">
-        <v>10.94711052073138</v>
+        <v>11.52357314996833</v>
       </c>
       <c r="I38">
-        <v>8.88484199250134</v>
+        <v>9.369238962430181</v>
       </c>
       <c r="J38">
-        <v>6.562781373431759</v>
+        <v>6.806775236941919</v>
       </c>
       <c r="K38">
-        <v>6.472429324526383</v>
+        <v>6.759859053307365</v>
       </c>
       <c r="L38">
-        <v>11.22436358713851</v>
+        <v>11.56612235737645</v>
       </c>
       <c r="M38">
-        <v>7.8142014141891</v>
+        <v>8.146102533840992</v>
       </c>
       <c r="N38">
-        <v>9.033261497853289</v>
+        <v>9.361585809986803</v>
       </c>
       <c r="O38">
-        <v>5.6872772042033</v>
+        <v>5.872637636589341</v>
       </c>
       <c r="P38">
-        <v>11.86884575535577</v>
+        <v>12.39988644985234</v>
       </c>
       <c r="Q38">
-        <v>7.947764669911076</v>
+        <v>8.443236588783854</v>
       </c>
       <c r="R38">
-        <v>12.21203924136623</v>
+        <v>13.13196990189659</v>
       </c>
       <c r="S38">
-        <v>6.607488695681085</v>
+        <v>6.844185361738206</v>
       </c>
       <c r="T38">
-        <v>6.07027361953607</v>
+        <v>6.478959214808259</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>26.69334182554636</v>
+        <v>27.46410785246858</v>
       </c>
       <c r="C39">
-        <v>25.10831340119531</v>
+        <v>25.97940448746077</v>
       </c>
       <c r="D39">
-        <v>26.91424641580454</v>
+        <v>28.15646957386732</v>
       </c>
       <c r="E39">
-        <v>28.21984726790108</v>
+        <v>29.78990375714307</v>
       </c>
       <c r="F39">
-        <v>29.40779963612498</v>
+        <v>29.93560236684915</v>
       </c>
       <c r="G39">
-        <v>29.11269320959113</v>
+        <v>32.10347372679833</v>
       </c>
       <c r="H39">
-        <v>25.41378445290717</v>
+        <v>26.75204599478528</v>
       </c>
       <c r="I39">
-        <v>27.7103374397429</v>
+        <v>29.22109064197721</v>
       </c>
       <c r="J39">
-        <v>21.66322717875194</v>
+        <v>22.46863180747234</v>
       </c>
       <c r="K39">
-        <v>31.34138533446184</v>
+        <v>32.73320368188949</v>
       </c>
       <c r="L39">
-        <v>27.86123955342448</v>
+        <v>28.70955695629207</v>
       </c>
       <c r="M39">
-        <v>32.80966328342279</v>
+        <v>34.20322398169149</v>
       </c>
       <c r="N39">
-        <v>19.80947727158823</v>
+        <v>20.52947558011326</v>
       </c>
       <c r="O39">
-        <v>30.60338899928992</v>
+        <v>31.60081838662382</v>
       </c>
       <c r="P39">
-        <v>24.67021610729495</v>
+        <v>25.77402088874023</v>
       </c>
       <c r="Q39">
-        <v>22.76069406578847</v>
+        <v>24.17961941549672</v>
       </c>
       <c r="R39">
-        <v>27.38063676440289</v>
+        <v>29.44321507475566</v>
       </c>
       <c r="S39">
-        <v>37.45882443395286</v>
+        <v>38.80069261811352</v>
       </c>
       <c r="T39">
-        <v>28.21428340839864</v>
+        <v>30.1138306006092</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.34449077903105</v>
+        <v>5.498812105697381</v>
       </c>
       <c r="C40">
-        <v>6.059988009814647</v>
+        <v>6.270229193835148</v>
       </c>
       <c r="D40">
-        <v>5.73330454173775</v>
+        <v>5.997924385219267</v>
       </c>
       <c r="E40">
-        <v>4.719646523586936</v>
+        <v>4.982231631895256</v>
       </c>
       <c r="F40">
-        <v>4.829272623804737</v>
+        <v>4.915947020046356</v>
       </c>
       <c r="G40">
-        <v>3.954345977277231</v>
+        <v>4.36058049573948</v>
       </c>
       <c r="H40">
-        <v>5.887341769549018</v>
+        <v>6.197362620189343</v>
       </c>
       <c r="I40">
-        <v>4.993108373504731</v>
+        <v>5.265330048205679</v>
       </c>
       <c r="J40">
-        <v>4.766333384575325</v>
+        <v>4.943538144433395</v>
       </c>
       <c r="K40">
-        <v>5.978969549905999</v>
+        <v>6.244485557876466</v>
       </c>
       <c r="L40">
-        <v>5.504990844774396</v>
+        <v>5.672606486113472</v>
       </c>
       <c r="M40">
-        <v>6.00464691454316</v>
+        <v>6.259688847610349</v>
       </c>
       <c r="N40">
-        <v>4.281753788068627</v>
+        <v>4.437379069981122</v>
       </c>
       <c r="O40">
-        <v>6.256567782540063</v>
+        <v>6.46048260289858</v>
       </c>
       <c r="P40">
-        <v>6.376368516373248</v>
+        <v>6.661662574034492</v>
       </c>
       <c r="Q40">
-        <v>4.778250566922313</v>
+        <v>5.076131678854434</v>
       </c>
       <c r="R40">
-        <v>5.835800708694667</v>
+        <v>6.275410498228263</v>
       </c>
       <c r="S40">
-        <v>4.998197335173056</v>
+        <v>5.177245185274463</v>
       </c>
       <c r="T40">
-        <v>6.93710343391216</v>
+        <v>7.404148978157299</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.821444746261058</v>
+        <v>2.902913517442603</v>
       </c>
       <c r="C41">
-        <v>4.030463723508798</v>
+        <v>4.170293944956394</v>
       </c>
       <c r="D41">
-        <v>3.383679054216553</v>
+        <v>3.539852272506312</v>
       </c>
       <c r="E41">
-        <v>4.915710270828002</v>
+        <v>5.189203700352187</v>
       </c>
       <c r="F41">
-        <v>3.292866429621752</v>
+        <v>3.35196584933248</v>
       </c>
       <c r="G41">
-        <v>2.226042836382852</v>
+        <v>2.454726781821785</v>
       </c>
       <c r="H41">
-        <v>2.989250816341638</v>
+        <v>3.146661430016697</v>
       </c>
       <c r="I41">
-        <v>2.554686663095876</v>
+        <v>2.693966852857909</v>
       </c>
       <c r="J41">
-        <v>4.156176176238985</v>
+        <v>4.310696253164716</v>
       </c>
       <c r="K41">
-        <v>3.177975390617405</v>
+        <v>3.319103946650674</v>
       </c>
       <c r="L41">
-        <v>2.49019286533625</v>
+        <v>2.566014112991464</v>
       </c>
       <c r="M41">
-        <v>2.055159532435012</v>
+        <v>2.142450570088566</v>
       </c>
       <c r="N41">
-        <v>4.449740222857047</v>
+        <v>4.611471165572429</v>
       </c>
       <c r="O41">
-        <v>3.262163667107704</v>
+        <v>3.368484503272014</v>
       </c>
       <c r="P41">
-        <v>3.599637577705625</v>
+        <v>3.760694017278794</v>
       </c>
       <c r="Q41">
-        <v>2.589071266593625</v>
+        <v>2.750476663184447</v>
       </c>
       <c r="R41">
-        <v>3.291335932288447</v>
+        <v>3.539271660169279</v>
       </c>
       <c r="S41">
-        <v>2.2045447933637</v>
+        <v>2.283517066612363</v>
       </c>
       <c r="T41">
-        <v>1.387749342636224</v>
+        <v>1.481180578480123</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.04479574217069</v>
+        <v>11.36371247384095</v>
       </c>
       <c r="C42">
-        <v>9.730437147324768</v>
+        <v>10.06801844675595</v>
       </c>
       <c r="D42">
-        <v>11.74968709607762</v>
+        <v>12.29199220784803</v>
       </c>
       <c r="E42">
-        <v>13.77700739113521</v>
+        <v>14.54351330633166</v>
       </c>
       <c r="F42">
-        <v>9.235914381370929</v>
+        <v>9.401677916607818</v>
       </c>
       <c r="G42">
-        <v>10.05855014366867</v>
+        <v>11.09187658943787</v>
       </c>
       <c r="H42">
-        <v>10.31374764556379</v>
+        <v>10.85685809226922</v>
       </c>
       <c r="I42">
-        <v>10.70815925727549</v>
+        <v>11.29196253730202</v>
       </c>
       <c r="J42">
-        <v>14.47592306171941</v>
+        <v>15.01411505604723</v>
       </c>
       <c r="K42">
-        <v>11.82886828156998</v>
+        <v>12.35416847898951</v>
       </c>
       <c r="L42">
-        <v>11.31179777282216</v>
+        <v>11.65621873406487</v>
       </c>
       <c r="M42">
-        <v>10.57844644451514</v>
+        <v>11.02775636539034</v>
       </c>
       <c r="N42">
-        <v>13.06873653084749</v>
+        <v>13.54373483937253</v>
       </c>
       <c r="O42">
-        <v>12.02264509504421</v>
+        <v>12.41448861053073</v>
       </c>
       <c r="P42">
-        <v>9.957479115338804</v>
+        <v>10.40300067100132</v>
       </c>
       <c r="Q42">
-        <v>10.93108568807807</v>
+        <v>11.61254094325681</v>
       </c>
       <c r="R42">
-        <v>10.06265848220206</v>
+        <v>10.82067668712783</v>
       </c>
       <c r="S42">
-        <v>8.999915841008081</v>
+        <v>9.322315193087743</v>
       </c>
       <c r="T42">
-        <v>8.637075837650674</v>
+        <v>9.218573262867411</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.193594853964265</v>
+        <v>1.228059716751299</v>
       </c>
       <c r="C43">
-        <v>1.188975209982756</v>
+        <v>1.230224723267758</v>
       </c>
       <c r="D43">
-        <v>0.8125820637228965</v>
+        <v>0.8500866715721539</v>
       </c>
       <c r="E43">
-        <v>0.7897447738870131</v>
+        <v>0.83368349174452</v>
       </c>
       <c r="F43">
-        <v>0.8293733540470712</v>
+        <v>0.8442587084929093</v>
       </c>
       <c r="G43">
-        <v>1.703633826540723</v>
+        <v>1.878650092476385</v>
       </c>
       <c r="H43">
-        <v>1.059832495743508</v>
+        <v>1.115642092795631</v>
       </c>
       <c r="I43">
-        <v>0.6300303517229067</v>
+        <v>0.6643792792103453</v>
       </c>
       <c r="J43">
-        <v>0.5474025016549072</v>
+        <v>0.5677540635421602</v>
       </c>
       <c r="K43">
-        <v>0.8082666483813952</v>
+        <v>0.8441604143660825</v>
       </c>
       <c r="L43">
-        <v>0.7078806187080089</v>
+        <v>0.7294341266505105</v>
       </c>
       <c r="M43">
-        <v>0.6029207417822067</v>
+        <v>0.6285292535996141</v>
       </c>
       <c r="N43">
-        <v>0.8338512170266794</v>
+        <v>0.8641585016455338</v>
       </c>
       <c r="O43">
-        <v>1.177177128086191</v>
+        <v>1.215543828639445</v>
       </c>
       <c r="P43">
-        <v>0.4832453621367619</v>
+        <v>0.5048669214704107</v>
       </c>
       <c r="Q43">
-        <v>0.6650760567686702</v>
+        <v>0.7065375901342776</v>
       </c>
       <c r="R43">
-        <v>0.68811110635112</v>
+        <v>0.7399463889007889</v>
       </c>
       <c r="S43">
-        <v>0.580328199288493</v>
+        <v>0.6011169976227684</v>
       </c>
       <c r="T43">
-        <v>0.7501569862799718</v>
+        <v>0.8006618520736248</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.403037976754101</v>
+        <v>6.587924686474786</v>
       </c>
       <c r="C44">
-        <v>6.132608977805796</v>
+        <v>6.345369625275803</v>
       </c>
       <c r="D44">
-        <v>7.138556824682721</v>
+        <v>7.46803588442562</v>
       </c>
       <c r="E44">
-        <v>8.319376922932907</v>
+        <v>8.782238808764518</v>
       </c>
       <c r="F44">
-        <v>4.969884772910419</v>
+        <v>5.059082835566706</v>
       </c>
       <c r="G44">
-        <v>5.735615587225048</v>
+        <v>6.324841985104696</v>
       </c>
       <c r="H44">
-        <v>5.349894924287912</v>
+        <v>5.63161442354354</v>
       </c>
       <c r="I44">
-        <v>4.601892519193002</v>
+        <v>4.852785308745888</v>
       </c>
       <c r="J44">
-        <v>5.426391925935454</v>
+        <v>5.628136621605087</v>
       </c>
       <c r="K44">
-        <v>6.451179860547514</v>
+        <v>6.737665936279239</v>
       </c>
       <c r="L44">
-        <v>4.694543200552876</v>
+        <v>4.837482379116925</v>
       </c>
       <c r="M44">
-        <v>6.619451770815161</v>
+        <v>6.90060698268696</v>
       </c>
       <c r="N44">
-        <v>4.742386274411533</v>
+        <v>4.914753775539184</v>
       </c>
       <c r="O44">
-        <v>7.634765595067202</v>
+        <v>7.88359880664722</v>
       </c>
       <c r="P44">
-        <v>5.476266132584966</v>
+        <v>5.721287445544878</v>
       </c>
       <c r="Q44">
-        <v>4.920011211047979</v>
+        <v>5.226729829031518</v>
       </c>
       <c r="R44">
-        <v>4.091555027876548</v>
+        <v>4.399771112430309</v>
       </c>
       <c r="S44">
-        <v>5.711096726734715</v>
+        <v>5.915682404744491</v>
       </c>
       <c r="T44">
-        <v>6.115463799432455</v>
+        <v>6.527191856499441</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2018.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2018.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>158.4088872167998</v>
+        <v>155.5385638181046</v>
       </c>
       <c r="C2">
-        <v>142.7420393821964</v>
+        <v>142.7870068479529</v>
       </c>
       <c r="D2">
-        <v>143.0894928858491</v>
+        <v>142.5232487712432</v>
       </c>
       <c r="E2">
-        <v>135.0269216847545</v>
+        <v>136.047380828298</v>
       </c>
       <c r="F2">
-        <v>145.3321820455093</v>
+        <v>144.2585603196998</v>
       </c>
       <c r="G2">
-        <v>154.1229173822577</v>
+        <v>151.1985192171751</v>
       </c>
       <c r="H2">
-        <v>167.7343270630619</v>
+        <v>167.9970441726051</v>
       </c>
       <c r="I2">
-        <v>165.0228662024639</v>
+        <v>164.9646302470045</v>
       </c>
       <c r="J2">
-        <v>142.1737730941901</v>
+        <v>140.9912494142526</v>
       </c>
       <c r="K2">
-        <v>145.1059968355564</v>
+        <v>144.5655940962375</v>
       </c>
       <c r="L2">
-        <v>189.1417492536888</v>
+        <v>186.9703389114826</v>
       </c>
       <c r="M2">
-        <v>157.2074726141973</v>
+        <v>156.2170784669014</v>
       </c>
       <c r="N2">
-        <v>123.6101143520607</v>
+        <v>123.260637198594</v>
       </c>
       <c r="O2">
-        <v>154.3051522086733</v>
+        <v>153.2934567205187</v>
       </c>
       <c r="P2">
-        <v>135.1946514056356</v>
+        <v>135.3168670899492</v>
       </c>
       <c r="Q2">
-        <v>135.8357852370882</v>
+        <v>133.8136810420536</v>
       </c>
       <c r="R2">
-        <v>153.1655769007154</v>
+        <v>152.0719630961024</v>
       </c>
       <c r="S2">
-        <v>206.6505645821559</v>
+        <v>197.2491394929469</v>
       </c>
       <c r="T2">
-        <v>175.2248024784567</v>
+        <v>172.3445590445504</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.65583763652033</v>
+        <v>12.42651750469922</v>
       </c>
       <c r="C3">
-        <v>10.17913036133309</v>
+        <v>10.18233705291418</v>
       </c>
       <c r="D3">
-        <v>9.269371173131299</v>
+        <v>9.232689745536399</v>
       </c>
       <c r="E3">
-        <v>11.8512206398439</v>
+        <v>11.94078564149827</v>
       </c>
       <c r="F3">
-        <v>15.09233742969652</v>
+        <v>14.98084483989493</v>
       </c>
       <c r="G3">
-        <v>9.669287209359929</v>
+        <v>9.485817766573712</v>
       </c>
       <c r="H3">
-        <v>9.537613403630562</v>
+        <v>9.552551873705326</v>
       </c>
       <c r="I3">
-        <v>11.30770219603643</v>
+        <v>11.30371175000558</v>
       </c>
       <c r="J3">
-        <v>10.59598467759899</v>
+        <v>10.50785307272687</v>
       </c>
       <c r="K3">
-        <v>11.69823857571381</v>
+        <v>11.65467207736512</v>
       </c>
       <c r="L3">
-        <v>13.71024286029808</v>
+        <v>13.55284470120058</v>
       </c>
       <c r="M3">
-        <v>11.45145611190361</v>
+        <v>11.37931288027061</v>
       </c>
       <c r="N3">
-        <v>9.356859327753554</v>
+        <v>9.330405112575518</v>
       </c>
       <c r="O3">
-        <v>12.33561110798923</v>
+        <v>12.25473317278779</v>
       </c>
       <c r="P3">
-        <v>8.5359608575764</v>
+        <v>8.543677348477752</v>
       </c>
       <c r="Q3">
-        <v>7.644541921675541</v>
+        <v>7.530742305013725</v>
       </c>
       <c r="R3">
-        <v>8.459499446141042</v>
+        <v>8.399097980213659</v>
       </c>
       <c r="S3">
-        <v>18.10262474232803</v>
+        <v>17.27905829924969</v>
       </c>
       <c r="T3">
-        <v>17.07698603004348</v>
+        <v>16.79628446161118</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.629612196889846</v>
+        <v>7.491365821976983</v>
       </c>
       <c r="C4">
-        <v>5.842568227656947</v>
+        <v>5.844408789048984</v>
       </c>
       <c r="D4">
-        <v>6.294067822628759</v>
+        <v>6.269160481148858</v>
       </c>
       <c r="E4">
-        <v>8.293784727206161</v>
+        <v>8.356464586554644</v>
       </c>
       <c r="F4">
-        <v>6.56726529853536</v>
+        <v>6.518750519465613</v>
       </c>
       <c r="G4">
-        <v>7.087343491974369</v>
+        <v>6.952865020795196</v>
       </c>
       <c r="H4">
-        <v>6.355071188280871</v>
+        <v>6.365024940519665</v>
       </c>
       <c r="I4">
-        <v>7.10852692631418</v>
+        <v>7.106018353611568</v>
       </c>
       <c r="J4">
-        <v>7.118098943055508</v>
+        <v>7.05889448942731</v>
       </c>
       <c r="K4">
-        <v>6.390795736802621</v>
+        <v>6.366995179982704</v>
       </c>
       <c r="L4">
-        <v>7.069100324784046</v>
+        <v>6.987944696183291</v>
       </c>
       <c r="M4">
-        <v>8.241083958497962</v>
+        <v>8.189165807381181</v>
       </c>
       <c r="N4">
-        <v>5.802544688350958</v>
+        <v>5.786139422396974</v>
       </c>
       <c r="O4">
-        <v>9.396386276443033</v>
+        <v>9.33477924994544</v>
       </c>
       <c r="P4">
-        <v>5.760805782848472</v>
+        <v>5.766013539321294</v>
       </c>
       <c r="Q4">
-        <v>6.123575529339822</v>
+        <v>6.032417608436456</v>
       </c>
       <c r="R4">
-        <v>7.175817171463718</v>
+        <v>7.124581294076078</v>
       </c>
       <c r="S4">
-        <v>8.733020466220038</v>
+        <v>8.335717715648283</v>
       </c>
       <c r="T4">
-        <v>6.472820514956654</v>
+        <v>6.366424054390805</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.80222006622699</v>
+        <v>21.40717011985658</v>
       </c>
       <c r="C5">
-        <v>16.27829516869696</v>
+        <v>16.28342325628588</v>
       </c>
       <c r="D5">
-        <v>15.05273433510347</v>
+        <v>14.99316656353566</v>
       </c>
       <c r="E5">
-        <v>16.24234004422616</v>
+        <v>16.3650907090852</v>
       </c>
       <c r="F5">
-        <v>15.30178475297206</v>
+        <v>15.1887448995602</v>
       </c>
       <c r="G5">
-        <v>16.99026180312438</v>
+        <v>16.66788086662745</v>
       </c>
       <c r="H5">
-        <v>16.67788968489624</v>
+        <v>16.70401174975926</v>
       </c>
       <c r="I5">
-        <v>19.68368585201623</v>
+        <v>19.67673955251888</v>
       </c>
       <c r="J5">
-        <v>13.95153666364444</v>
+        <v>13.83549541273563</v>
       </c>
       <c r="K5">
-        <v>18.14903792522211</v>
+        <v>18.0814474050184</v>
       </c>
       <c r="L5">
-        <v>22.84896091497294</v>
+        <v>22.58664722571499</v>
       </c>
       <c r="M5">
-        <v>15.23254273868289</v>
+        <v>15.13657897229216</v>
       </c>
       <c r="N5">
-        <v>17.04999690940377</v>
+        <v>17.00179224251427</v>
       </c>
       <c r="O5">
-        <v>24.40802044434</v>
+        <v>24.24799024570523</v>
       </c>
       <c r="P5">
-        <v>13.56688714532787</v>
+        <v>13.57915158315313</v>
       </c>
       <c r="Q5">
-        <v>13.02861310163834</v>
+        <v>12.83466411270054</v>
       </c>
       <c r="R5">
-        <v>17.47437438417616</v>
+        <v>17.34960602930031</v>
       </c>
       <c r="S5">
-        <v>25.13414762526184</v>
+        <v>23.99068689212614</v>
       </c>
       <c r="T5">
-        <v>25.97546994350577</v>
+        <v>25.54850026975419</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>44.30499994377146</v>
+        <v>43.50220610908117</v>
       </c>
       <c r="C6">
-        <v>42.67736695941671</v>
+        <v>42.69081144322564</v>
       </c>
       <c r="D6">
-        <v>43.8365711358796</v>
+        <v>43.66309787862237</v>
       </c>
       <c r="E6">
-        <v>36.24412073990402</v>
+        <v>36.518033852543</v>
       </c>
       <c r="F6">
-        <v>31.94112113798173</v>
+        <v>31.70516045041901</v>
       </c>
       <c r="G6">
-        <v>46.22695389391637</v>
+        <v>45.34982269603333</v>
       </c>
       <c r="H6">
-        <v>42.62720741246432</v>
+        <v>42.69397309433391</v>
       </c>
       <c r="I6">
-        <v>46.76252609993115</v>
+        <v>46.74602377846631</v>
       </c>
       <c r="J6">
-        <v>35.12703801423691</v>
+        <v>34.83487052543868</v>
       </c>
       <c r="K6">
-        <v>40.23694313928771</v>
+        <v>40.08709299685058</v>
       </c>
       <c r="L6">
-        <v>48.45192549814301</v>
+        <v>47.89568123931806</v>
       </c>
       <c r="M6">
-        <v>49.66867769214191</v>
+        <v>49.35576910788557</v>
       </c>
       <c r="N6">
-        <v>35.17684402094923</v>
+        <v>35.07739015844921</v>
       </c>
       <c r="O6">
-        <v>46.37498975739588</v>
+        <v>46.07093401311766</v>
       </c>
       <c r="P6">
-        <v>48.32286155549935</v>
+        <v>48.36654532206552</v>
       </c>
       <c r="Q6">
-        <v>40.6772346829057</v>
+        <v>40.07169758713125</v>
       </c>
       <c r="R6">
-        <v>41.77537775628982</v>
+        <v>41.47709839919368</v>
       </c>
       <c r="S6">
-        <v>51.00946068632179</v>
+        <v>48.6888204090834</v>
       </c>
       <c r="T6">
-        <v>58.64036881101768</v>
+        <v>57.67647251984885</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>14.1127025173005</v>
+        <v>13.85698441356309</v>
       </c>
       <c r="C7">
-        <v>12.25508462145419</v>
+        <v>12.25894529277739</v>
       </c>
       <c r="D7">
-        <v>14.47594808097534</v>
+        <v>14.41866280978682</v>
       </c>
       <c r="E7">
-        <v>12.70477345016028</v>
+        <v>12.8007891340854</v>
       </c>
       <c r="F7">
-        <v>13.51218272050577</v>
+        <v>13.41236330867515</v>
       </c>
       <c r="G7">
-        <v>15.28123429139969</v>
+        <v>14.99128121835261</v>
       </c>
       <c r="H7">
-        <v>14.56926771893173</v>
+        <v>14.59208711416404</v>
       </c>
       <c r="I7">
-        <v>16.12486617185707</v>
+        <v>16.11917576658305</v>
       </c>
       <c r="J7">
-        <v>12.86307997829013</v>
+        <v>12.75609191473793</v>
       </c>
       <c r="K7">
-        <v>12.07634353248928</v>
+        <v>12.03136889830301</v>
       </c>
       <c r="L7">
-        <v>15.14052284022681</v>
+        <v>14.96670459009747</v>
       </c>
       <c r="M7">
-        <v>18.14475581120884</v>
+        <v>18.0304453419881</v>
       </c>
       <c r="N7">
-        <v>11.5184372024257</v>
+        <v>11.48587165819828</v>
       </c>
       <c r="O7">
-        <v>14.20127161547067</v>
+        <v>14.10816155262586</v>
       </c>
       <c r="P7">
-        <v>14.26047428983994</v>
+        <v>14.2733657290045</v>
       </c>
       <c r="Q7">
-        <v>13.08031097408719</v>
+        <v>12.8855923905645</v>
       </c>
       <c r="R7">
-        <v>13.25169156481986</v>
+        <v>13.15707348468064</v>
       </c>
       <c r="S7">
-        <v>15.7472646457426</v>
+        <v>15.03085368782315</v>
       </c>
       <c r="T7">
-        <v>17.83116915466924</v>
+        <v>17.53807076248858</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>186.16</v>
+        <v>200.906546332322</v>
       </c>
       <c r="C8">
-        <v>223.98</v>
+        <v>223.735533457926</v>
       </c>
       <c r="D8">
-        <v>202.83</v>
+        <v>205.984618915314</v>
       </c>
       <c r="E8">
-        <v>204.05</v>
+        <v>198.034648060038</v>
       </c>
       <c r="F8">
-        <v>221.27</v>
+        <v>227.022761946957</v>
       </c>
       <c r="G8">
-        <v>224.78</v>
+        <v>239.489376022987</v>
       </c>
       <c r="H8">
-        <v>188.4</v>
+        <v>187.128815920756</v>
       </c>
       <c r="I8">
-        <v>188.02</v>
+        <v>188.306544720753</v>
       </c>
       <c r="J8">
-        <v>250.12</v>
+        <v>256.357091678815</v>
       </c>
       <c r="K8">
-        <v>196.85</v>
+        <v>199.84108561706</v>
       </c>
       <c r="L8">
-        <v>148.85</v>
+        <v>158.621485777526</v>
       </c>
       <c r="M8">
-        <v>195.21</v>
+        <v>200.280110806745</v>
       </c>
       <c r="N8">
-        <v>245.54</v>
+        <v>247.673049828378</v>
       </c>
       <c r="O8">
-        <v>187.35</v>
+        <v>192.678106849841</v>
       </c>
       <c r="P8">
-        <v>209.13</v>
+        <v>208.41505516122</v>
       </c>
       <c r="Q8">
-        <v>264.86</v>
+        <v>275.803579229458</v>
       </c>
       <c r="R8">
-        <v>184.9</v>
+        <v>190.719875654684</v>
       </c>
       <c r="S8">
-        <v>124.73</v>
+        <v>164.549805740528</v>
       </c>
       <c r="T8">
-        <v>157.88</v>
+        <v>171.722278982505</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.56996655935535</v>
+        <v>10.37844181051206</v>
       </c>
       <c r="C9">
-        <v>9.070409314437457</v>
+        <v>9.07326672996837</v>
       </c>
       <c r="D9">
-        <v>10.60324037468645</v>
+        <v>10.56128046318752</v>
       </c>
       <c r="E9">
-        <v>12.20886837413748</v>
+        <v>12.30113628048725</v>
       </c>
       <c r="F9">
-        <v>11.76139718038398</v>
+        <v>11.6745114585775</v>
       </c>
       <c r="G9">
-        <v>11.59834401215404</v>
+        <v>11.37827177031465</v>
       </c>
       <c r="H9">
-        <v>8.930143363574302</v>
+        <v>8.944130372038005</v>
       </c>
       <c r="I9">
-        <v>9.037877725916292</v>
+        <v>9.034688292495305</v>
       </c>
       <c r="J9">
-        <v>8.779799026820477</v>
+        <v>8.706773460794112</v>
       </c>
       <c r="K9">
-        <v>7.327838455767893</v>
+        <v>7.300548171002673</v>
       </c>
       <c r="L9">
-        <v>11.19794004879394</v>
+        <v>11.06938396358643</v>
       </c>
       <c r="M9">
-        <v>9.864027431984482</v>
+        <v>9.801884870470381</v>
       </c>
       <c r="N9">
-        <v>7.701802799077832</v>
+        <v>7.680027848598318</v>
       </c>
       <c r="O9">
-        <v>10.72734034564319</v>
+        <v>10.65700697263366</v>
       </c>
       <c r="P9">
-        <v>13.39913583595751</v>
+        <v>13.41124862694722</v>
       </c>
       <c r="Q9">
-        <v>7.481206614518307</v>
+        <v>7.369838470602963</v>
       </c>
       <c r="R9">
-        <v>5.977769141794014</v>
+        <v>5.935087417959332</v>
       </c>
       <c r="S9">
-        <v>7.066989695198991</v>
+        <v>6.745481866948122</v>
       </c>
       <c r="T9">
-        <v>6.846404248782902</v>
+        <v>6.733867035988216</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>28.26617395473705</v>
+        <v>27.75399902617492</v>
       </c>
       <c r="C10">
-        <v>32.146515429638</v>
+        <v>32.15664242052331</v>
       </c>
       <c r="D10">
-        <v>28.86215572637204</v>
+        <v>28.74794031135247</v>
       </c>
       <c r="E10">
-        <v>30.4927809016228</v>
+        <v>30.72322855380122</v>
       </c>
       <c r="F10">
-        <v>24.54819670020187</v>
+        <v>24.36685023628841</v>
       </c>
       <c r="G10">
-        <v>28.63101146046634</v>
+        <v>28.08775365817738</v>
       </c>
       <c r="H10">
-        <v>29.29374069535035</v>
+        <v>29.3396225790288</v>
       </c>
       <c r="I10">
-        <v>25.69292187619559</v>
+        <v>25.6838549396647</v>
       </c>
       <c r="J10">
-        <v>27.61527534204029</v>
+        <v>27.38558658644736</v>
       </c>
       <c r="K10">
-        <v>28.1729291162585</v>
+        <v>28.06800769053468</v>
       </c>
       <c r="L10">
-        <v>28.67317188109097</v>
+        <v>28.34399430812189</v>
       </c>
       <c r="M10">
-        <v>21.12139106741515</v>
+        <v>20.98832804090589</v>
       </c>
       <c r="N10">
-        <v>35.00196417831905</v>
+        <v>34.9030047455016</v>
       </c>
       <c r="O10">
-        <v>32.50251278409817</v>
+        <v>32.28941137389451</v>
       </c>
       <c r="P10">
-        <v>25.74337401491296</v>
+        <v>25.76664597159957</v>
       </c>
       <c r="Q10">
-        <v>30.61338217952965</v>
+        <v>30.15765949628107</v>
       </c>
       <c r="R10">
-        <v>32.42461704171996</v>
+        <v>32.19310282342336</v>
       </c>
       <c r="S10">
-        <v>31.38721944924694</v>
+        <v>29.95927952076277</v>
       </c>
       <c r="T10">
-        <v>23.50245086043061</v>
+        <v>23.11613123664457</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>43.72009074263584</v>
+        <v>42.92789529415752</v>
       </c>
       <c r="C11">
-        <v>50.44480921802152</v>
+        <v>50.46070064875157</v>
       </c>
       <c r="D11">
-        <v>48.51612694023458</v>
+        <v>48.32413540550116</v>
       </c>
       <c r="E11">
-        <v>41.88949087913528</v>
+        <v>42.20606859158433</v>
       </c>
       <c r="F11">
-        <v>30.16769264399231</v>
+        <v>29.94483291819538</v>
       </c>
       <c r="G11">
-        <v>44.46351913930906</v>
+        <v>43.61984815258869</v>
       </c>
       <c r="H11">
-        <v>58.19362718890599</v>
+        <v>58.28477407455901</v>
       </c>
       <c r="I11">
-        <v>59.49176800061215</v>
+        <v>59.47077357704402</v>
       </c>
       <c r="J11">
-        <v>45.64381943159037</v>
+        <v>45.26417910731701</v>
       </c>
       <c r="K11">
-        <v>45.04216395952541</v>
+        <v>44.8744182472916</v>
       </c>
       <c r="L11">
-        <v>52.91169614422</v>
+        <v>52.30425223146898</v>
       </c>
       <c r="M11">
-        <v>46.78206830800177</v>
+        <v>46.48734512544448</v>
       </c>
       <c r="N11">
-        <v>41.23461874989559</v>
+        <v>41.11803802136432</v>
       </c>
       <c r="O11">
-        <v>37.56312728926034</v>
+        <v>37.31684616477703</v>
       </c>
       <c r="P11">
-        <v>46.69615775261466</v>
+        <v>46.73837098231876</v>
       </c>
       <c r="Q11">
-        <v>41.71868457716513</v>
+        <v>41.09764405424573</v>
       </c>
       <c r="R11">
-        <v>58.42666570786848</v>
+        <v>58.00949489528402</v>
       </c>
       <c r="S11">
-        <v>37.07282227698907</v>
+        <v>35.38621976425262</v>
       </c>
       <c r="T11">
-        <v>37.63198400458202</v>
+        <v>37.01341132936164</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.33284120754362</v>
+        <v>10.14561310175923</v>
       </c>
       <c r="C12">
-        <v>11.21191161049615</v>
+        <v>11.21544365511028</v>
       </c>
       <c r="D12">
-        <v>10.91406861064518</v>
+        <v>10.87087866711723</v>
       </c>
       <c r="E12">
-        <v>10.81967185065455</v>
+        <v>10.90144097441432</v>
       </c>
       <c r="F12">
-        <v>8.59138363891635</v>
+        <v>8.527915960941101</v>
       </c>
       <c r="G12">
-        <v>9.743697115067045</v>
+        <v>9.558815784967701</v>
       </c>
       <c r="H12">
-        <v>10.5080634813578</v>
+        <v>10.52452193749529</v>
       </c>
       <c r="I12">
-        <v>9.936695079960215</v>
+        <v>9.933188457239337</v>
       </c>
       <c r="J12">
-        <v>8.798619603512483</v>
+        <v>8.725437498223467</v>
       </c>
       <c r="K12">
-        <v>10.15129612212378</v>
+        <v>10.11349073604969</v>
       </c>
       <c r="L12">
-        <v>10.55513705357461</v>
+        <v>10.43396056106584</v>
       </c>
       <c r="M12">
-        <v>11.90571509939348</v>
+        <v>11.83071007350168</v>
       </c>
       <c r="N12">
-        <v>9.315108734693196</v>
+        <v>9.288772559033969</v>
       </c>
       <c r="O12">
-        <v>11.16988464937599</v>
+        <v>11.09664975254184</v>
       </c>
       <c r="P12">
-        <v>12.11922560532885</v>
+        <v>12.13018136012615</v>
       </c>
       <c r="Q12">
-        <v>11.32558028893928</v>
+        <v>11.15698330712413</v>
       </c>
       <c r="R12">
-        <v>11.68616454201066</v>
+        <v>11.60272444323176</v>
       </c>
       <c r="S12">
-        <v>8.821232794161652</v>
+        <v>8.419916884493215</v>
       </c>
       <c r="T12">
-        <v>11.86522985603083</v>
+        <v>11.67019610566422</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.845677364742253</v>
+        <v>4.757875086934999</v>
       </c>
       <c r="C13">
-        <v>4.999236789679374</v>
+        <v>5.00081167967059</v>
       </c>
       <c r="D13">
-        <v>4.949592933232494</v>
+        <v>4.930006045253418</v>
       </c>
       <c r="E13">
-        <v>4.541795070218905</v>
+        <v>4.576119457160988</v>
       </c>
       <c r="F13">
-        <v>4.490582958104526</v>
+        <v>4.457409387340544</v>
       </c>
       <c r="G13">
-        <v>3.581276752097232</v>
+        <v>3.513323982059076</v>
       </c>
       <c r="H13">
-        <v>4.66199878268451</v>
+        <v>4.6693007277683</v>
       </c>
       <c r="I13">
-        <v>4.743436100696306</v>
+        <v>4.741762159745932</v>
       </c>
       <c r="J13">
-        <v>3.72255323153955</v>
+        <v>3.691591069881177</v>
       </c>
       <c r="K13">
-        <v>4.26190043669731</v>
+        <v>4.246028296875925</v>
       </c>
       <c r="L13">
-        <v>4.622637173167607</v>
+        <v>4.569567757210055</v>
       </c>
       <c r="M13">
-        <v>4.575626892170646</v>
+        <v>4.546800819091176</v>
       </c>
       <c r="N13">
-        <v>3.509413058186739</v>
+        <v>3.499491057124426</v>
       </c>
       <c r="O13">
-        <v>4.795752154522837</v>
+        <v>4.76430899953034</v>
       </c>
       <c r="P13">
-        <v>5.188193140286185</v>
+        <v>5.192883256118422</v>
       </c>
       <c r="Q13">
-        <v>4.443769297016332</v>
+        <v>4.377617623349642</v>
       </c>
       <c r="R13">
-        <v>4.392288508497605</v>
+        <v>4.360927236311426</v>
       </c>
       <c r="S13">
-        <v>4.249651633723444</v>
+        <v>4.05631665992132</v>
       </c>
       <c r="T13">
-        <v>6.107129395225327</v>
+        <v>6.006743952686298</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.735365153232987</v>
+        <v>8.577082853319121</v>
       </c>
       <c r="C14">
-        <v>7.577193081127404</v>
+        <v>7.579580094595063</v>
       </c>
       <c r="D14">
-        <v>7.830260915306654</v>
+        <v>7.799274439153176</v>
       </c>
       <c r="E14">
-        <v>9.22598692353618</v>
+        <v>9.295711853919439</v>
       </c>
       <c r="F14">
-        <v>5.900915513288083</v>
+        <v>5.857323302615512</v>
       </c>
       <c r="G14">
-        <v>7.230562557797739</v>
+        <v>7.0933665830804</v>
       </c>
       <c r="H14">
-        <v>8.329348818463714</v>
+        <v>8.342394820938457</v>
       </c>
       <c r="I14">
-        <v>7.118467763409598</v>
+        <v>7.115955682622562</v>
       </c>
       <c r="J14">
-        <v>6.784033706772414</v>
+        <v>6.727607825056259</v>
       </c>
       <c r="K14">
-        <v>9.020269120986748</v>
+        <v>8.98667589776594</v>
       </c>
       <c r="L14">
-        <v>7.812395432463545</v>
+        <v>7.722706528208447</v>
       </c>
       <c r="M14">
-        <v>7.806647181371291</v>
+        <v>7.757465946218375</v>
       </c>
       <c r="N14">
-        <v>6.175149037738686</v>
+        <v>6.157690324758333</v>
       </c>
       <c r="O14">
-        <v>9.093330608783608</v>
+        <v>9.03371055451113</v>
       </c>
       <c r="P14">
-        <v>8.007705532395699</v>
+        <v>8.014944481579327</v>
       </c>
       <c r="Q14">
-        <v>6.878064769281728</v>
+        <v>6.775675228856805</v>
       </c>
       <c r="R14">
-        <v>6.588017062527923</v>
+        <v>6.54097812237966</v>
       </c>
       <c r="S14">
-        <v>7.491682036938526</v>
+        <v>7.150853123139703</v>
       </c>
       <c r="T14">
-        <v>7.163862726823047</v>
+        <v>7.046107316124981</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.94525990363451</v>
+        <v>1.910012354610925</v>
       </c>
       <c r="C15">
-        <v>2.051173905071518</v>
+        <v>2.05182007835541</v>
       </c>
       <c r="D15">
-        <v>1.754833426633112</v>
+        <v>1.747889072579545</v>
       </c>
       <c r="E15">
-        <v>1.705449844085116</v>
+        <v>1.718338695178935</v>
       </c>
       <c r="F15">
-        <v>2.190705786692808</v>
+        <v>2.174522245688012</v>
       </c>
       <c r="G15">
-        <v>2.190691632538476</v>
+        <v>2.149124455513349</v>
       </c>
       <c r="H15">
-        <v>2.095270976073171</v>
+        <v>2.098552734459675</v>
       </c>
       <c r="I15">
-        <v>1.622013252735482</v>
+        <v>1.621440850293841</v>
       </c>
       <c r="J15">
-        <v>1.756587157920496</v>
+        <v>1.741976826739801</v>
       </c>
       <c r="K15">
-        <v>2.049986439560867</v>
+        <v>2.042351894389307</v>
       </c>
       <c r="L15">
-        <v>1.827050561883524</v>
+        <v>1.806075412285608</v>
       </c>
       <c r="M15">
-        <v>2.87587235352675</v>
+        <v>2.85775459423745</v>
       </c>
       <c r="N15">
-        <v>1.37934506506958</v>
+        <v>1.375445306627356</v>
       </c>
       <c r="O15">
-        <v>2.446032868286752</v>
+        <v>2.429995552738294</v>
       </c>
       <c r="P15">
-        <v>2.431587489190556</v>
+        <v>2.433785639234734</v>
       </c>
       <c r="Q15">
-        <v>1.798936112314317</v>
+        <v>1.772156451468975</v>
       </c>
       <c r="R15">
-        <v>1.415874944155105</v>
+        <v>1.405765489956153</v>
       </c>
       <c r="S15">
-        <v>1.684218879874988</v>
+        <v>1.607596502070251</v>
       </c>
       <c r="T15">
-        <v>2.742244919424123</v>
+        <v>2.697169491678641</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.955244128973952</v>
+        <v>1.919815668663676</v>
       </c>
       <c r="C16">
-        <v>1.827351343333395</v>
+        <v>1.827927006672045</v>
       </c>
       <c r="D16">
-        <v>2.205167248809532</v>
+        <v>2.19644080110763</v>
       </c>
       <c r="E16">
-        <v>2.327193937729738</v>
+        <v>2.344781588421352</v>
       </c>
       <c r="F16">
-        <v>2.269956125229498</v>
+        <v>2.253187133128922</v>
       </c>
       <c r="G16">
-        <v>1.832243914723561</v>
+        <v>1.797478087335854</v>
       </c>
       <c r="H16">
-        <v>2.036025958430321</v>
+        <v>2.039214923170691</v>
       </c>
       <c r="I16">
-        <v>1.678344662942842</v>
+        <v>1.67775238135614</v>
       </c>
       <c r="J16">
-        <v>1.56132367474094</v>
+        <v>1.548337438410243</v>
       </c>
       <c r="K16">
-        <v>1.693252632516193</v>
+        <v>1.686946632895739</v>
       </c>
       <c r="L16">
-        <v>1.71269746839437</v>
+        <v>1.693035130435584</v>
       </c>
       <c r="M16">
-        <v>2.142450570088566</v>
+        <v>2.128953307711644</v>
       </c>
       <c r="N16">
-        <v>1.695231627658331</v>
+        <v>1.690438777762461</v>
       </c>
       <c r="O16">
-        <v>1.973598142538225</v>
+        <v>1.960658326157136</v>
       </c>
       <c r="P16">
-        <v>1.683965067140923</v>
+        <v>1.685487368067039</v>
       </c>
       <c r="Q16">
-        <v>1.653582673834943</v>
+        <v>1.628966800663069</v>
       </c>
       <c r="R16">
-        <v>1.864831180117381</v>
+        <v>1.851516144434323</v>
       </c>
       <c r="S16">
-        <v>1.511431845762543</v>
+        <v>1.442670295054405</v>
       </c>
       <c r="T16">
-        <v>1.472411007263545</v>
+        <v>1.448208371131576</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.65670335152752</v>
+        <v>22.2461704142045</v>
       </c>
       <c r="C17">
-        <v>21.65563221445538</v>
+        <v>21.66245430347873</v>
       </c>
       <c r="D17">
-        <v>19.61725921748945</v>
+        <v>19.53962837714912</v>
       </c>
       <c r="E17">
-        <v>24.89211672917824</v>
+        <v>25.08023764463351</v>
       </c>
       <c r="F17">
-        <v>21.92404008232879</v>
+        <v>21.7620792184746</v>
       </c>
       <c r="G17">
-        <v>18.81130422666622</v>
+        <v>18.45437000495776</v>
       </c>
       <c r="H17">
-        <v>21.93400751774567</v>
+        <v>21.96836207805934</v>
       </c>
       <c r="I17">
-        <v>20.54853867931747</v>
+        <v>20.54128717647535</v>
       </c>
       <c r="J17">
-        <v>19.65730816410404</v>
+        <v>19.49380942673509</v>
       </c>
       <c r="K17">
-        <v>23.95788081550945</v>
+        <v>23.86865704320975</v>
       </c>
       <c r="L17">
-        <v>22.61332423748014</v>
+        <v>22.35371573584221</v>
       </c>
       <c r="M17">
-        <v>20.79349867099065</v>
+        <v>20.66250133961001</v>
       </c>
       <c r="N17">
-        <v>22.69262894886316</v>
+        <v>22.62847112964833</v>
       </c>
       <c r="O17">
-        <v>22.95252295007433</v>
+        <v>22.80203566187963</v>
       </c>
       <c r="P17">
-        <v>19.63335516976945</v>
+        <v>19.65110368209962</v>
       </c>
       <c r="Q17">
-        <v>18.91317962646826</v>
+        <v>18.63163069738915</v>
       </c>
       <c r="R17">
-        <v>18.45043849717563</v>
+        <v>18.31870097070285</v>
       </c>
       <c r="S17">
-        <v>29.02549351456263</v>
+        <v>27.7049986806567</v>
       </c>
       <c r="T17">
-        <v>27.00852543281873</v>
+        <v>26.56457499351416</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>17.51815537682832</v>
+        <v>17.20073144838881</v>
       </c>
       <c r="C18">
-        <v>15.4429573936386</v>
+        <v>15.44782232803904</v>
       </c>
       <c r="D18">
-        <v>15.01439069444714</v>
+        <v>14.95497465911388</v>
       </c>
       <c r="E18">
-        <v>16.20094563053477</v>
+        <v>16.32338345920222</v>
       </c>
       <c r="F18">
-        <v>19.70664795714914</v>
+        <v>19.56106777599526</v>
       </c>
       <c r="G18">
-        <v>14.83317464413105</v>
+        <v>14.55172325813074</v>
       </c>
       <c r="H18">
-        <v>14.55257898156754</v>
+        <v>14.57537223774461</v>
       </c>
       <c r="I18">
-        <v>16.81658275307981</v>
+        <v>16.81064824359805</v>
       </c>
       <c r="J18">
-        <v>14.64397704777113</v>
+        <v>14.52217645649064</v>
       </c>
       <c r="K18">
-        <v>17.86545920764051</v>
+        <v>17.79892478931499</v>
       </c>
       <c r="L18">
-        <v>16.75532713010395</v>
+        <v>16.56297038834326</v>
       </c>
       <c r="M18">
-        <v>16.20383104647941</v>
+        <v>16.10174824363714</v>
       </c>
       <c r="N18">
-        <v>14.6182218003976</v>
+        <v>14.57689237868866</v>
       </c>
       <c r="O18">
-        <v>17.30987550510598</v>
+        <v>17.19638400661505</v>
       </c>
       <c r="P18">
-        <v>16.12832059994453</v>
+        <v>16.14290056829725</v>
       </c>
       <c r="Q18">
-        <v>12.40898787678039</v>
+        <v>12.2242628693166</v>
       </c>
       <c r="R18">
-        <v>16.22394812697752</v>
+        <v>16.10810791016111</v>
       </c>
       <c r="S18">
-        <v>19.59404966835124</v>
+        <v>18.70263187559699</v>
       </c>
       <c r="T18">
-        <v>13.83312163703106</v>
+        <v>13.60574082562804</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>13.77739894965092</v>
+        <v>13.52775644995822</v>
       </c>
       <c r="C19">
-        <v>15.19275574426706</v>
+        <v>15.19754185862156</v>
       </c>
       <c r="D19">
-        <v>17.51080644781642</v>
+        <v>17.44151141508478</v>
       </c>
       <c r="E19">
-        <v>15.65867881117761</v>
+        <v>15.77701848573513</v>
       </c>
       <c r="F19">
-        <v>14.00143225943125</v>
+        <v>13.89799858318282</v>
       </c>
       <c r="G19">
-        <v>14.75156377980712</v>
+        <v>14.47166091537605</v>
       </c>
       <c r="H19">
-        <v>14.93892325154838</v>
+        <v>14.96232162685446</v>
       </c>
       <c r="I19">
-        <v>13.86995295738006</v>
+        <v>13.86505830258927</v>
       </c>
       <c r="J19">
-        <v>14.78042622878817</v>
+        <v>14.65749072785347</v>
       </c>
       <c r="K19">
-        <v>16.28892593134631</v>
+        <v>16.22826282723051</v>
       </c>
       <c r="L19">
-        <v>12.46448719031775</v>
+        <v>12.3213907216526</v>
       </c>
       <c r="M19">
-        <v>16.59036414856169</v>
+        <v>16.48584621896831</v>
       </c>
       <c r="N19">
-        <v>15.84395619288662</v>
+        <v>15.79916130907824</v>
       </c>
       <c r="O19">
-        <v>11.89223651475599</v>
+        <v>11.81426554713869</v>
       </c>
       <c r="P19">
-        <v>20.02047357600875</v>
+        <v>20.0385720425748</v>
       </c>
       <c r="Q19">
-        <v>12.77911467373302</v>
+        <v>12.58887981518319</v>
       </c>
       <c r="R19">
-        <v>20.58880042105521</v>
+        <v>20.44179482869887</v>
       </c>
       <c r="S19">
-        <v>13.81477808001131</v>
+        <v>13.18628426725118</v>
       </c>
       <c r="T19">
-        <v>12.5483794538023</v>
+        <v>12.34211648750549</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5932293889184797</v>
+        <v>0.5824802433009365</v>
       </c>
       <c r="C20">
-        <v>0.797767559338026</v>
+        <v>0.7980188769285655</v>
       </c>
       <c r="D20">
-        <v>1.459505811365243</v>
+        <v>1.453730149160766</v>
       </c>
       <c r="E20">
-        <v>1.122616499310397</v>
+        <v>1.131100616826522</v>
       </c>
       <c r="F20">
-        <v>0.6671584621711207</v>
+        <v>0.6622299197831709</v>
       </c>
       <c r="G20">
-        <v>1.458594173162032</v>
+        <v>1.430918145507975</v>
       </c>
       <c r="H20">
-        <v>0.5332051587856456</v>
+        <v>0.5340403016008489</v>
       </c>
       <c r="I20">
-        <v>0.6436692019282273</v>
+        <v>0.6434420534618563</v>
       </c>
       <c r="J20">
-        <v>1.705614762712981</v>
+        <v>1.691428392035298</v>
       </c>
       <c r="K20">
-        <v>1.343916531147561</v>
+        <v>1.338911526594433</v>
       </c>
       <c r="L20">
-        <v>1.307263773296461</v>
+        <v>1.292255949330954</v>
       </c>
       <c r="M20">
-        <v>1.029929013454296</v>
+        <v>1.02344054538027</v>
       </c>
       <c r="N20">
-        <v>1.246215815499758</v>
+        <v>1.242692447221289</v>
       </c>
       <c r="O20">
-        <v>0.7157095493765039</v>
+        <v>0.711017028669521</v>
       </c>
       <c r="P20">
-        <v>1.500890320856924</v>
+        <v>1.502247122592318</v>
       </c>
       <c r="Q20">
-        <v>0.9065858791754785</v>
+        <v>0.8930900900780757</v>
       </c>
       <c r="R20">
-        <v>0.6834111591870206</v>
+        <v>0.6785315518167693</v>
       </c>
       <c r="S20">
-        <v>0.6866011092362937</v>
+        <v>0.6553646647208637</v>
       </c>
       <c r="T20">
-        <v>0.5174047017781366</v>
+        <v>0.5088999040903096</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>35.67696521293747</v>
+        <v>35.03050888182912</v>
       </c>
       <c r="C21">
-        <v>31.12332657597801</v>
+        <v>31.13313123568507</v>
       </c>
       <c r="D21">
-        <v>31.20519691711602</v>
+        <v>31.08170944963627</v>
       </c>
       <c r="E21">
-        <v>33.06916920977469</v>
+        <v>33.31908778651813</v>
       </c>
       <c r="F21">
-        <v>32.0292669226807</v>
+        <v>31.7926550701237</v>
       </c>
       <c r="G21">
-        <v>27.35964221134156</v>
+        <v>26.84050794604783</v>
       </c>
       <c r="H21">
-        <v>33.60026937217777</v>
+        <v>33.65289643906321</v>
       </c>
       <c r="I21">
-        <v>34.37624307904202</v>
+        <v>34.36411183076789</v>
       </c>
       <c r="J21">
-        <v>27.87170569946887</v>
+        <v>27.63988409642233</v>
       </c>
       <c r="K21">
-        <v>33.70970083112699</v>
+        <v>33.58415939887725</v>
       </c>
       <c r="L21">
-        <v>34.91147965545004</v>
+        <v>34.51068422934932</v>
       </c>
       <c r="M21">
-        <v>32.8041063002227</v>
+        <v>32.59744312863959</v>
       </c>
       <c r="N21">
-        <v>27.19066454083764</v>
+        <v>27.11378963384148</v>
       </c>
       <c r="O21">
-        <v>32.54651812762132</v>
+        <v>32.33312819816305</v>
       </c>
       <c r="P21">
-        <v>36.84802679722299</v>
+        <v>36.88133733698035</v>
       </c>
       <c r="Q21">
-        <v>26.05647695874844</v>
+        <v>25.66859013441755</v>
       </c>
       <c r="R21">
-        <v>31.78859570744007</v>
+        <v>31.56162272957928</v>
       </c>
       <c r="S21">
-        <v>23.52904701890149</v>
+        <v>22.45860923221577</v>
       </c>
       <c r="T21">
-        <v>27.28038214053266</v>
+        <v>26.83196307871416</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>78.21059717773635</v>
+        <v>76.79344368938477</v>
       </c>
       <c r="C22">
-        <v>66.54004950586837</v>
+        <v>66.56101135712498</v>
       </c>
       <c r="D22">
-        <v>73.49741673890149</v>
+        <v>73.20656743314331</v>
       </c>
       <c r="E22">
-        <v>82.06856458454249</v>
+        <v>82.68879361800377</v>
       </c>
       <c r="F22">
-        <v>79.37649213681036</v>
+        <v>78.790109098469</v>
       </c>
       <c r="G22">
-        <v>81.31562502064203</v>
+        <v>79.77270545590838</v>
       </c>
       <c r="H22">
-        <v>72.30896125153194</v>
+        <v>72.42221655011451</v>
       </c>
       <c r="I22">
-        <v>83.39533919963274</v>
+        <v>83.36590929472982</v>
       </c>
       <c r="J22">
-        <v>68.33908235006227</v>
+        <v>67.77067524244049</v>
       </c>
       <c r="K22">
-        <v>78.05072668602313</v>
+        <v>77.76005071516882</v>
       </c>
       <c r="L22">
-        <v>76.7586476932801</v>
+        <v>75.8774328260569</v>
       </c>
       <c r="M22">
-        <v>87.42833658316314</v>
+        <v>86.87754525359142</v>
       </c>
       <c r="N22">
-        <v>66.61582834243806</v>
+        <v>66.4274884951127</v>
       </c>
       <c r="O22">
-        <v>83.12858478373036</v>
+        <v>82.58355558050168</v>
       </c>
       <c r="P22">
-        <v>65.28268023217869</v>
+        <v>65.34169563963341</v>
       </c>
       <c r="Q22">
-        <v>61.32941085942875</v>
+        <v>60.41643745730653</v>
       </c>
       <c r="R22">
-        <v>70.99993451612312</v>
+        <v>70.49298961319764</v>
       </c>
       <c r="S22">
-        <v>61.78864339861025</v>
+        <v>58.97761162886672</v>
       </c>
       <c r="T22">
-        <v>67.47045006899066</v>
+        <v>66.36141003558669</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>13.12093613358264</v>
+        <v>12.88318855098986</v>
       </c>
       <c r="C23">
-        <v>12.20392517877119</v>
+        <v>12.20776973353548</v>
       </c>
       <c r="D23">
-        <v>12.84593544201069</v>
+        <v>12.79510057500582</v>
       </c>
       <c r="E23">
-        <v>19.20949161762472</v>
+        <v>19.35466638069748</v>
       </c>
       <c r="F23">
-        <v>26.12026464015418</v>
+        <v>25.92730473817748</v>
       </c>
       <c r="G23">
-        <v>12.39364988605588</v>
+        <v>12.15848714970846</v>
       </c>
       <c r="H23">
-        <v>10.51640785003989</v>
+        <v>10.53287937570501</v>
       </c>
       <c r="I23">
-        <v>8.843202999464385</v>
+        <v>8.840082266030008</v>
       </c>
       <c r="J23">
-        <v>12.35021926343298</v>
+        <v>12.247496894788</v>
       </c>
       <c r="K23">
-        <v>11.28561099245016</v>
+        <v>11.24358119886335</v>
       </c>
       <c r="L23">
-        <v>8.164984137388435</v>
+        <v>8.071247397246021</v>
       </c>
       <c r="M23">
-        <v>11.00215267700455</v>
+        <v>10.9328400200566</v>
       </c>
       <c r="N23">
-        <v>24.33035504268364</v>
+        <v>24.2615669563064</v>
       </c>
       <c r="O23">
-        <v>8.461480298951221</v>
+        <v>8.406002945674118</v>
       </c>
       <c r="P23">
-        <v>9.811838604806734</v>
+        <v>9.820708486543872</v>
       </c>
       <c r="Q23">
-        <v>12.04785201416669</v>
+        <v>11.86850301525245</v>
       </c>
       <c r="R23">
-        <v>8.358068592831048</v>
+        <v>8.298391350868592</v>
       </c>
       <c r="S23">
-        <v>26.36275437834559</v>
+        <v>25.16339902727566</v>
       </c>
       <c r="T23">
-        <v>28.57038606649138</v>
+        <v>28.10076267009864</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2379573705900213</v>
+        <v>0.233645651590558</v>
       </c>
       <c r="C24">
-        <v>0.2909693302595606</v>
+        <v>0.2910609931883746</v>
       </c>
       <c r="D24">
-        <v>0.2969592595511171</v>
+        <v>0.295784110840983</v>
       </c>
       <c r="E24">
-        <v>0.1258390176218144</v>
+        <v>0.1267900396442709</v>
       </c>
       <c r="F24">
-        <v>0.1940824617225079</v>
+        <v>0.1926487039369225</v>
       </c>
       <c r="G24">
-        <v>0.3648485699187529</v>
+        <v>0.3579257676092356</v>
       </c>
       <c r="H24">
-        <v>0.3546356689888879</v>
+        <v>0.3551911239129277</v>
       </c>
       <c r="I24">
-        <v>0.1391717193358329</v>
+        <v>0.1391226061539149</v>
       </c>
       <c r="J24">
-        <v>0.1999686273525564</v>
+        <v>0.198305397686897</v>
       </c>
       <c r="K24">
-        <v>0.1446662443314806</v>
+        <v>0.1441274793153641</v>
       </c>
       <c r="L24">
-        <v>0.2122462720063838</v>
+        <v>0.209809614039817</v>
       </c>
       <c r="M24">
-        <v>0.1494925031557558</v>
+        <v>0.1485507126814987</v>
       </c>
       <c r="N24">
-        <v>0.1591249018526872</v>
+        <v>0.1586750153847663</v>
       </c>
       <c r="O24">
-        <v>0.3761211436978611</v>
+        <v>0.3736551206349107</v>
       </c>
       <c r="P24">
-        <v>0.2564659441335313</v>
+        <v>0.2566977888148077</v>
       </c>
       <c r="Q24">
-        <v>0.3131842128060743</v>
+        <v>0.3085220311178807</v>
       </c>
       <c r="R24">
-        <v>0.2593969363337597</v>
+        <v>0.2575448225873869</v>
       </c>
       <c r="S24">
-        <v>0.3064696341889153</v>
+        <v>0.2925270092860014</v>
       </c>
       <c r="T24">
-        <v>0.3437671916898806</v>
+        <v>0.338116546446443</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.428662813819134</v>
+        <v>2.384656143331604</v>
       </c>
       <c r="C25">
-        <v>2.336547671287625</v>
+        <v>2.337283744751701</v>
       </c>
       <c r="D25">
-        <v>3.019357746150232</v>
+        <v>3.007409324787028</v>
       </c>
       <c r="E25">
-        <v>2.010112728853719</v>
+        <v>2.025304054317695</v>
       </c>
       <c r="F25">
-        <v>2.528732740859509</v>
+        <v>2.510052071711485</v>
       </c>
       <c r="G25">
-        <v>1.563408126362375</v>
+        <v>1.533743311202733</v>
       </c>
       <c r="H25">
-        <v>2.58508541771194</v>
+        <v>2.58913435737</v>
       </c>
       <c r="I25">
-        <v>1.952546086158085</v>
+        <v>1.951857039909389</v>
       </c>
       <c r="J25">
-        <v>2.577634816109227</v>
+        <v>2.556195459595413</v>
       </c>
       <c r="K25">
-        <v>3.366778049896275</v>
+        <v>3.354239518612109</v>
       </c>
       <c r="L25">
-        <v>3.25906316444088</v>
+        <v>3.221648032725679</v>
       </c>
       <c r="M25">
-        <v>2.443087427263678</v>
+        <v>2.427696177413664</v>
       </c>
       <c r="N25">
-        <v>1.869323723249637</v>
+        <v>1.864038670831933</v>
       </c>
       <c r="O25">
-        <v>2.432748236279764</v>
+        <v>2.416798020883639</v>
       </c>
       <c r="P25">
-        <v>3.063880886048067</v>
+        <v>3.066650628010863</v>
       </c>
       <c r="Q25">
-        <v>2.07091187606696</v>
+        <v>2.040083478492398</v>
       </c>
       <c r="R25">
-        <v>2.912395730696026</v>
+        <v>2.891601004883385</v>
       </c>
       <c r="S25">
-        <v>0.8957643610566215</v>
+        <v>0.8550121784768885</v>
       </c>
       <c r="T25">
-        <v>2.951837671500352</v>
+        <v>2.903317079945733</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.16458109228534</v>
+        <v>26.67236670902143</v>
       </c>
       <c r="C26">
-        <v>26.49259764687461</v>
+        <v>26.50094350617888</v>
       </c>
       <c r="D26">
-        <v>28.28210618367741</v>
+        <v>28.17018618275923</v>
       </c>
       <c r="E26">
-        <v>29.6715157339857</v>
+        <v>29.89575671612282</v>
       </c>
       <c r="F26">
-        <v>27.17558802577032</v>
+        <v>26.97483206583449</v>
       </c>
       <c r="G26">
-        <v>25.22095750214677</v>
+        <v>24.74240361091737</v>
       </c>
       <c r="H26">
-        <v>28.22733037777906</v>
+        <v>28.27154197582711</v>
       </c>
       <c r="I26">
-        <v>26.22641346698294</v>
+        <v>26.21715826325471</v>
       </c>
       <c r="J26">
-        <v>25.92063924906431</v>
+        <v>25.70504554957919</v>
       </c>
       <c r="K26">
-        <v>28.26498945356036</v>
+        <v>28.15972517737173</v>
       </c>
       <c r="L26">
-        <v>30.21520602056593</v>
+        <v>29.86832538155402</v>
       </c>
       <c r="M26">
-        <v>26.0422547900781</v>
+        <v>25.87819072685269</v>
       </c>
       <c r="N26">
-        <v>26.46830050618955</v>
+        <v>26.3934679055849</v>
       </c>
       <c r="O26">
-        <v>24.47859505187713</v>
+        <v>24.31810213368308</v>
       </c>
       <c r="P26">
-        <v>24.29087349483594</v>
+        <v>24.31283239406665</v>
       </c>
       <c r="Q26">
-        <v>23.85444729023874</v>
+        <v>23.49934073380643</v>
       </c>
       <c r="R26">
-        <v>29.04913126763321</v>
+        <v>28.84171827308749</v>
       </c>
       <c r="S26">
-        <v>34.200010483509</v>
+        <v>32.64410456444705</v>
       </c>
       <c r="T26">
-        <v>27.70395243029341</v>
+        <v>27.24857096629995</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>7.880881867932455</v>
+        <v>7.738082558971207</v>
       </c>
       <c r="C27">
-        <v>8.546824393228633</v>
+        <v>8.549516865851928</v>
       </c>
       <c r="D27">
-        <v>7.992609521489821</v>
+        <v>7.960980587662393</v>
       </c>
       <c r="E27">
-        <v>7.225808853968393</v>
+        <v>7.280417539573659</v>
       </c>
       <c r="F27">
-        <v>8.326137607895587</v>
+        <v>8.264629398893973</v>
       </c>
       <c r="G27">
-        <v>6.853712390184293</v>
+        <v>6.72366694153665</v>
       </c>
       <c r="H27">
-        <v>7.647613897136841</v>
+        <v>7.659592119204664</v>
       </c>
       <c r="I27">
-        <v>6.734917132144773</v>
+        <v>6.732540404948381</v>
       </c>
       <c r="J27">
-        <v>8.248901925966827</v>
+        <v>8.180292071641057</v>
       </c>
       <c r="K27">
-        <v>8.466263162580967</v>
+        <v>8.434733164478693</v>
       </c>
       <c r="L27">
-        <v>7.734427414175487</v>
+        <v>7.645633608765249</v>
       </c>
       <c r="M27">
-        <v>7.007977288820928</v>
+        <v>6.963827608301196</v>
       </c>
       <c r="N27">
-        <v>7.749067621410314</v>
+        <v>7.727159041286862</v>
       </c>
       <c r="O27">
-        <v>6.742781033047087</v>
+        <v>6.698572261978167</v>
       </c>
       <c r="P27">
-        <v>8.296431343715838</v>
+        <v>8.303931300433733</v>
       </c>
       <c r="Q27">
-        <v>7.891792615996127</v>
+        <v>7.774312329580472</v>
       </c>
       <c r="R27">
-        <v>8.107817061303926</v>
+        <v>8.049926634205761</v>
       </c>
       <c r="S27">
-        <v>8.251035581590587</v>
+        <v>7.875660401340923</v>
       </c>
       <c r="T27">
-        <v>8.078529004712193</v>
+        <v>7.94573884149141</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6772632855254452</v>
+        <v>0.6649914699115881</v>
       </c>
       <c r="C28">
-        <v>0.509995694246153</v>
+        <v>0.5101563561928105</v>
       </c>
       <c r="D28">
-        <v>0.3010383702592368</v>
+        <v>0.2998470793964911</v>
       </c>
       <c r="E28">
-        <v>0.716123356860983</v>
+        <v>0.7215354229756205</v>
       </c>
       <c r="F28">
-        <v>0.1956998155701954</v>
+        <v>0.1942541098030635</v>
       </c>
       <c r="G28">
-        <v>0.3016401553933549</v>
+        <v>0.2959166982207935</v>
       </c>
       <c r="H28">
-        <v>0.7109402117141941</v>
+        <v>0.7120537354677986</v>
       </c>
       <c r="I28">
-        <v>0.3545565230698601</v>
+        <v>0.3544314013921164</v>
       </c>
       <c r="J28">
-        <v>0.6218632215316754</v>
+        <v>0.6166909033949385</v>
       </c>
       <c r="K28">
-        <v>0.7471682732802036</v>
+        <v>0.7443856744185565</v>
       </c>
       <c r="L28">
-        <v>0.5596371090454037</v>
+        <v>0.553212288447844</v>
       </c>
       <c r="M28">
-        <v>0.4608663909442637</v>
+        <v>0.4579629705871618</v>
       </c>
       <c r="N28">
-        <v>0.5766308324562722</v>
+        <v>0.5750005508002424</v>
       </c>
       <c r="O28">
-        <v>0.1627367420856088</v>
+        <v>0.1616697652195199</v>
       </c>
       <c r="P28">
-        <v>0.4806720210804548</v>
+        <v>0.481106547590017</v>
       </c>
       <c r="Q28">
-        <v>0.7125315463602313</v>
+        <v>0.7019245253423554</v>
       </c>
       <c r="R28">
-        <v>0.6676145508846444</v>
+        <v>0.6628477324925375</v>
       </c>
       <c r="S28">
-        <v>0.2355360096585431</v>
+        <v>0.2248204611426539</v>
       </c>
       <c r="T28">
-        <v>0.2122236234412017</v>
+        <v>0.2087352148980592</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.85285294397286</v>
+        <v>10.65620237534</v>
       </c>
       <c r="C29">
-        <v>11.04084722402487</v>
+        <v>11.04432537889514</v>
       </c>
       <c r="D29">
-        <v>10.30464947085209</v>
+        <v>10.26387116492433</v>
       </c>
       <c r="E29">
-        <v>13.39771593535409</v>
+        <v>13.49896849712655</v>
       </c>
       <c r="F29">
-        <v>15.33979256839272</v>
+        <v>15.22647193741451</v>
       </c>
       <c r="G29">
-        <v>10.69422365248695</v>
+        <v>10.49130660058123</v>
       </c>
       <c r="H29">
-        <v>9.400765757244262</v>
+        <v>9.415489887065986</v>
       </c>
       <c r="I29">
-        <v>9.844742336827611</v>
+        <v>9.841268163887644</v>
       </c>
       <c r="J29">
-        <v>11.93146143203587</v>
+        <v>11.83222206198485</v>
       </c>
       <c r="K29">
-        <v>11.86181006788407</v>
+        <v>11.81763439772738</v>
       </c>
       <c r="L29">
-        <v>9.247873280278149</v>
+        <v>9.141704611734884</v>
       </c>
       <c r="M29">
-        <v>11.66867450046695</v>
+        <v>11.59516281085201</v>
       </c>
       <c r="N29">
-        <v>9.953971583220568</v>
+        <v>9.925829180207462</v>
       </c>
       <c r="O29">
-        <v>11.79509264320489</v>
+        <v>11.71775859545153</v>
       </c>
       <c r="P29">
-        <v>10.16105166710176</v>
+        <v>10.17023723672252</v>
       </c>
       <c r="Q29">
-        <v>10.08558059469514</v>
+        <v>9.93544272937271</v>
       </c>
       <c r="R29">
-        <v>8.712245178979062</v>
+        <v>8.650039089401368</v>
       </c>
       <c r="S29">
-        <v>13.35370952056389</v>
+        <v>12.74619170431942</v>
       </c>
       <c r="T29">
-        <v>12.47208418421806</v>
+        <v>12.26707531520743</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>21.41533133432364</v>
+        <v>21.02729170031249</v>
       </c>
       <c r="C30">
-        <v>25.1656496022843</v>
+        <v>25.17357743834178</v>
       </c>
       <c r="D30">
-        <v>25.35167305096419</v>
+        <v>25.25134957248227</v>
       </c>
       <c r="E30">
-        <v>25.04693183638402</v>
+        <v>25.23622275919586</v>
       </c>
       <c r="F30">
-        <v>26.05476180932284</v>
+        <v>25.86228580059877</v>
       </c>
       <c r="G30">
-        <v>22.72142475559812</v>
+        <v>22.29029813282253</v>
       </c>
       <c r="H30">
-        <v>22.15513328782109</v>
+        <v>22.18983419061681</v>
       </c>
       <c r="I30">
-        <v>20.18735493151734</v>
+        <v>20.1802308890759</v>
       </c>
       <c r="J30">
-        <v>28.78764043181312</v>
+        <v>28.54820058465094</v>
       </c>
       <c r="K30">
-        <v>27.20793950918374</v>
+        <v>27.1066118910106</v>
       </c>
       <c r="L30">
-        <v>20.6008830543339</v>
+        <v>20.36437804843611</v>
       </c>
       <c r="M30">
-        <v>21.22793544811732</v>
+        <v>21.09420120077282</v>
       </c>
       <c r="N30">
-        <v>29.20020723700697</v>
+        <v>29.11765084298276</v>
       </c>
       <c r="O30">
-        <v>21.70044638341567</v>
+        <v>21.55816828457843</v>
       </c>
       <c r="P30">
-        <v>29.33792971618072</v>
+        <v>29.36445114376183</v>
       </c>
       <c r="Q30">
-        <v>24.94834430147527</v>
+        <v>24.57695356976841</v>
       </c>
       <c r="R30">
-        <v>27.23667831504477</v>
+        <v>27.04220637167562</v>
       </c>
       <c r="S30">
-        <v>26.9184011038335</v>
+        <v>25.69376698773188</v>
       </c>
       <c r="T30">
-        <v>23.4007238343183</v>
+        <v>23.01607634024716</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.92440655890553</v>
+        <v>10.72645945938471</v>
       </c>
       <c r="C31">
-        <v>10.44931616800268</v>
+        <v>10.45260797516053</v>
       </c>
       <c r="D31">
-        <v>12.23977959078409</v>
+        <v>12.19134344765733</v>
       </c>
       <c r="E31">
-        <v>10.37509584760906</v>
+        <v>10.45350511067107</v>
       </c>
       <c r="F31">
-        <v>11.88431607280823</v>
+        <v>11.79652230440422</v>
       </c>
       <c r="G31">
-        <v>10.5662066104102</v>
+        <v>10.36571861194641</v>
       </c>
       <c r="H31">
-        <v>10.6908051554956</v>
+        <v>10.70754983428807</v>
       </c>
       <c r="I31">
-        <v>8.601309296809244</v>
+        <v>8.598273926762488</v>
       </c>
       <c r="J31">
-        <v>10.35602232477592</v>
+        <v>10.26988659550259</v>
       </c>
       <c r="K31">
-        <v>11.04066473784345</v>
+        <v>10.99954717138619</v>
       </c>
       <c r="L31">
-        <v>9.874216360525558</v>
+        <v>9.760857064595239</v>
       </c>
       <c r="M31">
-        <v>11.06822671154853</v>
+        <v>10.99849779361748</v>
       </c>
       <c r="N31">
-        <v>12.09585578192085</v>
+        <v>12.06165772887667</v>
       </c>
       <c r="O31">
-        <v>11.43557728951576</v>
+        <v>11.36060038963493</v>
       </c>
       <c r="P31">
-        <v>12.16600241274943</v>
+        <v>12.17700045368357</v>
       </c>
       <c r="Q31">
-        <v>10.85730245878666</v>
+        <v>10.69567644241438</v>
       </c>
       <c r="R31">
-        <v>10.2237311733854</v>
+        <v>10.15073295947787</v>
       </c>
       <c r="S31">
-        <v>12.68893414195233</v>
+        <v>12.11165982364266</v>
       </c>
       <c r="T31">
-        <v>12.42209762828357</v>
+        <v>12.21791040921904</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>9.212111913191315</v>
+        <v>9.045191099337965</v>
       </c>
       <c r="C32">
-        <v>12.95692822576159</v>
+        <v>12.96100999612737</v>
       </c>
       <c r="D32">
-        <v>14.47105314812559</v>
+        <v>14.41378724752021</v>
       </c>
       <c r="E32">
-        <v>10.28154447266653</v>
+        <v>10.35924672593553</v>
       </c>
       <c r="F32">
-        <v>11.1079862259182</v>
+        <v>11.02592748865653</v>
       </c>
       <c r="G32">
-        <v>12.39605020559482</v>
+        <v>12.16084192449537</v>
       </c>
       <c r="H32">
-        <v>12.09349353095518</v>
+        <v>12.11243519734132</v>
       </c>
       <c r="I32">
-        <v>10.61929922717882</v>
+        <v>10.61555171599426</v>
       </c>
       <c r="J32">
-        <v>16.6734625677257</v>
+        <v>16.53478182595609</v>
       </c>
       <c r="K32">
-        <v>12.72323179549425</v>
+        <v>12.67584802455977</v>
       </c>
       <c r="L32">
-        <v>9.456654307027286</v>
+        <v>9.348088762688334</v>
       </c>
       <c r="M32">
-        <v>9.915234808756068</v>
+        <v>9.852769644980066</v>
       </c>
       <c r="N32">
-        <v>16.58601390350658</v>
+        <v>16.53912103428839</v>
       </c>
       <c r="O32">
-        <v>14.44288586009778</v>
+        <v>14.34819166323239</v>
       </c>
       <c r="P32">
-        <v>19.26478618716246</v>
+        <v>19.28220151389721</v>
       </c>
       <c r="Q32">
-        <v>15.06356124034958</v>
+        <v>14.83931922398323</v>
       </c>
       <c r="R32">
-        <v>16.99049932986126</v>
+        <v>16.86918587947384</v>
       </c>
       <c r="S32">
-        <v>10.73280303471091</v>
+        <v>10.24452155368958</v>
       </c>
       <c r="T32">
-        <v>15.14592644815287</v>
+        <v>14.89696651448091</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.491064222190643</v>
+        <v>2.445926856161296</v>
       </c>
       <c r="C33">
-        <v>3.025601414924278</v>
+        <v>3.026554558291203</v>
       </c>
       <c r="D33">
-        <v>2.546180904008342</v>
+        <v>2.536104972348099</v>
       </c>
       <c r="E33">
-        <v>4.722274713913349</v>
+        <v>4.757963066650797</v>
       </c>
       <c r="F33">
-        <v>4.037723880752008</v>
+        <v>4.007895744821058</v>
       </c>
       <c r="G33">
-        <v>2.460327527412643</v>
+        <v>2.413644156575438</v>
       </c>
       <c r="H33">
-        <v>2.870462826639469</v>
+        <v>2.874958744142285</v>
       </c>
       <c r="I33">
-        <v>2.147220812609994</v>
+        <v>2.146463066374686</v>
       </c>
       <c r="J33">
-        <v>4.972553200166903</v>
+        <v>4.931194222480839</v>
       </c>
       <c r="K33">
-        <v>2.850582587168038</v>
+        <v>2.839966467418651</v>
       </c>
       <c r="L33">
-        <v>1.989917088974137</v>
+        <v>1.967072177344733</v>
       </c>
       <c r="M33">
-        <v>2.965898225592923</v>
+        <v>2.947213310714154</v>
       </c>
       <c r="N33">
-        <v>5.764732830484973</v>
+        <v>5.748434468246138</v>
       </c>
       <c r="O33">
-        <v>1.707905502398455</v>
+        <v>1.696707689064043</v>
       </c>
       <c r="P33">
-        <v>4.331693666481751</v>
+        <v>4.335609508567083</v>
       </c>
       <c r="Q33">
-        <v>3.967249777053023</v>
+        <v>3.908191757821001</v>
       </c>
       <c r="R33">
-        <v>2.076838291544012</v>
+        <v>2.062009509049014</v>
       </c>
       <c r="S33">
-        <v>1.816992074508761</v>
+        <v>1.734329271671902</v>
       </c>
       <c r="T33">
-        <v>2.218701517794382</v>
+        <v>2.182231792116073</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.225563660416439</v>
+        <v>1.203356799975147</v>
       </c>
       <c r="C34">
-        <v>1.489219401850443</v>
+        <v>1.489688544807533</v>
       </c>
       <c r="D34">
-        <v>1.253102809534384</v>
+        <v>1.24814394025206</v>
       </c>
       <c r="E34">
-        <v>2.323882384634427</v>
+        <v>2.341445008430713</v>
       </c>
       <c r="F34">
-        <v>1.986919201884174</v>
+        <v>1.972241106554243</v>
       </c>
       <c r="G34">
-        <v>1.210561154138318</v>
+        <v>1.187591417528012</v>
       </c>
       <c r="H34">
-        <v>1.412701617878088</v>
+        <v>1.41491428890491</v>
       </c>
       <c r="I34">
-        <v>1.056213941388018</v>
+        <v>1.055841207418104</v>
       </c>
       <c r="J34">
-        <v>2.44667496996069</v>
+        <v>2.426324865816152</v>
       </c>
       <c r="K34">
-        <v>1.403098176555894</v>
+        <v>1.397872768132537</v>
       </c>
       <c r="L34">
-        <v>0.9797980964866124</v>
+        <v>0.9685496876695223</v>
       </c>
       <c r="M34">
-        <v>1.459410237990168</v>
+        <v>1.450216073526012</v>
       </c>
       <c r="N34">
-        <v>2.837464834026629</v>
+        <v>2.829442601068952</v>
       </c>
       <c r="O34">
-        <v>0.8410832639424576</v>
+        <v>0.8355687355478244</v>
       </c>
       <c r="P34">
-        <v>2.131570724355104</v>
+        <v>2.133497659866468</v>
       </c>
       <c r="Q34">
-        <v>1.952531240604377</v>
+        <v>1.923465103093773</v>
       </c>
       <c r="R34">
-        <v>1.021791137032662</v>
+        <v>1.014495471025316</v>
       </c>
       <c r="S34">
-        <v>0.8939455501712274</v>
+        <v>0.8532761131398796</v>
       </c>
       <c r="T34">
-        <v>1.091811616464034</v>
+        <v>1.073865051851586</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.495310887582796</v>
+        <v>3.431976861300469</v>
       </c>
       <c r="C35">
-        <v>4.560384695414267</v>
+        <v>4.561821335548564</v>
       </c>
       <c r="D35">
-        <v>4.946329644665997</v>
+        <v>4.926755670409011</v>
       </c>
       <c r="E35">
-        <v>4.7984404351055</v>
+        <v>4.834704406435488</v>
       </c>
       <c r="F35">
-        <v>5.080108435586644</v>
+        <v>5.042579825548945</v>
       </c>
       <c r="G35">
-        <v>3.695691983453331</v>
+        <v>3.625568246901446</v>
       </c>
       <c r="H35">
-        <v>5.932011696098833</v>
+        <v>5.941302823287066</v>
       </c>
       <c r="I35">
-        <v>3.673967709847732</v>
+        <v>3.672671180313169</v>
       </c>
       <c r="J35">
-        <v>7.619196797480148</v>
+        <v>7.555824485983886</v>
       </c>
       <c r="K35">
-        <v>3.517198065309121</v>
+        <v>3.504099340854788</v>
       </c>
       <c r="L35">
-        <v>3.027758043519638</v>
+        <v>2.992998371710859</v>
       </c>
       <c r="M35">
-        <v>4.711078662985806</v>
+        <v>4.681399254890987</v>
       </c>
       <c r="N35">
-        <v>6.023901606274745</v>
+        <v>6.00687050815499</v>
       </c>
       <c r="O35">
-        <v>3.074562020117394</v>
+        <v>3.054403778611643</v>
       </c>
       <c r="P35">
-        <v>6.506815211538775</v>
+        <v>6.512697358987009</v>
       </c>
       <c r="Q35">
-        <v>8.28364750426784</v>
+        <v>8.160333913969591</v>
       </c>
       <c r="R35">
-        <v>7.162514764472244</v>
+        <v>7.111373867276725</v>
       </c>
       <c r="S35">
-        <v>2.72912573353393</v>
+        <v>2.60496603818187</v>
       </c>
       <c r="T35">
-        <v>3.333314019421521</v>
+        <v>3.278522941436045</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.223154175582297</v>
+        <v>2.182871262412486</v>
       </c>
       <c r="C36">
-        <v>1.991221433177378</v>
+        <v>1.991848719868795</v>
       </c>
       <c r="D36">
-        <v>3.541483916789559</v>
+        <v>3.527469299892054</v>
       </c>
       <c r="E36">
-        <v>2.504362028328871</v>
+        <v>2.523288617920523</v>
       </c>
       <c r="F36">
-        <v>2.923367079695275</v>
+        <v>2.901771103049894</v>
       </c>
       <c r="G36">
-        <v>1.661021120945901</v>
+        <v>1.629504152536783</v>
       </c>
       <c r="H36">
-        <v>2.238794117405144</v>
+        <v>2.242300671666789</v>
       </c>
       <c r="I36">
-        <v>1.723078429872217</v>
+        <v>1.722470361905613</v>
       </c>
       <c r="J36">
-        <v>2.522741467424212</v>
+        <v>2.501758683759795</v>
       </c>
       <c r="K36">
-        <v>2.708382244728571</v>
+        <v>2.698295706500708</v>
       </c>
       <c r="L36">
-        <v>1.894622844399841</v>
+        <v>1.872871942469713</v>
       </c>
       <c r="M36">
-        <v>2.158143153292762</v>
+        <v>2.144547028932354</v>
       </c>
       <c r="N36">
-        <v>2.623985386491588</v>
+        <v>2.61656671409236</v>
       </c>
       <c r="O36">
-        <v>2.372137102747879</v>
+        <v>2.356584281796777</v>
       </c>
       <c r="P36">
-        <v>2.924356960465989</v>
+        <v>2.9270005730896</v>
       </c>
       <c r="Q36">
-        <v>2.967757576375264</v>
+        <v>2.923578385784511</v>
       </c>
       <c r="R36">
-        <v>2.79932527126849</v>
+        <v>2.779337877088883</v>
       </c>
       <c r="S36">
-        <v>1.225878536755661</v>
+        <v>1.170108037144006</v>
       </c>
       <c r="T36">
-        <v>1.497842763791622</v>
+        <v>1.47322209523093</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>100.0469300138731</v>
+        <v>98.23410846558824</v>
       </c>
       <c r="C37">
-        <v>88.92470377855649</v>
+        <v>88.95271737980096</v>
       </c>
       <c r="D37">
-        <v>98.5398931981902</v>
+        <v>98.14994398911807</v>
       </c>
       <c r="E37">
-        <v>85.92569605230587</v>
+        <v>86.57507516210021</v>
       </c>
       <c r="F37">
-        <v>90.57343282435136</v>
+        <v>89.90433390976328</v>
       </c>
       <c r="G37">
-        <v>82.38376721546996</v>
+        <v>80.82058023608015</v>
       </c>
       <c r="H37">
-        <v>90.12251951406083</v>
+        <v>90.26367564021611</v>
       </c>
       <c r="I37">
-        <v>91.5352279745964</v>
+        <v>91.502925533232</v>
       </c>
       <c r="J37">
-        <v>81.42173572309247</v>
+        <v>80.74451426052089</v>
       </c>
       <c r="K37">
-        <v>95.97536753907197</v>
+        <v>95.61793674602191</v>
       </c>
       <c r="L37">
-        <v>97.70952051859595</v>
+        <v>96.58778264621581</v>
       </c>
       <c r="M37">
-        <v>81.33135504561734</v>
+        <v>80.81897419826089</v>
       </c>
       <c r="N37">
-        <v>93.22356007450843</v>
+        <v>92.95999341912879</v>
       </c>
       <c r="O37">
-        <v>93.97133536993427</v>
+        <v>93.35521611112264</v>
       </c>
       <c r="P37">
-        <v>92.29548002088465</v>
+        <v>92.37891494329118</v>
       </c>
       <c r="Q37">
-        <v>97.43100920834712</v>
+        <v>95.98061340798586</v>
       </c>
       <c r="R37">
-        <v>98.35799729496509</v>
+        <v>97.65571375441736</v>
       </c>
       <c r="S37">
-        <v>92.6129408788277</v>
+        <v>88.39957892782522</v>
       </c>
       <c r="T37">
-        <v>93.44065826976649</v>
+        <v>91.90473505207895</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>7.679533323587052</v>
+        <v>7.540382392240737</v>
       </c>
       <c r="C38">
-        <v>11.91615331367931</v>
+        <v>11.91990721279973</v>
       </c>
       <c r="D38">
-        <v>6.975279310884757</v>
+        <v>6.947676229918696</v>
       </c>
       <c r="E38">
-        <v>6.907899756818545</v>
+        <v>6.960105860472344</v>
       </c>
       <c r="F38">
-        <v>6.319810159839163</v>
+        <v>6.273123421946037</v>
       </c>
       <c r="G38">
-        <v>5.339110761113679</v>
+        <v>5.237804051000941</v>
       </c>
       <c r="H38">
-        <v>11.52357314996833</v>
+        <v>11.54162216761772</v>
       </c>
       <c r="I38">
-        <v>9.369238962430181</v>
+        <v>9.365932592861769</v>
       </c>
       <c r="J38">
-        <v>6.806775236941919</v>
+        <v>6.750160203616728</v>
       </c>
       <c r="K38">
-        <v>6.759859053307365</v>
+        <v>6.734684033463376</v>
       </c>
       <c r="L38">
-        <v>11.56612235737645</v>
+        <v>11.43333941651264</v>
       </c>
       <c r="M38">
-        <v>8.146102533840992</v>
+        <v>8.094782757887414</v>
       </c>
       <c r="N38">
-        <v>9.361585809986803</v>
+        <v>9.335118231844371</v>
       </c>
       <c r="O38">
-        <v>5.872637636589341</v>
+        <v>5.834133925498286</v>
       </c>
       <c r="P38">
-        <v>12.39988644985234</v>
+        <v>12.41109592147066</v>
       </c>
       <c r="Q38">
-        <v>8.443236588783854</v>
+        <v>8.317547293462674</v>
       </c>
       <c r="R38">
-        <v>13.13196990189659</v>
+        <v>13.03820664348646</v>
       </c>
       <c r="S38">
-        <v>6.844185361738206</v>
+        <v>6.53281386316453</v>
       </c>
       <c r="T38">
-        <v>6.478959214808259</v>
+        <v>6.372461849863063</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>27.46410785246858</v>
+        <v>26.96646613060395</v>
       </c>
       <c r="C39">
-        <v>25.97940448746077</v>
+        <v>25.98758867753345</v>
       </c>
       <c r="D39">
-        <v>28.15646957386732</v>
+        <v>28.04504675124958</v>
       </c>
       <c r="E39">
-        <v>29.78990375714307</v>
+        <v>30.01503945078815</v>
       </c>
       <c r="F39">
-        <v>29.93560236684915</v>
+        <v>29.71445717640415</v>
       </c>
       <c r="G39">
-        <v>32.10347372679833</v>
+        <v>31.49432784989687</v>
       </c>
       <c r="H39">
-        <v>26.75204599478528</v>
+        <v>26.79394690034933</v>
       </c>
       <c r="I39">
-        <v>29.22109064197721</v>
+        <v>29.21077862781663</v>
       </c>
       <c r="J39">
-        <v>22.46863180747234</v>
+        <v>22.28175001774499</v>
       </c>
       <c r="K39">
-        <v>32.73320368188949</v>
+        <v>32.61129891349854</v>
       </c>
       <c r="L39">
-        <v>28.70955695629207</v>
+        <v>28.37996167052871</v>
       </c>
       <c r="M39">
-        <v>34.20322398169149</v>
+        <v>33.9877464837913</v>
       </c>
       <c r="N39">
-        <v>20.52947558011326</v>
+        <v>20.47143354426928</v>
       </c>
       <c r="O39">
-        <v>31.60081838662382</v>
+        <v>31.39362889925983</v>
       </c>
       <c r="P39">
-        <v>25.77402088874023</v>
+        <v>25.79732055013719</v>
       </c>
       <c r="Q39">
-        <v>24.17961941549672</v>
+        <v>23.81967222066088</v>
       </c>
       <c r="R39">
-        <v>29.44321507475566</v>
+        <v>29.23298829201833</v>
       </c>
       <c r="S39">
-        <v>38.80069261811352</v>
+        <v>37.03548183441109</v>
       </c>
       <c r="T39">
-        <v>30.1138306006092</v>
+        <v>29.61883696026634</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.498812105697381</v>
+        <v>5.39917521455244</v>
       </c>
       <c r="C40">
-        <v>6.270229193835148</v>
+        <v>6.272204479586843</v>
       </c>
       <c r="D40">
-        <v>5.997924385219267</v>
+        <v>5.974188964018976</v>
       </c>
       <c r="E40">
-        <v>4.982231631895256</v>
+        <v>5.019884595915935</v>
       </c>
       <c r="F40">
-        <v>4.915947020046356</v>
+        <v>4.879631130135632</v>
       </c>
       <c r="G40">
-        <v>4.36058049573948</v>
+        <v>4.277840862873539</v>
       </c>
       <c r="H40">
-        <v>6.197362620189343</v>
+        <v>6.207069358356033</v>
       </c>
       <c r="I40">
-        <v>5.265330048205679</v>
+        <v>5.263471932823113</v>
       </c>
       <c r="J40">
-        <v>4.943538144433395</v>
+        <v>4.902420498110583</v>
       </c>
       <c r="K40">
-        <v>6.244485557876466</v>
+        <v>6.221229888402392</v>
       </c>
       <c r="L40">
-        <v>5.672606486113472</v>
+        <v>5.607483072378455</v>
       </c>
       <c r="M40">
-        <v>6.259688847610349</v>
+        <v>6.220253322724192</v>
       </c>
       <c r="N40">
-        <v>4.437379069981122</v>
+        <v>4.424833473576181</v>
       </c>
       <c r="O40">
-        <v>6.46048260289858</v>
+        <v>6.418124710066755</v>
       </c>
       <c r="P40">
-        <v>6.661662574034492</v>
+        <v>6.667684703177081</v>
       </c>
       <c r="Q40">
-        <v>5.076131678854434</v>
+        <v>5.000566413453689</v>
       </c>
       <c r="R40">
-        <v>6.275410498228263</v>
+        <v>6.230603592594859</v>
       </c>
       <c r="S40">
-        <v>5.177245185274463</v>
+        <v>4.941709981795865</v>
       </c>
       <c r="T40">
-        <v>7.404148978157299</v>
+        <v>7.282443881753362</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.902913517442603</v>
+        <v>2.850313560837262</v>
       </c>
       <c r="C41">
-        <v>4.170293944956394</v>
+        <v>4.171607696328985</v>
       </c>
       <c r="D41">
-        <v>3.539852272506312</v>
+        <v>3.525844112469851</v>
       </c>
       <c r="E41">
-        <v>5.189203700352187</v>
+        <v>5.228420845330855</v>
       </c>
       <c r="F41">
-        <v>3.35196584933248</v>
+        <v>3.327203657577265</v>
       </c>
       <c r="G41">
-        <v>2.454726781821785</v>
+        <v>2.408149682072664</v>
       </c>
       <c r="H41">
-        <v>3.146661430016697</v>
+        <v>3.151589948883883</v>
       </c>
       <c r="I41">
-        <v>2.693966852857909</v>
+        <v>2.693016161979352</v>
       </c>
       <c r="J41">
-        <v>4.310696253164716</v>
+        <v>4.274842239548521</v>
       </c>
       <c r="K41">
-        <v>3.319103946650674</v>
+        <v>3.306742962928638</v>
       </c>
       <c r="L41">
-        <v>2.566014112991464</v>
+        <v>2.536555415452808</v>
       </c>
       <c r="M41">
-        <v>2.142450570088566</v>
+        <v>2.128953307711644</v>
       </c>
       <c r="N41">
-        <v>4.611471165572429</v>
+        <v>4.598433366645653</v>
       </c>
       <c r="O41">
-        <v>3.368484503272014</v>
+        <v>3.346399170895879</v>
       </c>
       <c r="P41">
-        <v>3.760694017278794</v>
+        <v>3.764093676866191</v>
       </c>
       <c r="Q41">
-        <v>2.750476663184447</v>
+        <v>2.709532000559187</v>
       </c>
       <c r="R41">
-        <v>3.539271660169279</v>
+        <v>3.514000992802904</v>
       </c>
       <c r="S41">
-        <v>2.283517066612363</v>
+        <v>2.179630030614688</v>
       </c>
       <c r="T41">
-        <v>1.481180578480123</v>
+        <v>1.456833793234802</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.36371247384095</v>
+        <v>11.15780527770574</v>
       </c>
       <c r="C42">
-        <v>10.06801844675595</v>
+        <v>10.07119013518565</v>
       </c>
       <c r="D42">
-        <v>12.29199220784803</v>
+        <v>12.24334944516784</v>
       </c>
       <c r="E42">
-        <v>14.54351330633166</v>
+        <v>14.65342517388754</v>
       </c>
       <c r="F42">
-        <v>9.401677916607818</v>
+        <v>9.332224299877751</v>
       </c>
       <c r="G42">
-        <v>11.09187658943787</v>
+        <v>10.88141429027814</v>
       </c>
       <c r="H42">
-        <v>10.85685809226922</v>
+        <v>10.87386285466142</v>
       </c>
       <c r="I42">
-        <v>11.29196253730202</v>
+        <v>11.28797764573818</v>
       </c>
       <c r="J42">
-        <v>15.01411505604723</v>
+        <v>14.88923585926796</v>
       </c>
       <c r="K42">
-        <v>12.35416847898951</v>
+        <v>12.3081591710791</v>
       </c>
       <c r="L42">
-        <v>11.65621873406487</v>
+        <v>11.52240145675811</v>
       </c>
       <c r="M42">
-        <v>11.02775636539034</v>
+        <v>10.95828240731144</v>
       </c>
       <c r="N42">
-        <v>13.54373483937253</v>
+        <v>13.50544326490241</v>
       </c>
       <c r="O42">
-        <v>12.41448861053073</v>
+        <v>12.3330935181748</v>
       </c>
       <c r="P42">
-        <v>10.40300067100132</v>
+        <v>10.41240496201951</v>
       </c>
       <c r="Q42">
-        <v>11.61254094325681</v>
+        <v>11.43967215381826</v>
       </c>
       <c r="R42">
-        <v>10.82067668712783</v>
+        <v>10.74341623709885</v>
       </c>
       <c r="S42">
-        <v>9.322315193087743</v>
+        <v>8.898202884839172</v>
       </c>
       <c r="T42">
-        <v>9.218573262867411</v>
+        <v>9.067043714910737</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.228059716751299</v>
+        <v>1.205807628488334</v>
       </c>
       <c r="C43">
-        <v>1.230224723267758</v>
+        <v>1.230612276145353</v>
       </c>
       <c r="D43">
-        <v>0.8500866715721539</v>
+        <v>0.846722646967869</v>
       </c>
       <c r="E43">
-        <v>0.83368349174452</v>
+        <v>0.8399840126432946</v>
       </c>
       <c r="F43">
-        <v>0.8442587084929093</v>
+        <v>0.8380218621256127</v>
       </c>
       <c r="G43">
-        <v>1.878650092476385</v>
+        <v>1.843003733215976</v>
       </c>
       <c r="H43">
-        <v>1.115642092795631</v>
+        <v>1.117389488639022</v>
       </c>
       <c r="I43">
-        <v>0.6643792792103453</v>
+        <v>0.6641448222347603</v>
       </c>
       <c r="J43">
-        <v>0.5677540635421602</v>
+        <v>0.5630317957855429</v>
       </c>
       <c r="K43">
-        <v>0.8441604143660825</v>
+        <v>0.8410165980504481</v>
       </c>
       <c r="L43">
-        <v>0.7294341266505105</v>
+        <v>0.7210599796796975</v>
       </c>
       <c r="M43">
-        <v>0.6285292535996141</v>
+        <v>0.6245695709979034</v>
       </c>
       <c r="N43">
-        <v>0.8641585016455338</v>
+        <v>0.8617153063222212</v>
       </c>
       <c r="O43">
-        <v>1.215543828639445</v>
+        <v>1.207574164700904</v>
       </c>
       <c r="P43">
-        <v>0.5048669214704107</v>
+        <v>0.5053233201197159</v>
       </c>
       <c r="Q43">
-        <v>0.7065375901342776</v>
+        <v>0.6960197974740705</v>
       </c>
       <c r="R43">
-        <v>0.7399463889007889</v>
+        <v>0.7346631157140202</v>
       </c>
       <c r="S43">
-        <v>0.6011169976227684</v>
+        <v>0.573769593881445</v>
       </c>
       <c r="T43">
-        <v>0.8006618520736248</v>
+        <v>0.787501038024496</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.587924686474786</v>
+        <v>6.468553389139994</v>
       </c>
       <c r="C44">
-        <v>6.345369625275803</v>
+        <v>6.3473685822234</v>
       </c>
       <c r="D44">
-        <v>7.46803588442562</v>
+        <v>7.438482831424063</v>
       </c>
       <c r="E44">
-        <v>8.782238808764518</v>
+        <v>8.848610135173853</v>
       </c>
       <c r="F44">
-        <v>5.059082835566706</v>
+        <v>5.021709549289112</v>
       </c>
       <c r="G44">
-        <v>6.324841985104696</v>
+        <v>6.204831563489052</v>
       </c>
       <c r="H44">
-        <v>5.63161442354354</v>
+        <v>5.640435047737292</v>
       </c>
       <c r="I44">
-        <v>4.852785308745888</v>
+        <v>4.851072778866865</v>
       </c>
       <c r="J44">
-        <v>5.628136621605087</v>
+        <v>5.581324859603371</v>
       </c>
       <c r="K44">
-        <v>6.737665936279239</v>
+        <v>6.712573567886587</v>
       </c>
       <c r="L44">
-        <v>4.837482379116925</v>
+        <v>4.781946468564644</v>
       </c>
       <c r="M44">
-        <v>6.90060698268696</v>
+        <v>6.857133726264761</v>
       </c>
       <c r="N44">
-        <v>4.914753775539184</v>
+        <v>4.90085851973048</v>
       </c>
       <c r="O44">
-        <v>7.88359880664722</v>
+        <v>7.831910309996637</v>
       </c>
       <c r="P44">
-        <v>5.721287445544878</v>
+        <v>5.726459477522787</v>
       </c>
       <c r="Q44">
-        <v>5.226729829031518</v>
+        <v>5.148922701144344</v>
       </c>
       <c r="R44">
-        <v>4.399771112430309</v>
+        <v>4.368356413886062</v>
       </c>
       <c r="S44">
-        <v>5.915682404744491</v>
+        <v>5.646552508621482</v>
       </c>
       <c r="T44">
-        <v>6.527191856499441</v>
+        <v>6.419901671430804</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2018.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2018.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>158.4088872167998</v>
+        <v>155.5067485797183</v>
       </c>
       <c r="C2">
-        <v>142.7420393821964</v>
+        <v>142.5139523112009</v>
       </c>
       <c r="D2">
-        <v>143.0894928858491</v>
+        <v>142.3391961106784</v>
       </c>
       <c r="E2">
-        <v>135.0269216847545</v>
+        <v>135.1405821377085</v>
       </c>
       <c r="F2">
-        <v>145.3321820455093</v>
+        <v>144.152698282809</v>
       </c>
       <c r="G2">
-        <v>154.1229173822577</v>
+        <v>150.6019596324064</v>
       </c>
       <c r="H2">
-        <v>167.7343270630619</v>
+        <v>167.5979240863965</v>
       </c>
       <c r="I2">
-        <v>165.0228662024639</v>
+        <v>164.8765369041243</v>
       </c>
       <c r="J2">
-        <v>142.1737730941901</v>
+        <v>140.6209870462339</v>
       </c>
       <c r="K2">
-        <v>145.1059968355564</v>
+        <v>144.0490708796478</v>
       </c>
       <c r="L2">
-        <v>189.1417492536888</v>
+        <v>186.7995604066773</v>
       </c>
       <c r="M2">
-        <v>157.2074726141973</v>
+        <v>156.172171970731</v>
       </c>
       <c r="N2">
-        <v>123.6101143520607</v>
+        <v>122.9875254347717</v>
       </c>
       <c r="O2">
-        <v>154.3051522086733</v>
+        <v>152.63991356366</v>
       </c>
       <c r="P2">
-        <v>135.1946514056356</v>
+        <v>135.1655908890666</v>
       </c>
       <c r="Q2">
-        <v>135.8357852370882</v>
+        <v>133.6388057685938</v>
       </c>
       <c r="R2">
-        <v>153.1655769007154</v>
+        <v>151.848326631946</v>
       </c>
       <c r="S2">
-        <v>206.6505645821559</v>
+        <v>197.249093628437</v>
       </c>
       <c r="T2">
-        <v>175.2248024784567</v>
+        <v>172.3450332456848</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.65583763652033</v>
+        <v>12.42397567451242</v>
       </c>
       <c r="C3">
-        <v>10.17913036133309</v>
+        <v>10.16286515985884</v>
       </c>
       <c r="D3">
-        <v>9.269371173131299</v>
+        <v>9.220766770678011</v>
       </c>
       <c r="E3">
-        <v>11.8512206398439</v>
+        <v>11.86119654012494</v>
       </c>
       <c r="F3">
-        <v>15.09233742969652</v>
+        <v>14.96985136577747</v>
       </c>
       <c r="G3">
-        <v>9.669287209359929</v>
+        <v>9.448391106991876</v>
       </c>
       <c r="H3">
-        <v>9.537613403630562</v>
+        <v>9.529857335559596</v>
       </c>
       <c r="I3">
-        <v>11.30770219603643</v>
+        <v>11.29767541510445</v>
       </c>
       <c r="J3">
-        <v>10.59598467759899</v>
+        <v>10.48025800865258</v>
       </c>
       <c r="K3">
-        <v>11.69823857571381</v>
+        <v>11.61303071209192</v>
       </c>
       <c r="L3">
-        <v>13.71024286029808</v>
+        <v>13.54046554754763</v>
       </c>
       <c r="M3">
-        <v>11.45145611190361</v>
+        <v>11.37604175860264</v>
       </c>
       <c r="N3">
-        <v>9.356859327753554</v>
+        <v>9.309731494010926</v>
       </c>
       <c r="O3">
-        <v>12.33561110798923</v>
+        <v>12.20248699623501</v>
       </c>
       <c r="P3">
-        <v>8.5359608575764</v>
+        <v>8.5341260258774</v>
       </c>
       <c r="Q3">
-        <v>7.644541921675541</v>
+        <v>7.520900705786429</v>
       </c>
       <c r="R3">
-        <v>8.459499446141042</v>
+        <v>8.386746297916961</v>
       </c>
       <c r="S3">
-        <v>18.10262474232803</v>
+        <v>17.27905428151079</v>
       </c>
       <c r="T3">
-        <v>17.07698603004348</v>
+        <v>16.7963306761084</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.629612196889846</v>
+        <v>7.489833471519225</v>
       </c>
       <c r="C4">
-        <v>5.842568227656947</v>
+        <v>5.833232405639095</v>
       </c>
       <c r="D4">
-        <v>6.294067822628759</v>
+        <v>6.261064569246686</v>
       </c>
       <c r="E4">
-        <v>8.293784727206161</v>
+        <v>8.300766115191873</v>
       </c>
       <c r="F4">
-        <v>6.56726529853536</v>
+        <v>6.513966829635046</v>
       </c>
       <c r="G4">
-        <v>7.087343491974369</v>
+        <v>6.925432223891936</v>
       </c>
       <c r="H4">
-        <v>6.355071188280871</v>
+        <v>6.3499031905181</v>
       </c>
       <c r="I4">
-        <v>7.10852692631418</v>
+        <v>7.102223643737088</v>
       </c>
       <c r="J4">
-        <v>7.118098943055508</v>
+        <v>7.040356863864671</v>
       </c>
       <c r="K4">
-        <v>6.390795736802621</v>
+        <v>6.344246331261572</v>
       </c>
       <c r="L4">
-        <v>7.069100324784046</v>
+        <v>6.981561915075741</v>
       </c>
       <c r="M4">
-        <v>8.241083958497962</v>
+        <v>8.186811732227707</v>
       </c>
       <c r="N4">
-        <v>5.802544688350958</v>
+        <v>5.77331892447251</v>
       </c>
       <c r="O4">
-        <v>9.396386276443033</v>
+        <v>9.294981849390297</v>
       </c>
       <c r="P4">
-        <v>5.760805782848472</v>
+        <v>5.759567479482453</v>
       </c>
       <c r="Q4">
-        <v>6.123575529339822</v>
+        <v>6.024534104517542</v>
       </c>
       <c r="R4">
-        <v>7.175817171463718</v>
+        <v>7.114103911284648</v>
       </c>
       <c r="S4">
-        <v>8.733020466220038</v>
+        <v>8.335715777421285</v>
       </c>
       <c r="T4">
-        <v>6.472820514956654</v>
+        <v>6.366441571424852</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.80222006622699</v>
+        <v>21.4027913072726</v>
       </c>
       <c r="C5">
-        <v>16.27829516869696</v>
+        <v>16.25228413030983</v>
       </c>
       <c r="D5">
-        <v>15.05273433510347</v>
+        <v>14.97380458420876</v>
       </c>
       <c r="E5">
-        <v>16.24234004422616</v>
+        <v>16.25601221940001</v>
       </c>
       <c r="F5">
-        <v>15.30178475297206</v>
+        <v>15.17759886102135</v>
       </c>
       <c r="G5">
-        <v>16.99026180312438</v>
+        <v>16.60211710028734</v>
       </c>
       <c r="H5">
-        <v>16.67788968489624</v>
+        <v>16.66432708362464</v>
       </c>
       <c r="I5">
-        <v>19.68368585201623</v>
+        <v>19.66623190756753</v>
       </c>
       <c r="J5">
-        <v>13.95153666364444</v>
+        <v>13.79916150325178</v>
       </c>
       <c r="K5">
-        <v>18.14903792522211</v>
+        <v>18.01684360054733</v>
       </c>
       <c r="L5">
-        <v>22.84896091497294</v>
+        <v>22.56601660663268</v>
       </c>
       <c r="M5">
-        <v>15.23254273868289</v>
+        <v>15.13222777886106</v>
       </c>
       <c r="N5">
-        <v>17.04999690940377</v>
+        <v>16.96412093419536</v>
       </c>
       <c r="O5">
-        <v>24.40802044434</v>
+        <v>24.14461265587404</v>
       </c>
       <c r="P5">
-        <v>13.56688714532787</v>
+        <v>13.56397090016153</v>
       </c>
       <c r="Q5">
-        <v>13.02861310163834</v>
+        <v>12.81789104899737</v>
       </c>
       <c r="R5">
-        <v>17.47437438417616</v>
+        <v>17.32409176310749</v>
       </c>
       <c r="S5">
-        <v>25.13414762526184</v>
+        <v>23.9906813137946</v>
       </c>
       <c r="T5">
-        <v>25.97546994350577</v>
+        <v>25.54857056572336</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>44.30499994377146</v>
+        <v>43.49330778172287</v>
       </c>
       <c r="C6">
-        <v>42.67736695941671</v>
+        <v>42.60917292443093</v>
       </c>
       <c r="D6">
-        <v>43.8365711358796</v>
+        <v>43.60671192473522</v>
       </c>
       <c r="E6">
-        <v>36.24412073990402</v>
+        <v>36.27462964234228</v>
       </c>
       <c r="F6">
-        <v>31.94112113798173</v>
+        <v>31.68189408163096</v>
       </c>
       <c r="G6">
-        <v>46.22695389391637</v>
+        <v>45.17089322280204</v>
       </c>
       <c r="H6">
-        <v>42.62720741246432</v>
+        <v>42.59254260604217</v>
       </c>
       <c r="I6">
-        <v>46.76252609993115</v>
+        <v>46.72106076976051</v>
       </c>
       <c r="J6">
-        <v>35.12703801423691</v>
+        <v>34.74338937533922</v>
       </c>
       <c r="K6">
-        <v>40.23694313928771</v>
+        <v>39.94386448976417</v>
       </c>
       <c r="L6">
-        <v>48.45192549814301</v>
+        <v>47.85193337601362</v>
       </c>
       <c r="M6">
-        <v>49.66867769214191</v>
+        <v>49.34158119272175</v>
       </c>
       <c r="N6">
-        <v>35.17684402094923</v>
+        <v>34.99966828296496</v>
       </c>
       <c r="O6">
-        <v>46.37498975739588</v>
+        <v>45.87451764741942</v>
       </c>
       <c r="P6">
-        <v>48.32286155549935</v>
+        <v>48.31247440405293</v>
       </c>
       <c r="Q6">
-        <v>40.6772346829057</v>
+        <v>40.01932963029022</v>
       </c>
       <c r="R6">
-        <v>41.77537775628982</v>
+        <v>41.41610233232762</v>
       </c>
       <c r="S6">
-        <v>51.00946068632179</v>
+        <v>48.68880908792433</v>
       </c>
       <c r="T6">
-        <v>58.64036881101768</v>
+        <v>57.67663121501653</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>14.1127025173005</v>
+        <v>13.85414998297809</v>
       </c>
       <c r="C7">
-        <v>12.25508462145419</v>
+        <v>12.23550225897564</v>
       </c>
       <c r="D7">
-        <v>14.47594808097534</v>
+        <v>14.40004273709828</v>
       </c>
       <c r="E7">
-        <v>12.70477345016028</v>
+        <v>12.71546783826457</v>
       </c>
       <c r="F7">
-        <v>13.51218272050577</v>
+        <v>13.40252084181406</v>
       </c>
       <c r="G7">
-        <v>15.28123429139969</v>
+        <v>14.93213254054099</v>
       </c>
       <c r="H7">
-        <v>14.56926771893173</v>
+        <v>14.55741986691781</v>
       </c>
       <c r="I7">
-        <v>16.12486617185707</v>
+        <v>16.1105679087918</v>
       </c>
       <c r="J7">
-        <v>12.86307997829013</v>
+        <v>12.72259266695739</v>
       </c>
       <c r="K7">
-        <v>12.07634353248928</v>
+        <v>11.98838162043666</v>
       </c>
       <c r="L7">
-        <v>15.14052284022681</v>
+        <v>14.95303401835524</v>
       </c>
       <c r="M7">
-        <v>18.14475581120884</v>
+        <v>18.02526227152842</v>
       </c>
       <c r="N7">
-        <v>11.5184372024257</v>
+        <v>11.46042211697489</v>
       </c>
       <c r="O7">
-        <v>14.20127161547067</v>
+        <v>14.04801356825763</v>
       </c>
       <c r="P7">
-        <v>14.26047428983994</v>
+        <v>14.2574089559301</v>
       </c>
       <c r="Q7">
-        <v>13.08031097408719</v>
+        <v>12.86875277091243</v>
       </c>
       <c r="R7">
-        <v>13.25169156481986</v>
+        <v>13.13772474127749</v>
       </c>
       <c r="S7">
-        <v>15.7472646457426</v>
+        <v>15.03085019283838</v>
       </c>
       <c r="T7">
-        <v>17.83116915466924</v>
+        <v>17.53811901798964</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>186.16</v>
+        <v>201.07</v>
       </c>
       <c r="C8">
-        <v>223.98</v>
+        <v>225.22</v>
       </c>
       <c r="D8">
-        <v>202.83</v>
+        <v>207.01</v>
       </c>
       <c r="E8">
-        <v>204.05</v>
+        <v>203.38</v>
       </c>
       <c r="F8">
-        <v>221.27</v>
+        <v>227.59</v>
       </c>
       <c r="G8">
-        <v>224.78</v>
+        <v>242.49</v>
       </c>
       <c r="H8">
-        <v>188.4</v>
+        <v>189.06</v>
       </c>
       <c r="I8">
-        <v>188.02</v>
+        <v>188.74</v>
       </c>
       <c r="J8">
-        <v>250.12</v>
+        <v>258.31</v>
       </c>
       <c r="K8">
-        <v>196.85</v>
+        <v>202.7</v>
       </c>
       <c r="L8">
-        <v>148.85</v>
+        <v>159.39</v>
       </c>
       <c r="M8">
-        <v>195.21</v>
+        <v>200.51</v>
       </c>
       <c r="N8">
-        <v>245.54</v>
+        <v>249.34</v>
       </c>
       <c r="O8">
-        <v>187.35</v>
+        <v>196.12</v>
       </c>
       <c r="P8">
-        <v>209.13</v>
+        <v>209.3</v>
       </c>
       <c r="Q8">
-        <v>264.86</v>
+        <v>276.75</v>
       </c>
       <c r="R8">
-        <v>184.9</v>
+        <v>191.91</v>
       </c>
       <c r="S8">
-        <v>124.73</v>
+        <v>164.55</v>
       </c>
       <c r="T8">
-        <v>157.88</v>
+        <v>171.72</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.56996655935535</v>
+        <v>10.37631891190624</v>
       </c>
       <c r="C9">
-        <v>9.070409314437457</v>
+        <v>9.055915734955098</v>
       </c>
       <c r="D9">
-        <v>10.60324037468645</v>
+        <v>10.54764176364215</v>
       </c>
       <c r="E9">
-        <v>12.20886837413748</v>
+        <v>12.21914532848218</v>
       </c>
       <c r="F9">
-        <v>11.76139718038398</v>
+        <v>11.6659442889068</v>
       </c>
       <c r="G9">
-        <v>11.59834401215404</v>
+        <v>11.3333783605258</v>
       </c>
       <c r="H9">
-        <v>8.930143363574302</v>
+        <v>8.922881295289484</v>
       </c>
       <c r="I9">
-        <v>9.037877725916292</v>
+        <v>9.029863646797766</v>
       </c>
       <c r="J9">
-        <v>8.779799026820477</v>
+        <v>8.683908278927936</v>
       </c>
       <c r="K9">
-        <v>7.327838455767893</v>
+        <v>7.274463799768089</v>
       </c>
       <c r="L9">
-        <v>11.19794004879394</v>
+        <v>11.05927320027807</v>
       </c>
       <c r="M9">
-        <v>9.864027431984482</v>
+        <v>9.799067199638756</v>
       </c>
       <c r="N9">
-        <v>7.701802799077832</v>
+        <v>7.663011013381444</v>
       </c>
       <c r="O9">
-        <v>10.72734034564319</v>
+        <v>10.61157245684569</v>
       </c>
       <c r="P9">
-        <v>13.39913583595751</v>
+        <v>13.39625564946402</v>
       </c>
       <c r="Q9">
-        <v>7.481206614518307</v>
+        <v>7.360207149591051</v>
       </c>
       <c r="R9">
-        <v>5.977769141794014</v>
+        <v>5.926359300444516</v>
       </c>
       <c r="S9">
-        <v>7.066989695198991</v>
+        <v>6.745480298483892</v>
       </c>
       <c r="T9">
-        <v>6.846404248782902</v>
+        <v>6.733885564031137</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>28.26617395473705</v>
+        <v>27.7483219768727</v>
       </c>
       <c r="C10">
-        <v>32.146515429638</v>
+        <v>32.0951486103128</v>
       </c>
       <c r="D10">
-        <v>28.86215572637204</v>
+        <v>28.71081559699407</v>
       </c>
       <c r="E10">
-        <v>30.4927809016228</v>
+        <v>30.51844854808814</v>
       </c>
       <c r="F10">
-        <v>24.54819670020187</v>
+        <v>24.34896897923919</v>
       </c>
       <c r="G10">
-        <v>28.63101146046634</v>
+        <v>27.97693234361583</v>
       </c>
       <c r="H10">
-        <v>29.29374069535035</v>
+        <v>29.26991877709144</v>
       </c>
       <c r="I10">
-        <v>25.69292187619559</v>
+        <v>25.67013941388018</v>
       </c>
       <c r="J10">
-        <v>27.61527534204029</v>
+        <v>27.31366827817499</v>
       </c>
       <c r="K10">
-        <v>28.1729291162585</v>
+        <v>27.9677225728605</v>
       </c>
       <c r="L10">
-        <v>28.67317188109097</v>
+        <v>28.31810493445795</v>
       </c>
       <c r="M10">
-        <v>21.12139106741515</v>
+        <v>20.98229469114644</v>
       </c>
       <c r="N10">
-        <v>35.00196417831905</v>
+        <v>34.82566926026161</v>
       </c>
       <c r="O10">
-        <v>32.50251278409817</v>
+        <v>32.15175041762239</v>
       </c>
       <c r="P10">
-        <v>25.74337401491296</v>
+        <v>25.73784039550328</v>
       </c>
       <c r="Q10">
-        <v>30.61338217952965</v>
+        <v>30.11824776416032</v>
       </c>
       <c r="R10">
-        <v>32.42461704171996</v>
+        <v>32.14575976597164</v>
       </c>
       <c r="S10">
-        <v>31.38721944924694</v>
+        <v>29.95927255460984</v>
       </c>
       <c r="T10">
-        <v>23.50245086043061</v>
+        <v>23.11619484001979</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>43.72009074263584</v>
+        <v>42.91911444143083</v>
       </c>
       <c r="C11">
-        <v>50.44480921802152</v>
+        <v>50.36420361065273</v>
       </c>
       <c r="D11">
-        <v>48.51612694023458</v>
+        <v>48.26173024867547</v>
       </c>
       <c r="E11">
-        <v>41.88949087913528</v>
+        <v>41.92475183634242</v>
       </c>
       <c r="F11">
-        <v>30.16769264399231</v>
+        <v>29.92285834004869</v>
       </c>
       <c r="G11">
-        <v>44.46351913930906</v>
+        <v>43.44774436059186</v>
       </c>
       <c r="H11">
-        <v>58.19362718890599</v>
+        <v>58.1463036379638</v>
       </c>
       <c r="I11">
-        <v>59.49176800061215</v>
+        <v>59.43901537990665</v>
       </c>
       <c r="J11">
-        <v>45.64381943159037</v>
+        <v>45.14530916175423</v>
       </c>
       <c r="K11">
-        <v>45.04216395952541</v>
+        <v>44.71408494668445</v>
       </c>
       <c r="L11">
-        <v>52.91169614422</v>
+        <v>52.2564775842011</v>
       </c>
       <c r="M11">
-        <v>46.78206830800177</v>
+        <v>46.47398177358608</v>
       </c>
       <c r="N11">
-        <v>41.23461874989559</v>
+        <v>41.02693172705858</v>
       </c>
       <c r="O11">
-        <v>37.56312728926034</v>
+        <v>37.15775151084797</v>
       </c>
       <c r="P11">
-        <v>46.69615775261466</v>
+        <v>46.68612026627943</v>
       </c>
       <c r="Q11">
-        <v>41.71868457716513</v>
+        <v>41.04393533263689</v>
       </c>
       <c r="R11">
-        <v>58.42666570786848</v>
+        <v>57.92418634752968</v>
       </c>
       <c r="S11">
-        <v>37.07282227698907</v>
+        <v>35.38621153622369</v>
       </c>
       <c r="T11">
-        <v>37.63198400458202</v>
+        <v>37.01351317070631</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.33284120754362</v>
+        <v>10.14353782800406</v>
       </c>
       <c r="C12">
-        <v>11.21191161049615</v>
+        <v>11.19399613100205</v>
       </c>
       <c r="D12">
-        <v>10.91406861064518</v>
+        <v>10.85684015649801</v>
       </c>
       <c r="E12">
-        <v>10.81967185065455</v>
+        <v>10.82877943296492</v>
       </c>
       <c r="F12">
-        <v>8.59138363891635</v>
+        <v>8.521657874404966</v>
       </c>
       <c r="G12">
-        <v>9.743697115067045</v>
+        <v>9.521101108890944</v>
       </c>
       <c r="H12">
-        <v>10.5080634813578</v>
+        <v>10.49951823505704</v>
       </c>
       <c r="I12">
-        <v>9.936695079960215</v>
+        <v>9.927884000306067</v>
       </c>
       <c r="J12">
-        <v>8.798619603512483</v>
+        <v>8.702523302033891</v>
       </c>
       <c r="K12">
-        <v>10.15129612212378</v>
+        <v>10.07735590882063</v>
       </c>
       <c r="L12">
-        <v>10.55513705357461</v>
+        <v>10.42443019280427</v>
       </c>
       <c r="M12">
-        <v>11.90571509939348</v>
+        <v>11.82730919222914</v>
       </c>
       <c r="N12">
-        <v>9.315108734693196</v>
+        <v>9.268191186788952</v>
       </c>
       <c r="O12">
-        <v>11.16988464937599</v>
+        <v>11.04934088714745</v>
       </c>
       <c r="P12">
-        <v>12.11922560532885</v>
+        <v>12.1166205395748</v>
       </c>
       <c r="Q12">
-        <v>11.32558028893928</v>
+        <v>11.14240273141896</v>
       </c>
       <c r="R12">
-        <v>11.68616454201066</v>
+        <v>11.58566151975634</v>
       </c>
       <c r="S12">
-        <v>8.821232794161652</v>
+        <v>8.419914926688167</v>
       </c>
       <c r="T12">
-        <v>11.86522985603083</v>
+        <v>11.67022821587566</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.845677364742253</v>
+        <v>4.756901868934347</v>
       </c>
       <c r="C13">
-        <v>4.999236789679374</v>
+        <v>4.991248524403734</v>
       </c>
       <c r="D13">
-        <v>4.949592933232494</v>
+        <v>4.923639499885891</v>
       </c>
       <c r="E13">
-        <v>4.541795070218905</v>
+        <v>4.545618178073728</v>
       </c>
       <c r="F13">
-        <v>4.490582958104526</v>
+        <v>4.454138382583846</v>
       </c>
       <c r="G13">
-        <v>3.581276752097232</v>
+        <v>3.499462026884206</v>
       </c>
       <c r="H13">
-        <v>4.66199878268451</v>
+        <v>4.658207605754284</v>
       </c>
       <c r="I13">
-        <v>4.743436100696306</v>
+        <v>4.739229994643814</v>
       </c>
       <c r="J13">
-        <v>3.72255323153955</v>
+        <v>3.681896445165318</v>
       </c>
       <c r="K13">
-        <v>4.26190043669731</v>
+        <v>4.230857521233601</v>
       </c>
       <c r="L13">
-        <v>4.622637173167607</v>
+        <v>4.565393918976</v>
       </c>
       <c r="M13">
-        <v>4.575626892170646</v>
+        <v>4.545493785983313</v>
       </c>
       <c r="N13">
-        <v>3.509413058186739</v>
+        <v>3.491737144790257</v>
       </c>
       <c r="O13">
-        <v>4.795752154522837</v>
+        <v>4.743997098354542</v>
       </c>
       <c r="P13">
-        <v>5.188193140286185</v>
+        <v>5.187077921813049</v>
       </c>
       <c r="Q13">
-        <v>4.443769297016332</v>
+        <v>4.371896705480673</v>
       </c>
       <c r="R13">
-        <v>4.392288508497605</v>
+        <v>4.354514072913544</v>
       </c>
       <c r="S13">
-        <v>4.249651633723444</v>
+        <v>4.056315716743692</v>
       </c>
       <c r="T13">
-        <v>6.107129395225327</v>
+        <v>6.006760480070813</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.735365153232987</v>
+        <v>8.575328420663068</v>
       </c>
       <c r="C14">
-        <v>7.577193081127404</v>
+        <v>7.565085507326992</v>
       </c>
       <c r="D14">
-        <v>7.830260915306654</v>
+        <v>7.78920255808551</v>
       </c>
       <c r="E14">
-        <v>9.22598692353618</v>
+        <v>9.233753003363768</v>
       </c>
       <c r="F14">
-        <v>5.900915513288083</v>
+        <v>5.85302499148466</v>
       </c>
       <c r="G14">
-        <v>7.230562557797739</v>
+        <v>7.065379431848208</v>
       </c>
       <c r="H14">
-        <v>8.329348818463714</v>
+        <v>8.322575321395965</v>
       </c>
       <c r="I14">
-        <v>7.118467763409598</v>
+        <v>7.112155666080036</v>
       </c>
       <c r="J14">
-        <v>6.784033706772414</v>
+        <v>6.709940203733973</v>
       </c>
       <c r="K14">
-        <v>9.020269120986748</v>
+        <v>8.95456710472855</v>
       </c>
       <c r="L14">
-        <v>7.812395432463545</v>
+        <v>7.715652616440323</v>
       </c>
       <c r="M14">
-        <v>7.806647181371291</v>
+        <v>7.755235968432181</v>
       </c>
       <c r="N14">
-        <v>6.175149037738686</v>
+        <v>6.144046571944068</v>
       </c>
       <c r="O14">
-        <v>9.093330608783608</v>
+        <v>8.99519671419303</v>
       </c>
       <c r="P14">
-        <v>8.007705532395699</v>
+        <v>8.005984250844362</v>
       </c>
       <c r="Q14">
-        <v>6.878064769281728</v>
+        <v>6.766820393915459</v>
       </c>
       <c r="R14">
-        <v>6.588017062527923</v>
+        <v>6.53135898424511</v>
       </c>
       <c r="S14">
-        <v>7.491682036938526</v>
+        <v>7.15085146041826</v>
       </c>
       <c r="T14">
-        <v>7.163862726823047</v>
+        <v>7.04612670328812</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.94525990363451</v>
+        <v>1.909621663730856</v>
       </c>
       <c r="C15">
-        <v>2.051173905071518</v>
+        <v>2.047896340521264</v>
       </c>
       <c r="D15">
-        <v>1.754833426633112</v>
+        <v>1.745631871477592</v>
       </c>
       <c r="E15">
-        <v>1.705449844085116</v>
+        <v>1.706885425962793</v>
       </c>
       <c r="F15">
-        <v>2.190705786692808</v>
+        <v>2.172926504307516</v>
       </c>
       <c r="G15">
-        <v>2.190691632538476</v>
+        <v>2.140645002146773</v>
       </c>
       <c r="H15">
-        <v>2.095270976073171</v>
+        <v>2.093567083953644</v>
       </c>
       <c r="I15">
-        <v>1.622013252735482</v>
+        <v>1.620574978957839</v>
       </c>
       <c r="J15">
-        <v>1.756587157920496</v>
+        <v>1.737402156555786</v>
       </c>
       <c r="K15">
-        <v>2.049986439560867</v>
+        <v>2.035054707416895</v>
       </c>
       <c r="L15">
-        <v>1.827050561883524</v>
+        <v>1.80442574496259</v>
       </c>
       <c r="M15">
-        <v>2.87587235352675</v>
+        <v>2.856933097977238</v>
       </c>
       <c r="N15">
-        <v>1.37934506506958</v>
+        <v>1.372397697088157</v>
       </c>
       <c r="O15">
-        <v>2.446032868286752</v>
+        <v>2.419635639153823</v>
       </c>
       <c r="P15">
-        <v>2.431587489190556</v>
+        <v>2.431064811793307</v>
       </c>
       <c r="Q15">
-        <v>1.798936112314317</v>
+        <v>1.769840497362856</v>
       </c>
       <c r="R15">
-        <v>1.415874944155105</v>
+        <v>1.403698176447428</v>
       </c>
       <c r="S15">
-        <v>1.684218879874988</v>
+        <v>1.607596128270772</v>
       </c>
       <c r="T15">
-        <v>2.742244919424123</v>
+        <v>2.697176912863502</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.955244128973952</v>
+        <v>1.919422972526737</v>
       </c>
       <c r="C16">
-        <v>1.827351343333395</v>
+        <v>1.824431424174439</v>
       </c>
       <c r="D16">
-        <v>2.205167248809532</v>
+        <v>2.193604346166402</v>
       </c>
       <c r="E16">
-        <v>2.327193937729738</v>
+        <v>2.329152879796801</v>
       </c>
       <c r="F16">
-        <v>2.269956125229498</v>
+        <v>2.251533664670062</v>
       </c>
       <c r="G16">
-        <v>1.832243914723561</v>
+        <v>1.790386068267389</v>
       </c>
       <c r="H16">
-        <v>2.036025958430321</v>
+        <v>2.034370244861366</v>
       </c>
       <c r="I16">
-        <v>1.678344662942842</v>
+        <v>1.676856438901216</v>
       </c>
       <c r="J16">
-        <v>1.56132367474094</v>
+        <v>1.544271291831504</v>
       </c>
       <c r="K16">
-        <v>1.693252632516193</v>
+        <v>1.680919285195992</v>
       </c>
       <c r="L16">
-        <v>1.71269746839437</v>
+        <v>1.691488713983424</v>
       </c>
       <c r="M16">
-        <v>2.142450570088566</v>
+        <v>2.128341314231176</v>
       </c>
       <c r="N16">
-        <v>1.695231627658331</v>
+        <v>1.686693229088358</v>
       </c>
       <c r="O16">
-        <v>1.973598142538225</v>
+        <v>1.952299359901099</v>
       </c>
       <c r="P16">
-        <v>1.683965067140923</v>
+        <v>1.68360309354044</v>
       </c>
       <c r="Q16">
-        <v>1.653582673834943</v>
+        <v>1.626837974877061</v>
       </c>
       <c r="R16">
-        <v>1.864831180117381</v>
+        <v>1.848793311668574</v>
       </c>
       <c r="S16">
-        <v>1.511431845762543</v>
+        <v>1.442669959603684</v>
       </c>
       <c r="T16">
-        <v>1.472411007263545</v>
+        <v>1.448212355835568</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.65670335152752</v>
+        <v>22.24161998505344</v>
       </c>
       <c r="C17">
-        <v>21.65563221445538</v>
+        <v>21.62102874554231</v>
       </c>
       <c r="D17">
-        <v>19.61725921748945</v>
+        <v>19.51439515646219</v>
       </c>
       <c r="E17">
-        <v>24.89211672917824</v>
+        <v>24.91306995263266</v>
       </c>
       <c r="F17">
-        <v>21.92404008232879</v>
+        <v>21.74610943458142</v>
       </c>
       <c r="G17">
-        <v>18.81130422666622</v>
+        <v>18.38155757687099</v>
       </c>
       <c r="H17">
-        <v>21.93400751774567</v>
+        <v>21.91617059689585</v>
       </c>
       <c r="I17">
-        <v>20.54853867931747</v>
+        <v>20.53031785140409</v>
       </c>
       <c r="J17">
-        <v>19.65730816410404</v>
+        <v>19.44261600820709</v>
       </c>
       <c r="K17">
-        <v>23.95788081550945</v>
+        <v>23.78337592505222</v>
       </c>
       <c r="L17">
-        <v>22.61332423748014</v>
+        <v>22.33329787613016</v>
       </c>
       <c r="M17">
-        <v>20.79349867099065</v>
+        <v>20.6565616526924</v>
       </c>
       <c r="N17">
-        <v>22.69262894886316</v>
+        <v>22.5783326442139</v>
       </c>
       <c r="O17">
-        <v>22.95252295007433</v>
+        <v>22.70482267778964</v>
       </c>
       <c r="P17">
-        <v>19.63335516976945</v>
+        <v>19.62913491817455</v>
       </c>
       <c r="Q17">
-        <v>18.91317962646826</v>
+        <v>18.60728183045838</v>
       </c>
       <c r="R17">
-        <v>18.45043849717563</v>
+        <v>18.29176155708827</v>
       </c>
       <c r="S17">
-        <v>29.02549351456263</v>
+        <v>27.70499223867075</v>
       </c>
       <c r="T17">
-        <v>27.00852543281873</v>
+        <v>26.56464808518393</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>17.51815537682832</v>
+        <v>17.19721305810657</v>
       </c>
       <c r="C18">
-        <v>15.4429573936386</v>
+        <v>15.418281138944</v>
       </c>
       <c r="D18">
-        <v>15.01439069444714</v>
+        <v>14.93566200031316</v>
       </c>
       <c r="E18">
-        <v>16.20094563053477</v>
+        <v>16.21458296148829</v>
       </c>
       <c r="F18">
-        <v>19.70664795714914</v>
+        <v>19.54671317219264</v>
       </c>
       <c r="G18">
-        <v>14.83317464413105</v>
+        <v>14.49430887319176</v>
       </c>
       <c r="H18">
-        <v>14.55257898156754</v>
+        <v>14.54074470097632</v>
       </c>
       <c r="I18">
-        <v>16.81658275307981</v>
+        <v>16.80167113015533</v>
       </c>
       <c r="J18">
-        <v>14.64397704777113</v>
+        <v>14.48403922835836</v>
       </c>
       <c r="K18">
-        <v>17.86545920764051</v>
+        <v>17.73533041928878</v>
       </c>
       <c r="L18">
-        <v>16.75532713010395</v>
+        <v>16.54784178915195</v>
       </c>
       <c r="M18">
-        <v>16.20383104647941</v>
+        <v>16.09711960057881</v>
       </c>
       <c r="N18">
-        <v>14.6182218003976</v>
+        <v>14.5445939833609</v>
       </c>
       <c r="O18">
-        <v>17.30987550510598</v>
+        <v>17.12306985915781</v>
       </c>
       <c r="P18">
-        <v>16.12832059994453</v>
+        <v>16.12485376658128</v>
       </c>
       <c r="Q18">
-        <v>12.40898787678039</v>
+        <v>12.20828751242133</v>
       </c>
       <c r="R18">
-        <v>16.22394812697752</v>
+        <v>16.08441938649155</v>
       </c>
       <c r="S18">
-        <v>19.59404966835124</v>
+        <v>18.70262752684776</v>
       </c>
       <c r="T18">
-        <v>13.83312163703106</v>
+        <v>13.60577826143552</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>13.77739894965092</v>
+        <v>13.52498936258308</v>
       </c>
       <c r="C19">
-        <v>15.19275574426706</v>
+        <v>15.16847928602773</v>
       </c>
       <c r="D19">
-        <v>17.51080644781642</v>
+        <v>17.41898767521852</v>
       </c>
       <c r="E19">
-        <v>15.65867881117761</v>
+        <v>15.67185968284479</v>
       </c>
       <c r="F19">
-        <v>14.00143225943125</v>
+        <v>13.88779973997059</v>
       </c>
       <c r="G19">
-        <v>14.75156377980712</v>
+        <v>14.41456241949601</v>
       </c>
       <c r="H19">
-        <v>14.93892325154838</v>
+        <v>14.92677479252174</v>
       </c>
       <c r="I19">
-        <v>13.86995295738006</v>
+        <v>13.85765417399954</v>
       </c>
       <c r="J19">
-        <v>14.78042622878817</v>
+        <v>14.61899814587654</v>
       </c>
       <c r="K19">
-        <v>16.28892593134631</v>
+        <v>16.17028032753833</v>
       </c>
       <c r="L19">
-        <v>12.46448719031775</v>
+        <v>12.31013637672914</v>
       </c>
       <c r="M19">
-        <v>16.59036414856169</v>
+        <v>16.48110716228282</v>
       </c>
       <c r="N19">
-        <v>15.84395619288662</v>
+        <v>15.76415470104746</v>
       </c>
       <c r="O19">
-        <v>11.89223651475599</v>
+        <v>11.76389723679573</v>
       </c>
       <c r="P19">
-        <v>20.02047357600875</v>
+        <v>20.0161701120919</v>
       </c>
       <c r="Q19">
-        <v>12.77911467373302</v>
+        <v>12.57242795627691</v>
       </c>
       <c r="R19">
-        <v>20.58880042105521</v>
+        <v>20.41173320114158</v>
       </c>
       <c r="S19">
-        <v>13.81477808001131</v>
+        <v>13.18628120116701</v>
       </c>
       <c r="T19">
-        <v>12.5483794538023</v>
+        <v>12.34215044648668</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5932293889184797</v>
+        <v>0.5823610976219419</v>
       </c>
       <c r="C20">
-        <v>0.797767559338026</v>
+        <v>0.7964928089790418</v>
       </c>
       <c r="D20">
-        <v>1.459505811365243</v>
+        <v>1.451852821047611</v>
       </c>
       <c r="E20">
-        <v>1.122616499310397</v>
+        <v>1.123561474565799</v>
       </c>
       <c r="F20">
-        <v>0.6671584621711207</v>
+        <v>0.6617439520316356</v>
       </c>
       <c r="G20">
-        <v>1.458594173162032</v>
+        <v>1.425272402817227</v>
       </c>
       <c r="H20">
-        <v>0.5332051587856456</v>
+        <v>0.5327715518304971</v>
       </c>
       <c r="I20">
-        <v>0.6436692019282273</v>
+        <v>0.6430984467059454</v>
       </c>
       <c r="J20">
-        <v>1.705614762712981</v>
+        <v>1.686986468977157</v>
       </c>
       <c r="K20">
-        <v>1.343916531147561</v>
+        <v>1.334127685094877</v>
       </c>
       <c r="L20">
-        <v>1.307263773296461</v>
+        <v>1.291075604148198</v>
       </c>
       <c r="M20">
-        <v>1.029929013454296</v>
+        <v>1.023146344967724</v>
       </c>
       <c r="N20">
-        <v>1.246215815499758</v>
+        <v>1.239938981606776</v>
       </c>
       <c r="O20">
-        <v>0.7157095493765039</v>
+        <v>0.7079857165480636</v>
       </c>
       <c r="P20">
-        <v>1.500890320856924</v>
+        <v>1.500567699750363</v>
       </c>
       <c r="Q20">
-        <v>0.9065858791754785</v>
+        <v>0.8919229495248044</v>
       </c>
       <c r="R20">
-        <v>0.6834111591870206</v>
+        <v>0.677533705836633</v>
       </c>
       <c r="S20">
-        <v>0.6866011092362937</v>
+        <v>0.6553645123350068</v>
       </c>
       <c r="T20">
-        <v>0.5174047017781366</v>
+        <v>0.5089013043138684</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>35.67696521293747</v>
+        <v>35.02334343061553</v>
       </c>
       <c r="C21">
-        <v>31.12332657597801</v>
+        <v>31.07359470701302</v>
       </c>
       <c r="D21">
-        <v>31.20519691711602</v>
+        <v>31.04157093631702</v>
       </c>
       <c r="E21">
-        <v>33.06916920977469</v>
+        <v>33.09700556051349</v>
       </c>
       <c r="F21">
-        <v>32.0292669226807</v>
+        <v>31.76932449468726</v>
       </c>
       <c r="G21">
-        <v>27.35964221134156</v>
+        <v>26.73460768751238</v>
       </c>
       <c r="H21">
-        <v>33.60026937217777</v>
+        <v>33.57294534829207</v>
       </c>
       <c r="I21">
-        <v>34.37624307904202</v>
+        <v>34.3457609304461</v>
       </c>
       <c r="J21">
-        <v>27.87170569946887</v>
+        <v>27.56729796799363</v>
       </c>
       <c r="K21">
-        <v>33.70970083112699</v>
+        <v>33.46416543940428</v>
       </c>
       <c r="L21">
-        <v>34.91147965545004</v>
+        <v>34.47916220779869</v>
       </c>
       <c r="M21">
-        <v>32.8041063002227</v>
+        <v>32.58807259777712</v>
       </c>
       <c r="N21">
-        <v>27.19066454083764</v>
+        <v>27.05371291284519</v>
       </c>
       <c r="O21">
-        <v>32.54651812762132</v>
+        <v>32.1952808619113</v>
       </c>
       <c r="P21">
-        <v>36.84802679722299</v>
+        <v>36.84010619768637</v>
       </c>
       <c r="Q21">
-        <v>26.05647695874844</v>
+        <v>25.63504497159019</v>
       </c>
       <c r="R21">
-        <v>31.78859570744007</v>
+        <v>31.51520832440835</v>
       </c>
       <c r="S21">
-        <v>23.52904701890149</v>
+        <v>22.45860401012402</v>
       </c>
       <c r="T21">
-        <v>27.28038214053266</v>
+        <v>26.83203690609461</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>78.21059717773635</v>
+        <v>76.77773567680248</v>
       </c>
       <c r="C22">
-        <v>66.54004950586837</v>
+        <v>66.43372536295033</v>
       </c>
       <c r="D22">
-        <v>73.49741673890149</v>
+        <v>73.11202942883136</v>
       </c>
       <c r="E22">
-        <v>82.06856458454249</v>
+        <v>82.13764673577263</v>
       </c>
       <c r="F22">
-        <v>79.37649213681036</v>
+        <v>78.73229012802089</v>
       </c>
       <c r="G22">
-        <v>81.31562502064203</v>
+        <v>79.45795917208865</v>
       </c>
       <c r="H22">
-        <v>72.30896125153194</v>
+        <v>72.25015899127318</v>
       </c>
       <c r="I22">
-        <v>83.39533919963274</v>
+        <v>83.32139077205602</v>
       </c>
       <c r="J22">
-        <v>68.33908235006227</v>
+        <v>67.59270014964753</v>
       </c>
       <c r="K22">
-        <v>78.05072668602313</v>
+        <v>77.48221924517991</v>
       </c>
       <c r="L22">
-        <v>76.7586476932801</v>
+        <v>75.80812646119742</v>
       </c>
       <c r="M22">
-        <v>87.42833658316314</v>
+        <v>86.85257124824254</v>
       </c>
       <c r="N22">
-        <v>66.61582834243806</v>
+        <v>66.28030340049115</v>
       </c>
       <c r="O22">
-        <v>83.12858478373036</v>
+        <v>82.2314732491788</v>
       </c>
       <c r="P22">
-        <v>65.28268023217869</v>
+        <v>65.26864751423584</v>
       </c>
       <c r="Q22">
-        <v>61.32941085942875</v>
+        <v>60.33748184574618</v>
       </c>
       <c r="R22">
-        <v>70.99993451612312</v>
+        <v>70.38932288447297</v>
       </c>
       <c r="S22">
-        <v>61.78864339861025</v>
+        <v>58.97759791535061</v>
       </c>
       <c r="T22">
-        <v>67.47045006899066</v>
+        <v>66.36159262711202</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>13.12093613358264</v>
+        <v>12.88055330925389</v>
       </c>
       <c r="C23">
-        <v>12.20392517877119</v>
+        <v>12.18442456381065</v>
       </c>
       <c r="D23">
-        <v>12.84593544201069</v>
+        <v>12.77857714936595</v>
       </c>
       <c r="E23">
-        <v>19.20949161762472</v>
+        <v>19.22566142651198</v>
       </c>
       <c r="F23">
-        <v>26.12026464015418</v>
+        <v>25.9082783643901</v>
       </c>
       <c r="G23">
-        <v>12.39364988605588</v>
+        <v>12.11051537007068</v>
       </c>
       <c r="H23">
-        <v>10.51640785003989</v>
+        <v>10.50785581802779</v>
       </c>
       <c r="I23">
-        <v>8.843202999464385</v>
+        <v>8.835361542581682</v>
       </c>
       <c r="J23">
-        <v>12.35021926343298</v>
+        <v>12.21533328732012</v>
       </c>
       <c r="K23">
-        <v>11.28561099245016</v>
+        <v>11.20340863385484</v>
       </c>
       <c r="L23">
-        <v>8.164984137388435</v>
+        <v>8.063875128626085</v>
       </c>
       <c r="M23">
-        <v>11.00215267700455</v>
+        <v>10.92969724243388</v>
       </c>
       <c r="N23">
-        <v>24.33035504268364</v>
+        <v>24.20780997844935</v>
       </c>
       <c r="O23">
-        <v>8.461480298951221</v>
+        <v>8.370165240535171</v>
       </c>
       <c r="P23">
-        <v>9.811838604806734</v>
+        <v>9.809729519163309</v>
       </c>
       <c r="Q23">
-        <v>12.04785201416669</v>
+        <v>11.85299258542054</v>
       </c>
       <c r="R23">
-        <v>8.358068592831048</v>
+        <v>8.286187767366998</v>
       </c>
       <c r="S23">
-        <v>26.36275437834559</v>
+        <v>25.16339317626426</v>
       </c>
       <c r="T23">
-        <v>28.57038606649138</v>
+        <v>28.10083998854495</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2379573705900213</v>
+        <v>0.2335978596351688</v>
       </c>
       <c r="C24">
-        <v>0.2909693302595606</v>
+        <v>0.290504391250873</v>
       </c>
       <c r="D24">
-        <v>0.2969592595511171</v>
+        <v>0.2954021391063893</v>
       </c>
       <c r="E24">
-        <v>0.1258390176218144</v>
+        <v>0.1259449440516235</v>
       </c>
       <c r="F24">
-        <v>0.1940824617225079</v>
+        <v>0.1925073315001122</v>
       </c>
       <c r="G24">
-        <v>0.3648485699187529</v>
+        <v>0.3565135576986591</v>
       </c>
       <c r="H24">
-        <v>0.3546356689888879</v>
+        <v>0.3543472762565904</v>
       </c>
       <c r="I24">
-        <v>0.1391717193358329</v>
+        <v>0.1390483128012855</v>
       </c>
       <c r="J24">
-        <v>0.1999686273525564</v>
+        <v>0.1977846205007703</v>
       </c>
       <c r="K24">
-        <v>0.1446662443314806</v>
+        <v>0.1436125214536381</v>
       </c>
       <c r="L24">
-        <v>0.2122462720063838</v>
+        <v>0.209617974165877</v>
       </c>
       <c r="M24">
-        <v>0.1494925031557558</v>
+        <v>0.1485080099752671</v>
       </c>
       <c r="N24">
-        <v>0.1591249018526872</v>
+        <v>0.1583234350724202</v>
       </c>
       <c r="O24">
-        <v>0.3761211436978611</v>
+        <v>0.3720620992996204</v>
       </c>
       <c r="P24">
-        <v>0.2564659441335313</v>
+        <v>0.2564108159702393</v>
       </c>
       <c r="Q24">
-        <v>0.3131842128060743</v>
+        <v>0.3081188371085688</v>
       </c>
       <c r="R24">
-        <v>0.2593969363337597</v>
+        <v>0.2571660781277731</v>
       </c>
       <c r="S24">
-        <v>0.3064696341889153</v>
+        <v>0.2925269412674137</v>
       </c>
       <c r="T24">
-        <v>0.3437671916898806</v>
+        <v>0.3381174767644685</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.428662813819134</v>
+        <v>2.384168364598104</v>
       </c>
       <c r="C25">
-        <v>2.336547671287625</v>
+        <v>2.332814108863467</v>
       </c>
       <c r="D25">
-        <v>3.019357746150232</v>
+        <v>3.00352559569436</v>
       </c>
       <c r="E25">
-        <v>2.010112728853719</v>
+        <v>2.011804764193039</v>
       </c>
       <c r="F25">
-        <v>2.528732740859509</v>
+        <v>2.508210106670211</v>
       </c>
       <c r="G25">
-        <v>1.563408126362375</v>
+        <v>1.527691867857851</v>
       </c>
       <c r="H25">
-        <v>2.58508541771194</v>
+        <v>2.582983204336275</v>
       </c>
       <c r="I25">
-        <v>1.952546086158085</v>
+        <v>1.950814721860892</v>
       </c>
       <c r="J25">
-        <v>2.577634816109227</v>
+        <v>2.549482539553066</v>
       </c>
       <c r="K25">
-        <v>3.366778049896275</v>
+        <v>3.342255044739215</v>
       </c>
       <c r="L25">
-        <v>3.25906316444088</v>
+        <v>3.218705382906242</v>
       </c>
       <c r="M25">
-        <v>2.443087427263678</v>
+        <v>2.426998306667625</v>
       </c>
       <c r="N25">
-        <v>1.869323723249637</v>
+        <v>1.859908472410164</v>
       </c>
       <c r="O25">
-        <v>2.432748236279764</v>
+        <v>2.406494372953395</v>
       </c>
       <c r="P25">
-        <v>3.063880886048067</v>
+        <v>3.063222295191633</v>
       </c>
       <c r="Q25">
-        <v>2.07091187606696</v>
+        <v>2.037417382220297</v>
       </c>
       <c r="R25">
-        <v>2.912395730696026</v>
+        <v>2.887348627184581</v>
       </c>
       <c r="S25">
-        <v>0.8957643610566215</v>
+        <v>0.8550119796688501</v>
       </c>
       <c r="T25">
-        <v>2.951837671500352</v>
+        <v>2.903325068339798</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.16458109228534</v>
+        <v>26.6669109063938</v>
       </c>
       <c r="C26">
-        <v>26.49259764687461</v>
+        <v>26.4502652055946</v>
       </c>
       <c r="D26">
-        <v>28.28210618367741</v>
+        <v>28.13380757253077</v>
       </c>
       <c r="E26">
-        <v>29.6715157339857</v>
+        <v>29.69649207111965</v>
       </c>
       <c r="F26">
-        <v>27.17558802577032</v>
+        <v>26.95503697942195</v>
       </c>
       <c r="G26">
-        <v>25.22095750214677</v>
+        <v>24.64478150389722</v>
       </c>
       <c r="H26">
-        <v>28.22733037777906</v>
+        <v>28.20437567343045</v>
       </c>
       <c r="I26">
-        <v>26.22641346698294</v>
+        <v>26.2031579462851</v>
       </c>
       <c r="J26">
-        <v>25.92063924906431</v>
+        <v>25.63754057267631</v>
       </c>
       <c r="K26">
-        <v>28.26498945356036</v>
+        <v>28.05911235924008</v>
       </c>
       <c r="L26">
-        <v>30.21520602056593</v>
+        <v>29.84104368554065</v>
       </c>
       <c r="M26">
-        <v>26.0422547900781</v>
+        <v>25.8707517266859</v>
       </c>
       <c r="N26">
-        <v>26.46830050618955</v>
+        <v>26.33498721996692</v>
       </c>
       <c r="O26">
-        <v>24.47859505187713</v>
+        <v>24.21442563256382</v>
       </c>
       <c r="P26">
-        <v>24.29087349483594</v>
+        <v>24.28565209499257</v>
       </c>
       <c r="Q26">
-        <v>23.85444729023874</v>
+        <v>23.46863046857085</v>
       </c>
       <c r="R26">
-        <v>29.04913126763321</v>
+        <v>28.79930374930895</v>
       </c>
       <c r="S26">
-        <v>34.200010483509</v>
+        <v>32.64409697401669</v>
       </c>
       <c r="T26">
-        <v>27.70395243029341</v>
+        <v>27.24864593996511</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>7.880881867932455</v>
+        <v>7.736499742882234</v>
       </c>
       <c r="C27">
-        <v>8.546824393228633</v>
+        <v>8.533167448500917</v>
       </c>
       <c r="D27">
-        <v>7.992609521489821</v>
+        <v>7.950699881388178</v>
       </c>
       <c r="E27">
-        <v>7.225808853968393</v>
+        <v>7.23189126106954</v>
       </c>
       <c r="F27">
-        <v>8.326137607895587</v>
+        <v>8.258564521354812</v>
       </c>
       <c r="G27">
-        <v>6.853712390184293</v>
+        <v>6.697138454488408</v>
       </c>
       <c r="H27">
-        <v>7.647613897136841</v>
+        <v>7.641394792686237</v>
       </c>
       <c r="I27">
-        <v>6.734917132144773</v>
+        <v>6.728945137347924</v>
       </c>
       <c r="J27">
-        <v>8.248901925966827</v>
+        <v>8.158809502147458</v>
       </c>
       <c r="K27">
-        <v>8.466263162580967</v>
+        <v>8.404596425979959</v>
       </c>
       <c r="L27">
-        <v>7.734427414175487</v>
+        <v>7.638650095318163</v>
       </c>
       <c r="M27">
-        <v>7.007977288820928</v>
+        <v>6.961825771492493</v>
       </c>
       <c r="N27">
-        <v>7.749067621410314</v>
+        <v>7.710037776274243</v>
       </c>
       <c r="O27">
-        <v>6.742781033047087</v>
+        <v>6.670013925854785</v>
       </c>
       <c r="P27">
-        <v>8.296431343715838</v>
+        <v>8.294647999641047</v>
       </c>
       <c r="Q27">
-        <v>7.891792615996127</v>
+        <v>7.764152419293194</v>
       </c>
       <c r="R27">
-        <v>8.107817061303926</v>
+        <v>8.038088441993731</v>
       </c>
       <c r="S27">
-        <v>8.251035581590587</v>
+        <v>7.875658570086778</v>
       </c>
       <c r="T27">
-        <v>8.078529004712193</v>
+        <v>7.94576070396501</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6772632855254452</v>
+        <v>0.664855446653942</v>
       </c>
       <c r="C28">
-        <v>0.509995694246153</v>
+        <v>0.5091807736759807</v>
       </c>
       <c r="D28">
-        <v>0.3010383702592368</v>
+        <v>0.2994598607974112</v>
       </c>
       <c r="E28">
-        <v>0.716123356860983</v>
+        <v>0.716726161872726</v>
       </c>
       <c r="F28">
-        <v>0.1956998155701954</v>
+        <v>0.1941115592626131</v>
       </c>
       <c r="G28">
-        <v>0.3016401553933549</v>
+        <v>0.2947491474833213</v>
       </c>
       <c r="H28">
-        <v>0.7109402117141941</v>
+        <v>0.7103620691073295</v>
       </c>
       <c r="I28">
-        <v>0.3545565230698601</v>
+        <v>0.3542421302318464</v>
       </c>
       <c r="J28">
-        <v>0.6218632215316754</v>
+        <v>0.615071388459258</v>
       </c>
       <c r="K28">
-        <v>0.7471682732802036</v>
+        <v>0.7417260340986197</v>
       </c>
       <c r="L28">
-        <v>0.5596371090454037</v>
+        <v>0.5527069849434961</v>
       </c>
       <c r="M28">
-        <v>0.4608663909442637</v>
+        <v>0.4578313235701604</v>
       </c>
       <c r="N28">
-        <v>0.5766308324562722</v>
+        <v>0.5737265072921365</v>
       </c>
       <c r="O28">
-        <v>0.1627367420856088</v>
+        <v>0.1609805109552442</v>
       </c>
       <c r="P28">
-        <v>0.4806720210804548</v>
+        <v>0.4805686991140335</v>
       </c>
       <c r="Q28">
-        <v>0.7125315463602313</v>
+        <v>0.7010072107422224</v>
       </c>
       <c r="R28">
-        <v>0.6676145508846444</v>
+        <v>0.661872951078852</v>
       </c>
       <c r="S28">
-        <v>0.2355360096585431</v>
+        <v>0.2248204088672408</v>
       </c>
       <c r="T28">
-        <v>0.2122236234412017</v>
+        <v>0.2087357892270443</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.85285294397286</v>
+        <v>10.65402266112287</v>
       </c>
       <c r="C29">
-        <v>11.04084722402487</v>
+        <v>11.02320508779411</v>
       </c>
       <c r="D29">
-        <v>10.30464947085209</v>
+        <v>10.25061653585935</v>
       </c>
       <c r="E29">
-        <v>13.39771593535409</v>
+        <v>13.40899361570673</v>
       </c>
       <c r="F29">
-        <v>15.33979256839272</v>
+        <v>15.21529821344012</v>
       </c>
       <c r="G29">
-        <v>10.69422365248695</v>
+        <v>10.44991274605324</v>
       </c>
       <c r="H29">
-        <v>9.400765757244262</v>
+        <v>9.393120974839407</v>
       </c>
       <c r="I29">
-        <v>9.844742336827611</v>
+        <v>9.83601279363379</v>
       </c>
       <c r="J29">
-        <v>11.93146143203587</v>
+        <v>11.80114902321262</v>
       </c>
       <c r="K29">
-        <v>11.86181006788407</v>
+        <v>11.77541077896279</v>
       </c>
       <c r="L29">
-        <v>9.247873280278149</v>
+        <v>9.13335458865607</v>
       </c>
       <c r="M29">
-        <v>11.66867450046695</v>
+        <v>11.59182964050041</v>
       </c>
       <c r="N29">
-        <v>9.953971583220568</v>
+        <v>9.903836265223273</v>
       </c>
       <c r="O29">
-        <v>11.79509264320489</v>
+        <v>11.66780172770509</v>
       </c>
       <c r="P29">
-        <v>10.16105166710176</v>
+        <v>10.15886751700958</v>
       </c>
       <c r="Q29">
-        <v>10.08558059469514</v>
+        <v>9.92245853186231</v>
       </c>
       <c r="R29">
-        <v>8.712245178979062</v>
+        <v>8.637318374041456</v>
       </c>
       <c r="S29">
-        <v>13.35370952056389</v>
+        <v>12.74618874056588</v>
       </c>
       <c r="T29">
-        <v>12.47208418421806</v>
+        <v>12.26710906771498</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>21.41533133432364</v>
+        <v>21.0229905914322</v>
       </c>
       <c r="C30">
-        <v>25.1656496022843</v>
+        <v>25.1254374872527</v>
       </c>
       <c r="D30">
-        <v>25.35167305096419</v>
+        <v>25.21874030970069</v>
       </c>
       <c r="E30">
-        <v>25.04693183638402</v>
+        <v>25.06801537722249</v>
       </c>
       <c r="F30">
-        <v>26.05476180932284</v>
+        <v>25.84330714000881</v>
       </c>
       <c r="G30">
-        <v>22.72142475559812</v>
+        <v>22.20235090247044</v>
       </c>
       <c r="H30">
-        <v>22.15513328782109</v>
+        <v>22.13711654562054</v>
       </c>
       <c r="I30">
-        <v>20.18735493151734</v>
+        <v>20.1694543729436</v>
       </c>
       <c r="J30">
-        <v>28.78764043181312</v>
+        <v>28.47322909248343</v>
       </c>
       <c r="K30">
-        <v>27.20793950918374</v>
+        <v>27.00976177634588</v>
       </c>
       <c r="L30">
-        <v>20.6008830543339</v>
+        <v>20.34577724761043</v>
       </c>
       <c r="M30">
-        <v>21.22793544811732</v>
+        <v>21.08813741648793</v>
       </c>
       <c r="N30">
-        <v>29.20020723700697</v>
+        <v>29.05313411517065</v>
       </c>
       <c r="O30">
-        <v>21.70044638341567</v>
+        <v>21.46625833839929</v>
       </c>
       <c r="P30">
-        <v>29.33792971618072</v>
+        <v>29.33162343568993</v>
       </c>
       <c r="Q30">
-        <v>24.94834430147527</v>
+        <v>24.54483501923714</v>
       </c>
       <c r="R30">
-        <v>27.23667831504477</v>
+        <v>27.00243820341618</v>
       </c>
       <c r="S30">
-        <v>26.9184011038335</v>
+        <v>25.69376101339894</v>
       </c>
       <c r="T30">
-        <v>23.4007238343183</v>
+        <v>23.01613966832418</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.92440655890553</v>
+        <v>10.72426537416002</v>
       </c>
       <c r="C31">
-        <v>10.44931616800268</v>
+        <v>10.43261923744893</v>
       </c>
       <c r="D31">
-        <v>12.23977959078409</v>
+        <v>12.17559970608011</v>
       </c>
       <c r="E31">
-        <v>10.37509584760906</v>
+        <v>10.38382920299307</v>
       </c>
       <c r="F31">
-        <v>11.88431607280823</v>
+        <v>11.78786559885687</v>
       </c>
       <c r="G31">
-        <v>10.5662066104102</v>
+        <v>10.32482026966774</v>
       </c>
       <c r="H31">
-        <v>10.6908051554956</v>
+        <v>10.68211130211632</v>
       </c>
       <c r="I31">
-        <v>8.601309296809244</v>
+        <v>8.59368233223659</v>
       </c>
       <c r="J31">
-        <v>10.35602232477592</v>
+        <v>10.24291646405165</v>
       </c>
       <c r="K31">
-        <v>11.04066473784345</v>
+        <v>10.96024652366629</v>
       </c>
       <c r="L31">
-        <v>9.874216360525558</v>
+        <v>9.751941508337413</v>
       </c>
       <c r="M31">
-        <v>11.06822671154853</v>
+        <v>10.99533614187047</v>
       </c>
       <c r="N31">
-        <v>12.09585578192085</v>
+        <v>12.03493240364857</v>
       </c>
       <c r="O31">
-        <v>11.43557728951576</v>
+        <v>11.31216621115601</v>
       </c>
       <c r="P31">
-        <v>12.16600241274943</v>
+        <v>12.16338729217315</v>
       </c>
       <c r="Q31">
-        <v>10.85730245878666</v>
+        <v>10.68169872856524</v>
       </c>
       <c r="R31">
-        <v>10.2237311733854</v>
+        <v>10.13580532928598</v>
       </c>
       <c r="S31">
-        <v>12.68893414195233</v>
+        <v>12.11165700743093</v>
       </c>
       <c r="T31">
-        <v>12.42209762828357</v>
+        <v>12.21794402645076</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>9.212111913191315</v>
+        <v>9.043340915666395</v>
       </c>
       <c r="C32">
-        <v>12.95692822576159</v>
+        <v>12.93622438952033</v>
       </c>
       <c r="D32">
-        <v>14.47105314812559</v>
+        <v>14.39517347106905</v>
       </c>
       <c r="E32">
-        <v>10.28154447266653</v>
+        <v>10.29019908011258</v>
       </c>
       <c r="F32">
-        <v>11.1079862259182</v>
+        <v>11.01783627285642</v>
       </c>
       <c r="G32">
-        <v>12.39605020559482</v>
+        <v>12.11286085400291</v>
       </c>
       <c r="H32">
-        <v>12.09349353095518</v>
+        <v>12.08365899949827</v>
       </c>
       <c r="I32">
-        <v>10.61929922717882</v>
+        <v>10.60988286785523</v>
       </c>
       <c r="J32">
-        <v>16.6734625677257</v>
+        <v>16.4913592199505</v>
       </c>
       <c r="K32">
-        <v>12.72323179549425</v>
+        <v>12.63055806580037</v>
       </c>
       <c r="L32">
-        <v>9.456654307027286</v>
+        <v>9.339550228549852</v>
       </c>
       <c r="M32">
-        <v>9.915234808756068</v>
+        <v>9.849937346702108</v>
       </c>
       <c r="N32">
-        <v>16.58601390350658</v>
+        <v>16.50247487846439</v>
       </c>
       <c r="O32">
-        <v>14.44288586009778</v>
+        <v>14.28702034727792</v>
       </c>
       <c r="P32">
-        <v>19.26478618716246</v>
+        <v>19.26064516063241</v>
       </c>
       <c r="Q32">
-        <v>15.06356124034958</v>
+        <v>14.81992636379851</v>
       </c>
       <c r="R32">
-        <v>16.99049932986126</v>
+        <v>16.84437811736914</v>
       </c>
       <c r="S32">
-        <v>10.73280303471091</v>
+        <v>10.24451917162616</v>
       </c>
       <c r="T32">
-        <v>15.14592644815287</v>
+        <v>14.89700750305902</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.491064222190643</v>
+        <v>2.445426544572362</v>
       </c>
       <c r="C33">
-        <v>3.025601414924278</v>
+        <v>3.020766815616907</v>
       </c>
       <c r="D33">
-        <v>2.546180904008342</v>
+        <v>2.532829879535827</v>
       </c>
       <c r="E33">
-        <v>4.722274713913349</v>
+        <v>4.726249742568819</v>
       </c>
       <c r="F33">
-        <v>4.037723880752008</v>
+        <v>4.004954609083584</v>
       </c>
       <c r="G33">
-        <v>2.460327527412643</v>
+        <v>2.404121030533721</v>
       </c>
       <c r="H33">
-        <v>2.870462826639469</v>
+        <v>2.868128541935696</v>
       </c>
       <c r="I33">
-        <v>2.147220812609994</v>
+        <v>2.145316826076976</v>
       </c>
       <c r="J33">
-        <v>4.972553200166903</v>
+        <v>4.91824422978582</v>
       </c>
       <c r="K33">
-        <v>2.850582587168038</v>
+        <v>2.829819456825097</v>
       </c>
       <c r="L33">
-        <v>1.989917088974137</v>
+        <v>1.9652754557511</v>
       </c>
       <c r="M33">
-        <v>2.965898225592923</v>
+        <v>2.946366098459581</v>
       </c>
       <c r="N33">
-        <v>5.764732830484973</v>
+        <v>5.735697514158272</v>
       </c>
       <c r="O33">
-        <v>1.707905502398455</v>
+        <v>1.689474035892537</v>
       </c>
       <c r="P33">
-        <v>4.331693666481751</v>
+        <v>4.330762555270931</v>
       </c>
       <c r="Q33">
-        <v>3.967249777053023</v>
+        <v>3.903084312176727</v>
       </c>
       <c r="R33">
-        <v>2.076838291544012</v>
+        <v>2.058977125523004</v>
       </c>
       <c r="S33">
-        <v>1.816992074508761</v>
+        <v>1.734328868404429</v>
       </c>
       <c r="T33">
-        <v>2.218701517794382</v>
+        <v>2.182237796464554</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.225563660416439</v>
+        <v>1.203110654694419</v>
       </c>
       <c r="C34">
-        <v>1.489219401850443</v>
+        <v>1.486839782693342</v>
       </c>
       <c r="D34">
-        <v>1.253102809534384</v>
+        <v>1.246532103481907</v>
       </c>
       <c r="E34">
-        <v>2.323882384634427</v>
+        <v>2.325838539163863</v>
       </c>
       <c r="F34">
-        <v>1.986919201884174</v>
+        <v>1.970793806232398</v>
       </c>
       <c r="G34">
-        <v>1.210561154138318</v>
+        <v>1.182905729820332</v>
       </c>
       <c r="H34">
-        <v>1.412701617878088</v>
+        <v>1.411552796946841</v>
       </c>
       <c r="I34">
-        <v>1.056213941388018</v>
+        <v>1.055277373938327</v>
       </c>
       <c r="J34">
-        <v>2.44667496996069</v>
+        <v>2.41995300377413</v>
       </c>
       <c r="K34">
-        <v>1.403098176555894</v>
+        <v>1.392878262053184</v>
       </c>
       <c r="L34">
-        <v>0.9797980964866124</v>
+        <v>0.9676650154351302</v>
       </c>
       <c r="M34">
-        <v>1.459410237990168</v>
+        <v>1.449799191305508</v>
       </c>
       <c r="N34">
-        <v>2.837464834026629</v>
+        <v>2.823173332330978</v>
       </c>
       <c r="O34">
-        <v>0.8410832639424576</v>
+        <v>0.8320064163146036</v>
       </c>
       <c r="P34">
-        <v>2.131570724355104</v>
+        <v>2.131112536507366</v>
       </c>
       <c r="Q34">
-        <v>1.952531240604377</v>
+        <v>1.920951410298877</v>
       </c>
       <c r="R34">
-        <v>1.021791137032662</v>
+        <v>1.013003557753311</v>
       </c>
       <c r="S34">
-        <v>0.8939455501712274</v>
+        <v>0.8532759147355123</v>
       </c>
       <c r="T34">
-        <v>1.091811616464034</v>
+        <v>1.073868006560621</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.495310887582796</v>
+        <v>3.431274854291413</v>
       </c>
       <c r="C35">
-        <v>4.560384695414267</v>
+        <v>4.553097670566567</v>
       </c>
       <c r="D35">
-        <v>4.946329644665997</v>
+        <v>4.920393322533073</v>
       </c>
       <c r="E35">
-        <v>4.7984404351055</v>
+        <v>4.802479577126382</v>
       </c>
       <c r="F35">
-        <v>5.080108435586644</v>
+        <v>5.038879402015437</v>
       </c>
       <c r="G35">
-        <v>3.695691983453331</v>
+        <v>3.611263427653742</v>
       </c>
       <c r="H35">
-        <v>5.932011696098833</v>
+        <v>5.927187733901414</v>
       </c>
       <c r="I35">
-        <v>3.673967709847732</v>
+        <v>3.670709924248221</v>
       </c>
       <c r="J35">
-        <v>7.619196797480148</v>
+        <v>7.535981854060719</v>
       </c>
       <c r="K35">
-        <v>3.517198065309121</v>
+        <v>3.491579427841577</v>
       </c>
       <c r="L35">
-        <v>3.027758043519638</v>
+        <v>2.990264570243838</v>
       </c>
       <c r="M35">
-        <v>4.711078662985806</v>
+        <v>4.680053529828307</v>
       </c>
       <c r="N35">
-        <v>6.023901606274745</v>
+        <v>5.993560930687114</v>
       </c>
       <c r="O35">
-        <v>3.074562020117394</v>
+        <v>3.041381796261577</v>
       </c>
       <c r="P35">
-        <v>6.506815211538775</v>
+        <v>6.505416551093997</v>
       </c>
       <c r="Q35">
-        <v>8.28364750426784</v>
+        <v>8.149669528881189</v>
       </c>
       <c r="R35">
-        <v>7.162514764472244</v>
+        <v>7.100915907278095</v>
       </c>
       <c r="S35">
-        <v>2.72912573353393</v>
+        <v>2.604965432473318</v>
       </c>
       <c r="T35">
-        <v>3.333314019421521</v>
+        <v>3.278531962198329</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.223154175582297</v>
+        <v>2.18242475854955</v>
       </c>
       <c r="C36">
-        <v>1.991221433177378</v>
+        <v>1.988039666499793</v>
       </c>
       <c r="D36">
-        <v>3.541483916789559</v>
+        <v>3.522913972145155</v>
       </c>
       <c r="E36">
-        <v>2.504362028328871</v>
+        <v>2.506470103658955</v>
       </c>
       <c r="F36">
-        <v>2.923367079695275</v>
+        <v>2.89964168072044</v>
       </c>
       <c r="G36">
-        <v>1.661021120945901</v>
+        <v>1.62307488110179</v>
       </c>
       <c r="H36">
-        <v>2.238794117405144</v>
+        <v>2.236973511050428</v>
       </c>
       <c r="I36">
-        <v>1.723078429872217</v>
+        <v>1.721550539444487</v>
       </c>
       <c r="J36">
-        <v>2.522741467424212</v>
+        <v>2.495188722160697</v>
       </c>
       <c r="K36">
-        <v>2.708382244728571</v>
+        <v>2.688654876078055</v>
       </c>
       <c r="L36">
-        <v>1.894622844399841</v>
+        <v>1.871161263268461</v>
       </c>
       <c r="M36">
-        <v>2.158143153292762</v>
+        <v>2.143930552847364</v>
       </c>
       <c r="N36">
-        <v>2.623985386491588</v>
+        <v>2.610769119931839</v>
       </c>
       <c r="O36">
-        <v>2.372137102747879</v>
+        <v>2.346537345913942</v>
       </c>
       <c r="P36">
-        <v>2.924356960465989</v>
+        <v>2.923728360717258</v>
       </c>
       <c r="Q36">
-        <v>2.967757576375264</v>
+        <v>2.919757688485744</v>
       </c>
       <c r="R36">
-        <v>2.79932527126849</v>
+        <v>2.775250593128885</v>
       </c>
       <c r="S36">
-        <v>1.225878536755661</v>
+        <v>1.170107765069655</v>
       </c>
       <c r="T36">
-        <v>1.497842763791622</v>
+        <v>1.47322614875947</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>100.0469300138731</v>
+        <v>98.21401478912766</v>
       </c>
       <c r="C37">
-        <v>88.92470377855649</v>
+        <v>88.78261126459373</v>
       </c>
       <c r="D37">
-        <v>98.5398931981902</v>
+        <v>98.02319443435259</v>
       </c>
       <c r="E37">
-        <v>85.92569605230587</v>
+        <v>85.99802498798654</v>
       </c>
       <c r="F37">
-        <v>90.57343282435136</v>
+        <v>89.83835892781485</v>
       </c>
       <c r="G37">
-        <v>82.38376721546996</v>
+        <v>80.50169952193011</v>
       </c>
       <c r="H37">
-        <v>90.12251951406083</v>
+        <v>90.04923111721598</v>
       </c>
       <c r="I37">
-        <v>91.5352279745964</v>
+        <v>91.45406173387406</v>
       </c>
       <c r="J37">
-        <v>81.42173572309247</v>
+        <v>80.53246808617439</v>
       </c>
       <c r="K37">
-        <v>95.97536753907197</v>
+        <v>95.27630024142699</v>
       </c>
       <c r="L37">
-        <v>97.70952051859595</v>
+        <v>96.49955947028953</v>
       </c>
       <c r="M37">
-        <v>81.33135504561734</v>
+        <v>80.79574180273191</v>
       </c>
       <c r="N37">
-        <v>93.22356007450843</v>
+        <v>92.75401957099183</v>
       </c>
       <c r="O37">
-        <v>93.97133536993427</v>
+        <v>92.95721045614071</v>
       </c>
       <c r="P37">
-        <v>92.29548002088465</v>
+        <v>92.27564081645973</v>
       </c>
       <c r="Q37">
-        <v>97.43100920834712</v>
+        <v>95.8551805233521</v>
       </c>
       <c r="R37">
-        <v>98.35799729496509</v>
+        <v>97.51210162444896</v>
       </c>
       <c r="S37">
-        <v>92.6129408788277</v>
+        <v>88.3995583730924</v>
       </c>
       <c r="T37">
-        <v>93.44065826976649</v>
+        <v>91.9049879253339</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>7.679533323587052</v>
+        <v>7.538840015498631</v>
       </c>
       <c r="C38">
-        <v>11.91615331367931</v>
+        <v>11.89711252850759</v>
       </c>
       <c r="D38">
-        <v>6.975279310884757</v>
+        <v>6.938704091647333</v>
       </c>
       <c r="E38">
-        <v>6.907899756818545</v>
+        <v>6.913714560307544</v>
       </c>
       <c r="F38">
-        <v>6.319810159839163</v>
+        <v>6.268519981972403</v>
       </c>
       <c r="G38">
-        <v>5.339110761113679</v>
+        <v>5.217138093252527</v>
       </c>
       <c r="H38">
-        <v>11.52357314996833</v>
+        <v>11.5142020825965</v>
       </c>
       <c r="I38">
-        <v>9.369238962430181</v>
+        <v>9.360931058229399</v>
       </c>
       <c r="J38">
-        <v>6.806775236941919</v>
+        <v>6.732433356653668</v>
       </c>
       <c r="K38">
-        <v>6.759859053307365</v>
+        <v>6.710621457015455</v>
       </c>
       <c r="L38">
-        <v>11.56612235737645</v>
+        <v>11.42289621668826</v>
       </c>
       <c r="M38">
-        <v>8.146102533840992</v>
+        <v>8.092455814287622</v>
       </c>
       <c r="N38">
-        <v>9.361585809986803</v>
+        <v>9.314434170300204</v>
       </c>
       <c r="O38">
-        <v>5.872637636589341</v>
+        <v>5.809260989726745</v>
       </c>
       <c r="P38">
-        <v>12.39988644985234</v>
+        <v>12.39722105516488</v>
       </c>
       <c r="Q38">
-        <v>8.443236588783854</v>
+        <v>8.306677453053737</v>
       </c>
       <c r="R38">
-        <v>13.13196990189659</v>
+        <v>13.01903270521851</v>
       </c>
       <c r="S38">
-        <v>6.844185361738206</v>
+        <v>6.532812344150015</v>
       </c>
       <c r="T38">
-        <v>6.478959214808259</v>
+        <v>6.372479383509932</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>27.46410785246858</v>
+        <v>26.96095017027024</v>
       </c>
       <c r="C39">
-        <v>25.97940448746077</v>
+        <v>25.9378920759708</v>
       </c>
       <c r="D39">
-        <v>28.15646957386732</v>
+        <v>28.0088297444473</v>
       </c>
       <c r="E39">
-        <v>29.78990375714307</v>
+        <v>29.81497974874717</v>
       </c>
       <c r="F39">
-        <v>29.93560236684915</v>
+        <v>29.6926516561298</v>
       </c>
       <c r="G39">
-        <v>32.10347372679833</v>
+        <v>31.37006576557237</v>
       </c>
       <c r="H39">
-        <v>26.75204599478528</v>
+        <v>26.73029100420303</v>
       </c>
       <c r="I39">
-        <v>29.22109064197721</v>
+        <v>29.19517967709848</v>
       </c>
       <c r="J39">
-        <v>22.46863180747234</v>
+        <v>22.22323508465909</v>
       </c>
       <c r="K39">
-        <v>32.73320368188949</v>
+        <v>32.49478091959222</v>
       </c>
       <c r="L39">
-        <v>28.70955695629207</v>
+        <v>28.35403944431495</v>
       </c>
       <c r="M39">
-        <v>34.20322398169149</v>
+        <v>33.97797629334674</v>
       </c>
       <c r="N39">
-        <v>20.52947558011326</v>
+        <v>20.42607446248684</v>
       </c>
       <c r="O39">
-        <v>31.60081838662382</v>
+        <v>31.25978697426833</v>
       </c>
       <c r="P39">
-        <v>25.77402088874023</v>
+        <v>25.76848068168839</v>
       </c>
       <c r="Q39">
-        <v>24.17961941549672</v>
+        <v>23.78854332815247</v>
       </c>
       <c r="R39">
-        <v>29.44321507475566</v>
+        <v>29.18999836800307</v>
       </c>
       <c r="S39">
-        <v>38.80069261811352</v>
+        <v>37.03547322289457</v>
       </c>
       <c r="T39">
-        <v>30.1138306006092</v>
+        <v>29.61891845565073</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.498812105697381</v>
+        <v>5.398070819331577</v>
       </c>
       <c r="C40">
-        <v>6.270229193835148</v>
+        <v>6.260210013658923</v>
       </c>
       <c r="D40">
-        <v>5.997924385219267</v>
+        <v>5.966473974478502</v>
       </c>
       <c r="E40">
-        <v>4.982231631895256</v>
+        <v>4.98642548225441</v>
       </c>
       <c r="F40">
-        <v>4.915947020046356</v>
+        <v>4.876050284121591</v>
       </c>
       <c r="G40">
-        <v>4.36058049573948</v>
+        <v>4.260962476880904</v>
       </c>
       <c r="H40">
-        <v>6.197362620189343</v>
+        <v>6.192322872371052</v>
       </c>
       <c r="I40">
-        <v>5.265330048205679</v>
+        <v>5.260661167648634</v>
       </c>
       <c r="J40">
-        <v>4.943538144433395</v>
+        <v>4.889546069164139</v>
       </c>
       <c r="K40">
-        <v>6.244485557876466</v>
+        <v>6.199001849336869</v>
       </c>
       <c r="L40">
-        <v>5.672606486113472</v>
+        <v>5.602361203421072</v>
       </c>
       <c r="M40">
-        <v>6.259688847610349</v>
+        <v>6.2184652353732</v>
       </c>
       <c r="N40">
-        <v>4.437379069981122</v>
+        <v>4.415029256252192</v>
       </c>
       <c r="O40">
-        <v>6.46048260289858</v>
+        <v>6.390762019095688</v>
       </c>
       <c r="P40">
-        <v>6.661662574034492</v>
+        <v>6.660230628660934</v>
       </c>
       <c r="Q40">
-        <v>5.076131678854434</v>
+        <v>4.99403139093434</v>
       </c>
       <c r="R40">
-        <v>6.275410498228263</v>
+        <v>6.221440890091126</v>
       </c>
       <c r="S40">
-        <v>5.177245185274463</v>
+        <v>4.941708832745952</v>
       </c>
       <c r="T40">
-        <v>7.404148978157299</v>
+        <v>7.282463919189815</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.902913517442603</v>
+        <v>2.849730532402462</v>
       </c>
       <c r="C41">
-        <v>4.170293944956394</v>
+        <v>4.163630244933529</v>
       </c>
       <c r="D41">
-        <v>3.539852272506312</v>
+        <v>3.521290883468746</v>
       </c>
       <c r="E41">
-        <v>5.189203700352187</v>
+        <v>5.193571771813001</v>
       </c>
       <c r="F41">
-        <v>3.35196584933248</v>
+        <v>3.324762037783187</v>
       </c>
       <c r="G41">
-        <v>2.454726781821785</v>
+        <v>2.398648234691856</v>
       </c>
       <c r="H41">
-        <v>3.146661430016697</v>
+        <v>3.1441025382673</v>
       </c>
       <c r="I41">
-        <v>2.693966852857909</v>
+        <v>2.691578054939169</v>
       </c>
       <c r="J41">
-        <v>4.310696253164716</v>
+        <v>4.263615917226407</v>
       </c>
       <c r="K41">
-        <v>3.319103946650674</v>
+        <v>3.294928191078357</v>
       </c>
       <c r="L41">
-        <v>2.566014112991464</v>
+        <v>2.534238528487052</v>
       </c>
       <c r="M41">
-        <v>2.142450570088566</v>
+        <v>2.128341314231176</v>
       </c>
       <c r="N41">
-        <v>4.611471165572429</v>
+        <v>4.588244499573999</v>
       </c>
       <c r="O41">
-        <v>3.368484503272014</v>
+        <v>3.332132310946049</v>
       </c>
       <c r="P41">
-        <v>3.760694017278794</v>
+        <v>3.75988564424285</v>
       </c>
       <c r="Q41">
-        <v>2.750476663184447</v>
+        <v>2.705991031161618</v>
       </c>
       <c r="R41">
-        <v>3.539271660169279</v>
+        <v>3.508833315993366</v>
       </c>
       <c r="S41">
-        <v>2.283517066612363</v>
+        <v>2.179629523805566</v>
       </c>
       <c r="T41">
-        <v>1.481180578480123</v>
+        <v>1.456837801671396</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.36371247384095</v>
+        <v>11.1555229611788</v>
       </c>
       <c r="C42">
-        <v>10.06801844675595</v>
+        <v>10.05193079067238</v>
       </c>
       <c r="D42">
-        <v>12.29199220784803</v>
+        <v>12.22753854372519</v>
       </c>
       <c r="E42">
-        <v>14.54351330633166</v>
+        <v>14.5557554747031</v>
       </c>
       <c r="F42">
-        <v>9.401677916607818</v>
+        <v>9.325375983417935</v>
       </c>
       <c r="G42">
-        <v>11.09187658943787</v>
+        <v>10.83848125082568</v>
       </c>
       <c r="H42">
-        <v>10.85685809226922</v>
+        <v>10.84802920323411</v>
       </c>
       <c r="I42">
-        <v>11.29196253730202</v>
+        <v>11.28194971306144</v>
       </c>
       <c r="J42">
-        <v>15.01411505604723</v>
+        <v>14.85013468277548</v>
       </c>
       <c r="K42">
-        <v>12.35416847898951</v>
+        <v>12.26418294004648</v>
       </c>
       <c r="L42">
-        <v>11.65621873406487</v>
+        <v>11.51187690776276</v>
       </c>
       <c r="M42">
-        <v>11.02775636539034</v>
+        <v>10.95513231596556</v>
       </c>
       <c r="N42">
-        <v>13.54373483937253</v>
+        <v>13.47551890693129</v>
       </c>
       <c r="O42">
-        <v>12.41448861053073</v>
+        <v>12.28051326430005</v>
       </c>
       <c r="P42">
-        <v>10.40300067100132</v>
+        <v>10.40076451320792</v>
       </c>
       <c r="Q42">
-        <v>11.61254094325681</v>
+        <v>11.42472214436772</v>
       </c>
       <c r="R42">
-        <v>10.82067668712783</v>
+        <v>10.72761700908002</v>
       </c>
       <c r="S42">
-        <v>9.322315193087743</v>
+        <v>8.898200815822722</v>
       </c>
       <c r="T42">
-        <v>9.218573262867411</v>
+        <v>9.067068662622686</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.228059716751299</v>
+        <v>1.205560981893389</v>
       </c>
       <c r="C43">
-        <v>1.230224723267758</v>
+        <v>1.228258950920587</v>
       </c>
       <c r="D43">
-        <v>0.8500866715721539</v>
+        <v>0.8456292004089497</v>
       </c>
       <c r="E43">
-        <v>0.83368349174452</v>
+        <v>0.8343852543420058</v>
       </c>
       <c r="F43">
-        <v>0.8442587084929093</v>
+        <v>0.837406892025488</v>
       </c>
       <c r="G43">
-        <v>1.878650092476385</v>
+        <v>1.835732090957131</v>
       </c>
       <c r="H43">
-        <v>1.115642092795631</v>
+        <v>1.11473484318838</v>
       </c>
       <c r="I43">
-        <v>0.6643792792103453</v>
+        <v>0.6637901599204225</v>
       </c>
       <c r="J43">
-        <v>0.5677540635421602</v>
+        <v>0.5615531970296378</v>
       </c>
       <c r="K43">
-        <v>0.8441604143660825</v>
+        <v>0.8380117018913996</v>
       </c>
       <c r="L43">
-        <v>0.7294341266505105</v>
+        <v>0.7204013642761977</v>
       </c>
       <c r="M43">
-        <v>0.6285292535996141</v>
+        <v>0.6243900308904876</v>
       </c>
       <c r="N43">
-        <v>0.8641585016455338</v>
+        <v>0.8598059815566581</v>
       </c>
       <c r="O43">
-        <v>1.215543828639445</v>
+        <v>1.202425857339171</v>
       </c>
       <c r="P43">
-        <v>0.5048669214704107</v>
+        <v>0.5047583987338674</v>
       </c>
       <c r="Q43">
-        <v>0.7065375901342776</v>
+        <v>0.6951101995056946</v>
       </c>
       <c r="R43">
-        <v>0.7399463889007889</v>
+        <v>0.733582722864481</v>
       </c>
       <c r="S43">
-        <v>0.6011169976227684</v>
+        <v>0.5737694604681319</v>
       </c>
       <c r="T43">
-        <v>0.8006618520736248</v>
+        <v>0.7875032048111218</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.587924686474786</v>
+        <v>6.467230253815618</v>
       </c>
       <c r="C44">
-        <v>6.345369625275803</v>
+        <v>6.335230378432499</v>
       </c>
       <c r="D44">
-        <v>7.46803588442562</v>
+        <v>7.428876871922769</v>
       </c>
       <c r="E44">
-        <v>8.782238808764518</v>
+        <v>8.789631358550148</v>
       </c>
       <c r="F44">
-        <v>5.059082835566706</v>
+        <v>5.018024441102924</v>
       </c>
       <c r="G44">
-        <v>6.324841985104696</v>
+        <v>6.180350161420835</v>
       </c>
       <c r="H44">
-        <v>5.63161442354354</v>
+        <v>5.627034746954656</v>
       </c>
       <c r="I44">
-        <v>4.852785308745888</v>
+        <v>4.848482240416252</v>
       </c>
       <c r="J44">
-        <v>5.628136621605087</v>
+        <v>5.566667534643247</v>
       </c>
       <c r="K44">
-        <v>6.737665936279239</v>
+        <v>6.688589990656089</v>
       </c>
       <c r="L44">
-        <v>4.837482379116925</v>
+        <v>4.777578643845948</v>
       </c>
       <c r="M44">
-        <v>6.90060698268696</v>
+        <v>6.855162559908048</v>
       </c>
       <c r="N44">
-        <v>4.914753775539184</v>
+        <v>4.889999561469453</v>
       </c>
       <c r="O44">
-        <v>7.88359880664722</v>
+        <v>7.798520160816547</v>
       </c>
       <c r="P44">
-        <v>5.721287445544878</v>
+        <v>5.720057636770057</v>
       </c>
       <c r="Q44">
-        <v>5.226729829031518</v>
+        <v>5.142193798252096</v>
       </c>
       <c r="R44">
-        <v>4.399771112430309</v>
+        <v>4.361932325167229</v>
       </c>
       <c r="S44">
-        <v>5.915682404744491</v>
+        <v>5.646551195681086</v>
       </c>
       <c r="T44">
-        <v>6.527191856499441</v>
+        <v>6.419919335606988</v>
       </c>
     </row>
   </sheetData>
